--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -732,13 +732,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -753,28 +746,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,19 +784,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -813,14 +799,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,13 +816,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,19 +844,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -896,7 +896,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,85 +1046,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,55 +1058,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,25 +1076,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,6 +1095,71 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1122,206 +1187,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2445,8 +2445,8 @@
   <sheetPr/>
   <dimension ref="D7:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2743,7 +2743,7 @@
         <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N15" t="s">
         <v>123</v>
@@ -3121,7 +3121,7 @@
         <v>14</v>
       </c>
       <c r="M27" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N27" t="s">
         <v>123</v>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\agile-service\src\main\resources\script\front\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="14400" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="14400" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -17,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="239">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -499,222 +503,314 @@
     <t>choerodon.code.program.roadMap</t>
   </si>
   <si>
+    <t>Road Map</t>
+  </si>
+  <si>
+    <t>view_week</t>
+  </si>
+  <si>
+    <t>choerodon.code.program.pi</t>
+  </si>
+  <si>
+    <t>PI目标</t>
+  </si>
+  <si>
+    <t>PI Objective</t>
+  </si>
+  <si>
+    <t>center_focus_strong</t>
+  </si>
+  <si>
+    <t>choerodon.code.agile-program.setting</t>
+  </si>
+  <si>
+    <t>Program Setting</t>
+  </si>
+  <si>
+    <t>choerodon.code.program.art</t>
+  </si>
+  <si>
+    <t>ART设置</t>
+  </si>
+  <si>
+    <t>ART Setting</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>choerodon.code.program.programSetting</t>
+  </si>
+  <si>
+    <t>choerodon.code.platform-reports</t>
+  </si>
+  <si>
+    <t>报表</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>bar_chart</t>
+  </si>
+  <si>
+    <t>choerodon.code.platform-reports.reportboard</t>
+  </si>
+  <si>
+    <t>敏捷报表</t>
+  </si>
+  <si>
+    <t>Agile Report</t>
+  </si>
+  <si>
+    <t>application_model</t>
+  </si>
+  <si>
+    <t>choerodon.code.rentsetting</t>
+  </si>
+  <si>
+    <t>组织设置</t>
+  </si>
+  <si>
+    <t>Organization Settings</t>
+  </si>
+  <si>
+    <t>choerodon.code.top.organization</t>
+  </si>
+  <si>
+    <t>IAM</t>
+  </si>
+  <si>
+    <t>choerodon.code.rentsetting.workCalendar</t>
+  </si>
+  <si>
+    <t>工作日历</t>
+  </si>
+  <si>
+    <t>Work Calendar</t>
+  </si>
+  <si>
+    <t>date_range</t>
+  </si>
+  <si>
+    <t>choerodon.code.rentsetting.objectScheme-organization</t>
+  </si>
+  <si>
+    <t>字段定义</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>choerodon.code.rentsetting.page-organization</t>
+  </si>
+  <si>
+    <t>页面</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>baseline-file_copy</t>
+  </si>
+  <si>
+    <t>choerodon.code.prosetting</t>
+  </si>
+  <si>
+    <t>Project Manage</t>
+  </si>
+  <si>
+    <t>choerodon.code.prosetting.objectScheme-project</t>
+  </si>
+  <si>
+    <t>choerodon.code.prosetting.page-project</t>
+  </si>
+  <si>
+    <t>IAM_MENU_PERMISSION</t>
+  </si>
+  <si>
+    <t>#MENU_CODE</t>
+  </si>
+  <si>
+    <t>#PERMISSION_CODE</t>
+  </si>
+  <si>
+    <t>agile-service.sprint.queryByProjectId</t>
+  </si>
+  <si>
+    <t>agile-service.board.queryByProjectId</t>
+  </si>
+  <si>
+    <t>agile-service.board.queryByOptions</t>
+  </si>
+  <si>
+    <t>agile-service.issue.listEpic</t>
+  </si>
+  <si>
+    <t>agile-service.issue.listIssueWithSub</t>
+  </si>
+  <si>
+    <t>agile-service.product-version.listByProjectId</t>
+  </si>
+  <si>
+    <t>agile-service.sprint.queryNameByOptions</t>
+  </si>
+  <si>
+    <t>agile-service.issue-component.listByProjectId</t>
+  </si>
+  <si>
+    <t>agile-service.project-info.updateProjectInfo</t>
+  </si>
+  <si>
+    <t>agile-service.quick-filter.create</t>
+  </si>
+  <si>
+    <t>agile-service.notice.queryByProjectId</t>
+  </si>
+  <si>
+    <t>agile-service.issue-link-type.updateIssueLinkType</t>
+  </si>
+  <si>
+    <t>agile-service.pi.queryBacklogAll</t>
+  </si>
+  <si>
+    <t>agile-service.board.queryByOptionsInProgram</t>
+  </si>
+  <si>
+    <t>agile-service.art.queryArtCalendar</t>
+  </si>
+  <si>
+    <t>agile-service.pi.queryRoadMapOfProgram</t>
+  </si>
+  <si>
+    <t>agile-service.pi-objective.queryPiObjectiveList</t>
+  </si>
+  <si>
+    <t>agile-service.art.queryArtList</t>
+  </si>
+  <si>
+    <t>agile-service.time-zone-work-calendar.queryTimeZoneWorkCalendar</t>
+  </si>
+  <si>
+    <t>agile-service.time-zone-work-calendar.queryTimeZoneWorkCalendarRefByTimeZoneId</t>
+  </si>
+  <si>
+    <t>foundation-service.object-scheme.pageQuery</t>
+  </si>
+  <si>
+    <t>foundation-service.page.pageQuery</t>
+  </si>
+  <si>
+    <t>foundation-service.project-object-scheme.pageQuery</t>
+  </si>
+  <si>
+    <t>foundation-service.project-page.pageQuery</t>
+  </si>
+  <si>
+    <t>/agile/board</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告板路由</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.route.program.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>board</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目群公告板</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>线路图</t>
-  </si>
-  <si>
-    <t>Road Map</t>
-  </si>
-  <si>
-    <t>view_week</t>
-  </si>
-  <si>
-    <t>choerodon.code.program.pi</t>
-  </si>
-  <si>
-    <t>PI目标</t>
-  </si>
-  <si>
-    <t>PI Objective</t>
-  </si>
-  <si>
-    <t>center_focus_strong</t>
-  </si>
-  <si>
-    <t>choerodon.code.agile-program.setting</t>
-  </si>
-  <si>
-    <t>Program Setting</t>
-  </si>
-  <si>
-    <t>choerodon.code.program.art</t>
-  </si>
-  <si>
-    <t>ART设置</t>
-  </si>
-  <si>
-    <t>ART Setting</t>
-  </si>
-  <si>
-    <t>train</t>
-  </si>
-  <si>
-    <t>choerodon.code.program.programSetting</t>
-  </si>
-  <si>
-    <t>choerodon.code.platform-reports</t>
-  </si>
-  <si>
-    <t>报表</t>
-  </si>
-  <si>
-    <t>Reports</t>
-  </si>
-  <si>
-    <t>bar_chart</t>
-  </si>
-  <si>
-    <t>choerodon.code.platform-reports.reportboard</t>
-  </si>
-  <si>
-    <t>敏捷报表</t>
-  </si>
-  <si>
-    <t>Agile Report</t>
-  </si>
-  <si>
-    <t>application_model</t>
-  </si>
-  <si>
-    <t>choerodon.code.rentsetting</t>
-  </si>
-  <si>
-    <t>组织设置</t>
-  </si>
-  <si>
-    <t>Organization Settings</t>
-  </si>
-  <si>
-    <t>choerodon.code.top.organization</t>
-  </si>
-  <si>
-    <t>IAM</t>
-  </si>
-  <si>
-    <t>choerodon.code.rentsetting.workCalendar</t>
-  </si>
-  <si>
-    <t>工作日历</t>
-  </si>
-  <si>
-    <t>Work Calendar</t>
-  </si>
-  <si>
-    <t>date_range</t>
-  </si>
-  <si>
-    <t>choerodon.code.rentsetting.objectScheme-organization</t>
-  </si>
-  <si>
-    <t>字段定义</t>
-  </si>
-  <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>storage</t>
-  </si>
-  <si>
-    <t>choerodon.code.rentsetting.page-organization</t>
-  </si>
-  <si>
-    <t>页面</t>
-  </si>
-  <si>
-    <t>Page</t>
-  </si>
-  <si>
-    <t>baseline-file_copy</t>
-  </si>
-  <si>
-    <t>choerodon.code.prosetting</t>
-  </si>
-  <si>
-    <t>Project Manage</t>
-  </si>
-  <si>
-    <t>choerodon.code.prosetting.objectScheme-project</t>
-  </si>
-  <si>
-    <t>choerodon.code.prosetting.page-project</t>
-  </si>
-  <si>
-    <t>IAM_MENU_PERMISSION</t>
-  </si>
-  <si>
-    <t>#MENU_CODE</t>
-  </si>
-  <si>
-    <t>#PERMISSION_CODE</t>
-  </si>
-  <si>
-    <t>agile-service.sprint.queryByProjectId</t>
-  </si>
-  <si>
-    <t>agile-service.board.queryByProjectId</t>
-  </si>
-  <si>
-    <t>agile-service.board.queryByOptions</t>
-  </si>
-  <si>
-    <t>agile-service.issue.listEpic</t>
-  </si>
-  <si>
-    <t>agile-service.issue.listIssueWithSub</t>
-  </si>
-  <si>
-    <t>agile-service.product-version.listByProjectId</t>
-  </si>
-  <si>
-    <t>agile-service.sprint.queryNameByOptions</t>
-  </si>
-  <si>
-    <t>agile-service.issue-component.listByProjectId</t>
-  </si>
-  <si>
-    <t>agile-service.project-info.updateProjectInfo</t>
-  </si>
-  <si>
-    <t>agile-service.quick-filter.create</t>
-  </si>
-  <si>
-    <t>agile-service.notice.queryByProjectId</t>
-  </si>
-  <si>
-    <t>agile-service.issue-link-type.updateIssueLinkType</t>
-  </si>
-  <si>
-    <t>agile-service.pi.queryBacklogAll</t>
-  </si>
-  <si>
-    <t>agile-service.board.queryByOptionsInProgram</t>
-  </si>
-  <si>
-    <t>agile-service.art.queryArtCalendar</t>
-  </si>
-  <si>
-    <t>agile-service.pi.queryRoadMapOfProgram</t>
-  </si>
-  <si>
-    <t>agile-service.pi-objective.queryPiObjectiveList</t>
-  </si>
-  <si>
-    <t>agile-service.art.queryArtList</t>
-  </si>
-  <si>
-    <t>agile-service.time-zone-work-calendar.queryTimeZoneWorkCalendar</t>
-  </si>
-  <si>
-    <t>agile-service.time-zone-work-calendar.queryTimeZoneWorkCalendarRefByTimeZoneId</t>
-  </si>
-  <si>
-    <t>foundation-service.object-scheme.pageQuery</t>
-  </si>
-  <si>
-    <t>foundation-service.page.pageQuery</t>
-  </si>
-  <si>
-    <t>foundation-service.project-object-scheme.pageQuery</t>
-  </si>
-  <si>
-    <t>foundation-service.project-page.pageQuery</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Program Board</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.code.program.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>board</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>low_priority</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.code.program.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>board</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>agile-service.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>board-feature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>queryBoardInfo</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -728,360 +824,30 @@
     <font>
       <sz val="10"/>
       <name val="华文宋体"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Droid Sans Fallback"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1089,302 +855,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1669,37 +1160,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="D7:N31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.6397058823529" customWidth="1"/>
-    <col min="4" max="4" width="18.9632352941176" customWidth="1"/>
-    <col min="5" max="5" width="11.6397058823529" customWidth="1"/>
-    <col min="6" max="6" width="13.4926470588235" customWidth="1"/>
-    <col min="7" max="7" width="15.0367647058824" customWidth="1"/>
+    <col min="1" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="18.9632352941176" customWidth="1"/>
-    <col min="10" max="10" width="14.1911764705882" customWidth="1"/>
-    <col min="11" max="11" width="18.9632352941176" customWidth="1"/>
-    <col min="12" max="12" width="19.2573529411765" customWidth="1"/>
-    <col min="13" max="13" width="18.6985294117647" customWidth="1"/>
-    <col min="14" max="14" width="19.3897058823529" customWidth="1"/>
-    <col min="15" max="15" width="18.9632352941176" customWidth="1"/>
-    <col min="16" max="1025" width="11.6397058823529" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="19.21875" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
+    <col min="16" max="1025" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.8" customHeight="1" spans="4:14">
+    <row r="7" spans="4:14" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1734,7 +1225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="12.8" customHeight="1" spans="6:14">
+    <row r="8" spans="4:14" ht="12.75" customHeight="1">
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1763,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="6:14">
+    <row r="9" spans="4:14">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -1792,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="6:14">
+    <row r="10" spans="4:14">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -1821,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="6:14">
+    <row r="11" spans="4:14">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -1850,7 +1341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:14">
+    <row r="12" spans="4:14">
       <c r="F12" t="s">
         <v>26</v>
       </c>
@@ -1879,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="6:14">
+    <row r="13" spans="4:14">
       <c r="F13" t="s">
         <v>29</v>
       </c>
@@ -1908,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="6:14">
+    <row r="14" spans="4:14">
       <c r="F14" t="s">
         <v>32</v>
       </c>
@@ -1937,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="6:14">
+    <row r="15" spans="4:14">
       <c r="F15" t="s">
         <v>35</v>
       </c>
@@ -1966,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="6:14">
+    <row r="16" spans="4:14">
       <c r="F16" t="s">
         <v>38</v>
       </c>
@@ -2171,10 +1662,10 @@
     </row>
     <row r="23" spans="6:14">
       <c r="F23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -2182,8 +1673,8 @@
       <c r="I23" t="s">
         <v>14</v>
       </c>
-      <c r="J23" t="s">
-        <v>61</v>
+      <c r="J23" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="K23" t="s">
         <v>16</v>
@@ -2200,10 +1691,10 @@
     </row>
     <row r="24" spans="6:14">
       <c r="F24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -2212,7 +1703,7 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K24" t="s">
         <v>16</v>
@@ -2229,10 +1720,10 @@
     </row>
     <row r="25" spans="6:14">
       <c r="F25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -2241,7 +1732,7 @@
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="K25" t="s">
         <v>16</v>
@@ -2258,10 +1749,10 @@
     </row>
     <row r="26" spans="6:14">
       <c r="F26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -2270,7 +1761,7 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="K26" t="s">
         <v>16</v>
@@ -2287,19 +1778,19 @@
     </row>
     <row r="27" spans="6:14">
       <c r="F27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K27" t="s">
         <v>16</v>
@@ -2316,10 +1807,10 @@
     </row>
     <row r="28" spans="6:14">
       <c r="F28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -2328,7 +1819,7 @@
         <v>72</v>
       </c>
       <c r="J28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K28" t="s">
         <v>16</v>
@@ -2345,10 +1836,10 @@
     </row>
     <row r="29" spans="6:14">
       <c r="F29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -2357,7 +1848,7 @@
         <v>72</v>
       </c>
       <c r="J29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s">
         <v>16</v>
@@ -2374,19 +1865,19 @@
     </row>
     <row r="30" spans="6:14">
       <c r="F30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="J30" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K30" t="s">
         <v>16</v>
@@ -2403,10 +1894,10 @@
     </row>
     <row r="31" spans="6:14">
       <c r="F31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -2415,7 +1906,7 @@
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s">
         <v>16</v>
@@ -2430,9 +1921,39 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="6:14">
+      <c r="F32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" t="s">
+        <v>79</v>
+      </c>
+      <c r="K32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -2441,30 +1962,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="D7:O38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView topLeftCell="H10" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.6397058823529" customWidth="1"/>
-    <col min="4" max="4" width="15.1911764705882" customWidth="1"/>
-    <col min="5" max="5" width="11.6397058823529" customWidth="1"/>
-    <col min="6" max="6" width="42.2720588235294" customWidth="1"/>
-    <col min="7" max="7" width="32.9632352941176" customWidth="1"/>
-    <col min="8" max="8" width="35.9044117647059" customWidth="1"/>
-    <col min="9" max="9" width="27.1176470588235" customWidth="1"/>
-    <col min="10" max="10" width="18.5514705882353" customWidth="1"/>
-    <col min="11" max="11" width="41.0514705882353" customWidth="1"/>
-    <col min="12" max="12" width="19.2573529411765" customWidth="1"/>
-    <col min="13" max="1025" width="11.6397058823529" customWidth="1"/>
+    <col min="1" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="42.21875" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="8" max="8" width="35.88671875" customWidth="1"/>
+    <col min="9" max="9" width="49.77734375" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" customWidth="1"/>
+    <col min="11" max="11" width="41" customWidth="1"/>
+    <col min="12" max="12" width="19.21875" customWidth="1"/>
+    <col min="13" max="1025" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.8" customHeight="1" spans="4:15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>82</v>
       </c>
@@ -2502,7 +2022,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" ht="12.8" customHeight="1" spans="6:15">
+    <row r="8" spans="4:15" ht="12.75" customHeight="1">
       <c r="F8" s="1" t="s">
         <v>90</v>
       </c>
@@ -2531,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="6:15">
+    <row r="9" spans="4:15">
       <c r="F9" t="s">
         <v>95</v>
       </c>
@@ -2563,7 +2083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="6:15">
+    <row r="10" spans="4:15">
       <c r="F10" t="s">
         <v>100</v>
       </c>
@@ -2595,7 +2115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="6:15">
+    <row r="11" spans="4:15">
       <c r="F11" t="s">
         <v>104</v>
       </c>
@@ -2627,7 +2147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="6:15">
+    <row r="12" spans="4:15">
       <c r="F12" t="s">
         <v>108</v>
       </c>
@@ -2659,7 +2179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="6:15">
+    <row r="13" spans="4:15">
       <c r="F13" t="s">
         <v>112</v>
       </c>
@@ -2691,7 +2211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="6:15">
+    <row r="14" spans="4:15">
       <c r="F14" t="s">
         <v>116</v>
       </c>
@@ -2723,7 +2243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="6:15">
+    <row r="15" spans="4:15" ht="14.4">
       <c r="F15" t="s">
         <v>120</v>
       </c>
@@ -2752,7 +2272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="6:15">
+    <row r="16" spans="4:15">
       <c r="F16" t="s">
         <v>124</v>
       </c>
@@ -3041,11 +2561,11 @@
       <c r="F25" t="s">
         <v>159</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H25" t="s">
         <v>160</v>
-      </c>
-      <c r="H25" t="s">
-        <v>161</v>
       </c>
       <c r="I25" t="s">
         <v>56</v>
@@ -3063,24 +2583,24 @@
         <v>98</v>
       </c>
       <c r="N25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O25">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="6:15">
-      <c r="F26" t="s">
-        <v>163</v>
-      </c>
-      <c r="G26" t="s">
-        <v>164</v>
-      </c>
-      <c r="H26" t="s">
-        <v>165</v>
-      </c>
-      <c r="I26" t="s">
-        <v>59</v>
+      <c r="F26" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="J26" t="s">
         <v>13</v>
@@ -3094,8 +2614,8 @@
       <c r="M26" t="s">
         <v>98</v>
       </c>
-      <c r="N26" t="s">
-        <v>166</v>
+      <c r="N26" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="O26">
         <v>5</v>
@@ -3103,13 +2623,16 @@
     </row>
     <row r="27" spans="6:15">
       <c r="F27" t="s">
-        <v>167</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>121</v>
+        <v>162</v>
+      </c>
+      <c r="G27" t="s">
+        <v>163</v>
       </c>
       <c r="H27" t="s">
-        <v>168</v>
+        <v>164</v>
+      </c>
+      <c r="I27" t="s">
+        <v>59</v>
       </c>
       <c r="J27" t="s">
         <v>13</v>
@@ -3121,42 +2644,39 @@
         <v>14</v>
       </c>
       <c r="M27" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="N27" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="O27">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="6:15">
+    <row r="28" spans="6:15" ht="14.4">
       <c r="F28" t="s">
-        <v>169</v>
-      </c>
-      <c r="G28" t="s">
-        <v>170</v>
+        <v>166</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="H28" t="s">
-        <v>171</v>
-      </c>
-      <c r="I28" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="J28" t="s">
         <v>13</v>
       </c>
       <c r="K28" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="L28" t="s">
         <v>14</v>
       </c>
       <c r="M28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N28" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="O28">
         <v>7</v>
@@ -3164,22 +2684,22 @@
     </row>
     <row r="29" spans="6:15">
       <c r="F29" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G29" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="H29" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J29" t="s">
         <v>13</v>
       </c>
       <c r="K29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L29" t="s">
         <v>14</v>
@@ -3188,7 +2708,7 @@
         <v>98</v>
       </c>
       <c r="N29" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="O29">
         <v>8</v>
@@ -3196,144 +2716,144 @@
     </row>
     <row r="30" spans="6:15">
       <c r="F30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G30" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="H30" t="s">
-        <v>176</v>
+        <v>167</v>
+      </c>
+      <c r="I30" t="s">
+        <v>65</v>
       </c>
       <c r="J30" t="s">
         <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="L30" t="s">
         <v>14</v>
       </c>
       <c r="M30" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="N30" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="O30">
-        <v>99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="6:15">
       <c r="F31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G31" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H31" t="s">
-        <v>180</v>
-      </c>
-      <c r="I31" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="J31" t="s">
         <v>13</v>
       </c>
       <c r="K31" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="L31" t="s">
         <v>14</v>
       </c>
       <c r="M31" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N31" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="O31">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="6:15">
       <c r="F32" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G32" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H32" t="s">
-        <v>184</v>
+        <v>179</v>
+      </c>
+      <c r="I32" t="s">
+        <v>67</v>
       </c>
       <c r="J32" t="s">
         <v>13</v>
       </c>
       <c r="K32" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="L32" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="M32" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="N32" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="O32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="6:15">
       <c r="F33" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G33" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H33" t="s">
-        <v>189</v>
-      </c>
-      <c r="I33" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="J33" t="s">
         <v>13</v>
       </c>
       <c r="K33" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L33" t="s">
         <v>72</v>
       </c>
       <c r="M33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N33" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O33">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="6:15">
       <c r="F34" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G34" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H34" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J34" t="s">
         <v>13</v>
       </c>
       <c r="K34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L34" t="s">
         <v>72</v>
@@ -3342,30 +2862,30 @@
         <v>98</v>
       </c>
       <c r="N34" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="O34">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="6:15">
       <c r="F35" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G35" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H35" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J35" t="s">
         <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L35" t="s">
         <v>72</v>
@@ -3374,91 +2894,91 @@
         <v>98</v>
       </c>
       <c r="N35" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="O35">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="6:15">
       <c r="F36" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G36" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="H36" t="s">
-        <v>200</v>
+        <v>196</v>
+      </c>
+      <c r="I36" t="s">
+        <v>77</v>
       </c>
       <c r="J36" t="s">
         <v>13</v>
       </c>
       <c r="K36" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="L36" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="M36" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="N36" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="O36">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="6:15">
       <c r="F37" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G37" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="H37" t="s">
-        <v>193</v>
-      </c>
-      <c r="I37" t="s">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="J37" t="s">
         <v>13</v>
       </c>
       <c r="K37" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="L37" t="s">
         <v>14</v>
       </c>
       <c r="M37" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N37" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="O37">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="6:15">
       <c r="F38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G38" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s">
         <v>13</v>
       </c>
       <c r="K38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L38" t="s">
         <v>14</v>
@@ -3467,15 +2987,48 @@
         <v>98</v>
       </c>
       <c r="N38" t="s">
+        <v>193</v>
+      </c>
+      <c r="O38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="6:15">
+      <c r="F39" t="s">
+        <v>201</v>
+      </c>
+      <c r="G39" t="s">
+        <v>195</v>
+      </c>
+      <c r="H39" t="s">
+        <v>196</v>
+      </c>
+      <c r="I39" t="s">
+        <v>81</v>
+      </c>
+      <c r="J39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" t="s">
         <v>198</v>
       </c>
-      <c r="O38">
+      <c r="L39" t="s">
+        <v>14</v>
+      </c>
+      <c r="M39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N39" t="s">
+        <v>197</v>
+      </c>
+      <c r="O39">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -3484,108 +3037,108 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="D7:G33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.6397058823529" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
-    <col min="5" max="5" width="11.6397058823529" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="18.9632352941176" customWidth="1"/>
-    <col min="8" max="1025" width="11.6397058823529" customWidth="1"/>
+    <col min="1" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="37.88671875" customWidth="1"/>
+    <col min="7" max="7" width="58.44140625" customWidth="1"/>
+    <col min="8" max="8" width="31.109375" customWidth="1"/>
+    <col min="9" max="1025" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.8" customHeight="1" spans="4:7">
+    <row r="7" spans="4:7" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" ht="12.8" customHeight="1" spans="6:7">
+    </row>
+    <row r="8" spans="4:7" ht="12.75" customHeight="1">
       <c r="F8" t="s">
         <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="6:7">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7">
       <c r="F9" t="s">
         <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="6:7">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7">
       <c r="F10" t="s">
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="6:7">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7">
       <c r="F11" t="s">
         <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="6:7">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7">
       <c r="F12" t="s">
         <v>108</v>
       </c>
       <c r="G12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="6:7">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7">
       <c r="F13" t="s">
         <v>112</v>
       </c>
       <c r="G13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="6:7">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7">
       <c r="F14" t="s">
         <v>116</v>
       </c>
       <c r="G14" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="6:7">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7">
       <c r="F15" t="s">
         <v>124</v>
       </c>
       <c r="G15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="6:7">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7">
       <c r="F16" t="s">
         <v>128</v>
       </c>
       <c r="G16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="6:7">
@@ -3593,7 +3146,7 @@
         <v>132</v>
       </c>
       <c r="G17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="6:7">
@@ -3601,7 +3154,7 @@
         <v>136</v>
       </c>
       <c r="G18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="6:7">
@@ -3609,7 +3162,7 @@
         <v>140</v>
       </c>
       <c r="G19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="6:7">
@@ -3617,7 +3170,7 @@
         <v>147</v>
       </c>
       <c r="G20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="6:7">
@@ -3625,7 +3178,7 @@
         <v>151</v>
       </c>
       <c r="G21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="6:7">
@@ -3633,7 +3186,7 @@
         <v>155</v>
       </c>
       <c r="G22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="6:7">
@@ -3641,92 +3194,101 @@
         <v>159</v>
       </c>
       <c r="G23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="6:7">
-      <c r="F24" t="s">
-        <v>163</v>
-      </c>
-      <c r="G24" t="s">
-        <v>222</v>
+      <c r="F24" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G26" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G28" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G32" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G33" t="s">
-        <v>229</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7">
+      <c r="F34" t="s">
+        <v>201</v>
+      </c>
+      <c r="G34" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="14400" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="240">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -791,7 +791,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -802,6 +802,20 @@
         <charset val="134"/>
       </rPr>
       <t>queryBoardInfo</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.route.program.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>board</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1168,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1177,7 +1191,7 @@
     <col min="1" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" customWidth="1"/>
     <col min="7" max="7" width="23.5546875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
@@ -1661,8 +1675,8 @@
       </c>
     </row>
     <row r="23" spans="6:14">
-      <c r="F23" t="s">
-        <v>56</v>
+      <c r="F23" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>229</v>
@@ -1965,8 +1979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="H10" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3040,7 +3054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\agile-service\src\main\resources\script\front\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="14400" tabRatio="500"/>
+    <workbookView windowHeight="14400" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -200,525 +195,12 @@
     <t>线路图路由</t>
   </si>
   <si>
-    <t>choerodon.route.program.pi</t>
-  </si>
-  <si>
-    <t>/agile/pi</t>
-  </si>
-  <si>
-    <t>PI目标路由</t>
-  </si>
-  <si>
-    <t>choerodon.route.program.art</t>
-  </si>
-  <si>
-    <t>/agile/art</t>
-  </si>
-  <si>
-    <t>ART设置路由</t>
-  </si>
-  <si>
-    <t>choerodon.route.program.programSetting</t>
-  </si>
-  <si>
-    <t>/agile/programSetting</t>
-  </si>
-  <si>
-    <t>choerodon.route.platform-reports.reportboard</t>
-  </si>
-  <si>
-    <t>/agile/reporthost</t>
-  </si>
-  <si>
-    <t>敏捷报表路由</t>
-  </si>
-  <si>
-    <t>choerodon.route.rentsetting.workCalendar</t>
-  </si>
-  <si>
-    <t>/agile/workCalendar</t>
-  </si>
-  <si>
-    <t>organization</t>
-  </si>
-  <si>
-    <t>工作日历路由</t>
-  </si>
-  <si>
-    <t>choerodon.route.rentsetting.objectScheme-organization</t>
-  </si>
-  <si>
-    <t>/agile/objectScheme</t>
-  </si>
-  <si>
-    <t>字段定义路由</t>
-  </si>
-  <si>
-    <t>choerodon.route.rentsetting.page-organization</t>
-  </si>
-  <si>
-    <t>/agile/page</t>
-  </si>
-  <si>
-    <t>页面路由</t>
-  </si>
-  <si>
-    <t>choerodon.route.prosetting.objectScheme-project</t>
-  </si>
-  <si>
-    <t>choerodon.route.prosetting.page-project</t>
-  </si>
-  <si>
-    <t>IAM_MENU_B</t>
-  </si>
-  <si>
-    <t>NAME:zh_CN</t>
-  </si>
-  <si>
-    <t>NAME:en_US</t>
-  </si>
-  <si>
-    <t>PAGE_PERMISSION_CODE</t>
-  </si>
-  <si>
-    <t>PARENT_CODE</t>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>ICON</t>
-  </si>
-  <si>
-    <t>SORT</t>
-  </si>
-  <si>
-    <t>choerodon.code.agile</t>
-  </si>
-  <si>
-    <t>敏捷管理</t>
-  </si>
-  <si>
-    <t>agile</t>
-  </si>
-  <si>
-    <t>choerodon.code.top.project</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>choerodon.code.agile.backlog</t>
-  </si>
-  <si>
-    <t>待办事项</t>
-  </si>
-  <si>
-    <t>Backlog</t>
-  </si>
-  <si>
-    <t>menu_item</t>
-  </si>
-  <si>
-    <t>baseline-list_alt</t>
-  </si>
-  <si>
-    <t>choerodon.code.agile.scrumboard</t>
-  </si>
-  <si>
-    <t>活跃冲刺</t>
-  </si>
-  <si>
-    <t>Scrumboard</t>
-  </si>
-  <si>
-    <t>directions_run</t>
-  </si>
-  <si>
-    <t>choerodon.code.agile.userStoryMap</t>
-  </si>
-  <si>
-    <t>故事地图</t>
-  </si>
-  <si>
-    <t>Story Map</t>
-  </si>
-  <si>
-    <t>usermap</t>
-  </si>
-  <si>
-    <t>choerodon.code.agile.issue</t>
-  </si>
-  <si>
-    <t>问题管理</t>
-  </si>
-  <si>
-    <t>Issue</t>
-  </si>
-  <si>
-    <t>assignment</t>
-  </si>
-  <si>
-    <t>choerodon.code.agile.release</t>
-  </si>
-  <si>
-    <t>发布版本</t>
-  </si>
-  <si>
-    <t>Release</t>
-  </si>
-  <si>
-    <t>publish2</t>
-  </si>
-  <si>
-    <t>choerodon.code.agile.reportboard</t>
-  </si>
-  <si>
-    <t>报告工作台</t>
-  </si>
-  <si>
-    <t>Report Workbench</t>
-  </si>
-  <si>
-    <t>whatshot</t>
-  </si>
-  <si>
-    <t>choerodon.code.agile.setting</t>
-  </si>
-  <si>
-    <t>设置</t>
-  </si>
-  <si>
-    <t>Agile Setting</t>
-  </si>
-  <si>
-    <t>settings</t>
-  </si>
-  <si>
-    <t>choerodon.code.agile.component</t>
-  </si>
-  <si>
-    <t>模块管理</t>
-  </si>
-  <si>
-    <t>component</t>
-  </si>
-  <si>
-    <t>extension</t>
-  </si>
-  <si>
-    <t>choerodon.code.agile.projectsetting</t>
-  </si>
-  <si>
-    <t>项目设置</t>
-  </si>
-  <si>
-    <t>Project Setting</t>
-  </si>
-  <si>
-    <t>folder_shared</t>
-  </si>
-  <si>
-    <t>choerodon.code.agile.fastsearch</t>
-  </si>
-  <si>
-    <t>快速搜索</t>
-  </si>
-  <si>
-    <t>Fast Search</t>
-  </si>
-  <si>
-    <t>youtube_searched_for</t>
-  </si>
-  <si>
-    <t>choerodon.code.agile.messageNotification</t>
-  </si>
-  <si>
-    <t>通知设置</t>
-  </si>
-  <si>
-    <t>Notification Setting</t>
-  </si>
-  <si>
-    <t>notifications</t>
-  </si>
-  <si>
-    <t>choerodon.code.agile.issuelink</t>
-  </si>
-  <si>
-    <t>问题链接</t>
-  </si>
-  <si>
-    <t>Issue Link</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>choerodon.code.program</t>
-  </si>
-  <si>
-    <t>大规模敏捷</t>
-  </si>
-  <si>
-    <t>Program</t>
-  </si>
-  <si>
-    <t>choerodon.code.program.feature</t>
-  </si>
-  <si>
-    <t>特性列表</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>baseline-vertical_split</t>
-  </si>
-  <si>
-    <t>choerodon.code.program.programKanban</t>
-  </si>
-  <si>
-    <t>项目群看板</t>
-  </si>
-  <si>
-    <t>Program Kanban</t>
-  </si>
-  <si>
-    <t>table_chart</t>
-  </si>
-  <si>
-    <t>choerodon.code.program.artCalendar</t>
-  </si>
-  <si>
-    <t>ART日历</t>
-  </si>
-  <si>
-    <t>ART Calendar</t>
-  </si>
-  <si>
-    <t>insert_invitation</t>
-  </si>
-  <si>
-    <t>choerodon.code.program.roadMap</t>
-  </si>
-  <si>
-    <t>Road Map</t>
-  </si>
-  <si>
-    <t>view_week</t>
-  </si>
-  <si>
-    <t>choerodon.code.program.pi</t>
-  </si>
-  <si>
-    <t>PI目标</t>
-  </si>
-  <si>
-    <t>PI Objective</t>
-  </si>
-  <si>
-    <t>center_focus_strong</t>
-  </si>
-  <si>
-    <t>choerodon.code.agile-program.setting</t>
-  </si>
-  <si>
-    <t>Program Setting</t>
-  </si>
-  <si>
-    <t>choerodon.code.program.art</t>
-  </si>
-  <si>
-    <t>ART设置</t>
-  </si>
-  <si>
-    <t>ART Setting</t>
-  </si>
-  <si>
-    <t>train</t>
-  </si>
-  <si>
-    <t>choerodon.code.program.programSetting</t>
-  </si>
-  <si>
-    <t>choerodon.code.platform-reports</t>
-  </si>
-  <si>
-    <t>报表</t>
-  </si>
-  <si>
-    <t>Reports</t>
-  </si>
-  <si>
-    <t>bar_chart</t>
-  </si>
-  <si>
-    <t>choerodon.code.platform-reports.reportboard</t>
-  </si>
-  <si>
-    <t>敏捷报表</t>
-  </si>
-  <si>
-    <t>Agile Report</t>
-  </si>
-  <si>
-    <t>application_model</t>
-  </si>
-  <si>
-    <t>choerodon.code.rentsetting</t>
-  </si>
-  <si>
-    <t>组织设置</t>
-  </si>
-  <si>
-    <t>Organization Settings</t>
-  </si>
-  <si>
-    <t>choerodon.code.top.organization</t>
-  </si>
-  <si>
-    <t>IAM</t>
-  </si>
-  <si>
-    <t>choerodon.code.rentsetting.workCalendar</t>
-  </si>
-  <si>
-    <t>工作日历</t>
-  </si>
-  <si>
-    <t>Work Calendar</t>
-  </si>
-  <si>
-    <t>date_range</t>
-  </si>
-  <si>
-    <t>choerodon.code.rentsetting.objectScheme-organization</t>
-  </si>
-  <si>
-    <t>字段定义</t>
-  </si>
-  <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>storage</t>
-  </si>
-  <si>
-    <t>choerodon.code.rentsetting.page-organization</t>
-  </si>
-  <si>
-    <t>页面</t>
-  </si>
-  <si>
-    <t>Page</t>
-  </si>
-  <si>
-    <t>baseline-file_copy</t>
-  </si>
-  <si>
-    <t>choerodon.code.prosetting</t>
-  </si>
-  <si>
-    <t>Project Manage</t>
-  </si>
-  <si>
-    <t>choerodon.code.prosetting.objectScheme-project</t>
-  </si>
-  <si>
-    <t>choerodon.code.prosetting.page-project</t>
-  </si>
-  <si>
-    <t>IAM_MENU_PERMISSION</t>
-  </si>
-  <si>
-    <t>#MENU_CODE</t>
-  </si>
-  <si>
-    <t>#PERMISSION_CODE</t>
-  </si>
-  <si>
-    <t>agile-service.sprint.queryByProjectId</t>
-  </si>
-  <si>
-    <t>agile-service.board.queryByProjectId</t>
-  </si>
-  <si>
-    <t>agile-service.board.queryByOptions</t>
-  </si>
-  <si>
-    <t>agile-service.issue.listEpic</t>
-  </si>
-  <si>
-    <t>agile-service.issue.listIssueWithSub</t>
-  </si>
-  <si>
-    <t>agile-service.product-version.listByProjectId</t>
-  </si>
-  <si>
-    <t>agile-service.sprint.queryNameByOptions</t>
-  </si>
-  <si>
-    <t>agile-service.issue-component.listByProjectId</t>
-  </si>
-  <si>
-    <t>agile-service.project-info.updateProjectInfo</t>
-  </si>
-  <si>
-    <t>agile-service.quick-filter.create</t>
-  </si>
-  <si>
-    <t>agile-service.notice.queryByProjectId</t>
-  </si>
-  <si>
-    <t>agile-service.issue-link-type.updateIssueLinkType</t>
-  </si>
-  <si>
-    <t>agile-service.pi.queryBacklogAll</t>
-  </si>
-  <si>
-    <t>agile-service.board.queryByOptionsInProgram</t>
-  </si>
-  <si>
-    <t>agile-service.art.queryArtCalendar</t>
-  </si>
-  <si>
-    <t>agile-service.pi.queryRoadMapOfProgram</t>
-  </si>
-  <si>
-    <t>agile-service.pi-objective.queryPiObjectiveList</t>
-  </si>
-  <si>
-    <t>agile-service.art.queryArtList</t>
-  </si>
-  <si>
-    <t>agile-service.time-zone-work-calendar.queryTimeZoneWorkCalendar</t>
-  </si>
-  <si>
-    <t>agile-service.time-zone-work-calendar.queryTimeZoneWorkCalendarRefByTimeZoneId</t>
-  </si>
-  <si>
-    <t>foundation-service.object-scheme.pageQuery</t>
-  </si>
-  <si>
-    <t>foundation-service.page.pageQuery</t>
-  </si>
-  <si>
-    <t>foundation-service.project-object-scheme.pageQuery</t>
-  </si>
-  <si>
-    <t>foundation-service.project-page.pageQuery</t>
-  </si>
-  <si>
-    <t>/agile/board</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告板路由</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>choerodon.route.program.</t>
     </r>
     <r>
@@ -729,22 +211,338 @@
       </rPr>
       <t>board</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目群公告板</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/agile/board</t>
+  </si>
+  <si>
+    <t>公告板路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.program.pi</t>
+  </si>
+  <si>
+    <t>/agile/pi</t>
+  </si>
+  <si>
+    <t>PI目标路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.program.art</t>
+  </si>
+  <si>
+    <t>/agile/art</t>
+  </si>
+  <si>
+    <t>ART设置路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.program.programSetting</t>
+  </si>
+  <si>
+    <t>/agile/programSetting</t>
+  </si>
+  <si>
+    <t>choerodon.route.platform-reports.reportboard</t>
+  </si>
+  <si>
+    <t>/agile/reporthost</t>
+  </si>
+  <si>
+    <t>敏捷报表路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.rentsetting.workCalendar</t>
+  </si>
+  <si>
+    <t>/agile/workCalendar</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>工作日历路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.rentsetting.objectScheme-organization</t>
+  </si>
+  <si>
+    <t>/agile/objectScheme</t>
+  </si>
+  <si>
+    <t>字段定义路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.rentsetting.page-organization</t>
+  </si>
+  <si>
+    <t>/agile/page</t>
+  </si>
+  <si>
+    <t>页面路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.prosetting.objectScheme-project</t>
+  </si>
+  <si>
+    <t>choerodon.route.prosetting.page-project</t>
+  </si>
+  <si>
+    <t>IAM_MENU_B</t>
+  </si>
+  <si>
+    <t>NAME:zh_CN</t>
+  </si>
+  <si>
+    <t>NAME:en_US</t>
+  </si>
+  <si>
+    <t>PAGE_PERMISSION_CODE</t>
+  </si>
+  <si>
+    <t>PARENT_CODE</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>ICON</t>
+  </si>
+  <si>
+    <t>SORT</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>choerodon.code.agile</t>
+  </si>
+  <si>
+    <t>敏捷管理</t>
+  </si>
+  <si>
+    <t>agile</t>
+  </si>
+  <si>
+    <t>choerodon.code.top.project</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>choerodon.code.agile.backlog</t>
+  </si>
+  <si>
+    <t>待办事项</t>
+  </si>
+  <si>
+    <t>Backlog</t>
+  </si>
+  <si>
+    <t>menu_item</t>
+  </si>
+  <si>
+    <t>baseline-list_alt</t>
+  </si>
+  <si>
+    <t>choerodon.code.agile.scrumboard</t>
+  </si>
+  <si>
+    <t>活跃冲刺</t>
+  </si>
+  <si>
+    <t>Scrumboard</t>
+  </si>
+  <si>
+    <t>directions_run</t>
+  </si>
+  <si>
+    <t>choerodon.code.agile.userStoryMap</t>
+  </si>
+  <si>
+    <t>故事地图</t>
+  </si>
+  <si>
+    <t>Story Map</t>
+  </si>
+  <si>
+    <t>usermap</t>
+  </si>
+  <si>
+    <t>choerodon.code.agile.issue</t>
+  </si>
+  <si>
+    <t>问题管理</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>assignment</t>
+  </si>
+  <si>
+    <t>choerodon.code.agile.release</t>
+  </si>
+  <si>
+    <t>发布版本</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>publish2</t>
+  </si>
+  <si>
+    <t>choerodon.code.agile.reportboard</t>
+  </si>
+  <si>
+    <t>报告工作台</t>
+  </si>
+  <si>
+    <t>Report Workbench</t>
+  </si>
+  <si>
+    <t>whatshot</t>
+  </si>
+  <si>
+    <t>choerodon.code.agile.setting</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>Agile Setting</t>
+  </si>
+  <si>
+    <t>settings</t>
+  </si>
+  <si>
+    <t>choerodon.code.agile.component</t>
+  </si>
+  <si>
+    <t>模块管理</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>extension</t>
+  </si>
+  <si>
+    <t>choerodon.code.agile.projectsetting</t>
+  </si>
+  <si>
+    <t>项目设置</t>
+  </si>
+  <si>
+    <t>Project Setting</t>
+  </si>
+  <si>
+    <t>folder_shared</t>
+  </si>
+  <si>
+    <t>choerodon.code.agile.fastsearch</t>
+  </si>
+  <si>
+    <t>快速搜索</t>
+  </si>
+  <si>
+    <t>Fast Search</t>
+  </si>
+  <si>
+    <t>youtube_searched_for</t>
+  </si>
+  <si>
+    <t>choerodon.code.agile.messageNotification</t>
+  </si>
+  <si>
+    <t>通知设置</t>
+  </si>
+  <si>
+    <t>Notification Setting</t>
+  </si>
+  <si>
+    <t>notifications</t>
+  </si>
+  <si>
+    <t>choerodon.code.agile.issuelink</t>
+  </si>
+  <si>
+    <t>问题链接</t>
+  </si>
+  <si>
+    <t>Issue Link</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>choerodon.code.program</t>
+  </si>
+  <si>
+    <t>大规模敏捷</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>PROGRAM</t>
+  </si>
+  <si>
+    <t>choerodon.code.program.feature</t>
+  </si>
+  <si>
+    <t>特性列表</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>baseline-vertical_split</t>
+  </si>
+  <si>
+    <t>choerodon.code.program.programKanban</t>
+  </si>
+  <si>
+    <t>项目群看板</t>
+  </si>
+  <si>
+    <t>Program Kanban</t>
+  </si>
+  <si>
+    <t>table_chart</t>
+  </si>
+  <si>
+    <t>choerodon.code.program.artCalendar</t>
+  </si>
+  <si>
+    <t>ART日历</t>
+  </si>
+  <si>
+    <t>ART Calendar</t>
+  </si>
+  <si>
+    <t>insert_invitation</t>
+  </si>
+  <si>
+    <t>choerodon.code.program.roadMap</t>
   </si>
   <si>
     <t>线路图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Program Board</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Road Map</t>
+  </si>
+  <si>
+    <t>view_week</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>choerodon.code.program.</t>
     </r>
     <r>
@@ -755,28 +553,200 @@
       </rPr>
       <t>board</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目群公告板</t>
+  </si>
+  <si>
+    <t>Program Board</t>
   </si>
   <si>
     <t>low_priority</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>choerodon.code.program.</t>
-    </r>
+  </si>
+  <si>
+    <t>choerodon.code.program.pi</t>
+  </si>
+  <si>
+    <t>PI目标</t>
+  </si>
+  <si>
+    <t>PI Objective</t>
+  </si>
+  <si>
+    <t>center_focus_strong</t>
+  </si>
+  <si>
+    <t>choerodon.code.agile-program.setting</t>
+  </si>
+  <si>
+    <t>Program Setting</t>
+  </si>
+  <si>
+    <t>choerodon.code.program.art</t>
+  </si>
+  <si>
+    <t>ART设置</t>
+  </si>
+  <si>
+    <t>ART Setting</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>choerodon.code.program.programSetting</t>
+  </si>
+  <si>
+    <t>choerodon.code.platform-reports</t>
+  </si>
+  <si>
+    <t>报表</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>bar_chart</t>
+  </si>
+  <si>
+    <t>choerodon.code.platform-reports.reportboard</t>
+  </si>
+  <si>
+    <t>敏捷报表</t>
+  </si>
+  <si>
+    <t>Agile Report</t>
+  </si>
+  <si>
+    <t>application_model</t>
+  </si>
+  <si>
+    <t>choerodon.code.rentsetting</t>
+  </si>
+  <si>
+    <t>组织设置</t>
+  </si>
+  <si>
+    <t>Organization Settings</t>
+  </si>
+  <si>
+    <t>choerodon.code.top.organization</t>
+  </si>
+  <si>
+    <t>IAM</t>
+  </si>
+  <si>
+    <t>choerodon.code.rentsetting.workCalendar</t>
+  </si>
+  <si>
+    <t>工作日历</t>
+  </si>
+  <si>
+    <t>Work Calendar</t>
+  </si>
+  <si>
+    <t>date_range</t>
+  </si>
+  <si>
+    <t>choerodon.code.rentsetting.objectScheme-organization</t>
+  </si>
+  <si>
+    <t>字段定义</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>choerodon.code.rentsetting.page-organization</t>
+  </si>
+  <si>
+    <t>页面</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>baseline-file_copy</t>
+  </si>
+  <si>
+    <t>choerodon.code.prosetting</t>
+  </si>
+  <si>
+    <t>Project Manage</t>
+  </si>
+  <si>
+    <t>choerodon.code.prosetting.objectScheme-project</t>
+  </si>
+  <si>
+    <t>choerodon.code.prosetting.page-project</t>
+  </si>
+  <si>
+    <t>IAM_MENU_PERMISSION</t>
+  </si>
+  <si>
+    <t>#MENU_CODE</t>
+  </si>
+  <si>
+    <t>#PERMISSION_CODE</t>
+  </si>
+  <si>
+    <t>agile-service.sprint.queryByProjectId</t>
+  </si>
+  <si>
+    <t>agile-service.board.queryByProjectId</t>
+  </si>
+  <si>
+    <t>agile-service.board.queryByOptions</t>
+  </si>
+  <si>
+    <t>agile-service.issue.listEpic</t>
+  </si>
+  <si>
+    <t>agile-service.issue.listIssueWithSub</t>
+  </si>
+  <si>
+    <t>agile-service.product-version.listByProjectId</t>
+  </si>
+  <si>
+    <t>agile-service.sprint.queryNameByOptions</t>
+  </si>
+  <si>
+    <t>agile-service.issue-component.listByProjectId</t>
+  </si>
+  <si>
+    <t>agile-service.project-info.updateProjectInfo</t>
+  </si>
+  <si>
+    <t>agile-service.quick-filter.create</t>
+  </si>
+  <si>
+    <t>agile-service.notice.queryByProjectId</t>
+  </si>
+  <si>
+    <t>agile-service.issue-link-type.updateIssueLinkType</t>
+  </si>
+  <si>
+    <t>agile-service.pi.queryBacklogAll</t>
+  </si>
+  <si>
+    <t>agile-service.board.queryByOptionsInProgram</t>
+  </si>
+  <si>
+    <t>agile-service.art.queryArtCalendar</t>
+  </si>
+  <si>
+    <t>agile-service.pi.queryRoadMapOfProgram</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <charset val="134"/>
       </rPr>
-      <t>board</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>agile-service.</t>
     </r>
     <r>
@@ -803,28 +773,43 @@
       </rPr>
       <t>queryBoardInfo</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>choerodon.route.program.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>board</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.pi-objective.queryPiObjectiveList</t>
+  </si>
+  <si>
+    <t>agile-service.art.queryArtList</t>
+  </si>
+  <si>
+    <t>agile-service.time-zone-work-calendar.queryTimeZoneWorkCalendar</t>
+  </si>
+  <si>
+    <t>agile-service.time-zone-work-calendar.queryTimeZoneWorkCalendarRefByTimeZoneId</t>
+  </si>
+  <si>
+    <t>foundation-service.object-scheme.pageQuery</t>
+  </si>
+  <si>
+    <t>foundation-service.page.pageQuery</t>
+  </si>
+  <si>
+    <t>foundation-service.project-object-scheme.pageQuery</t>
+  </si>
+  <si>
+    <t>foundation-service.project-page.pageQuery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -837,31 +822,361 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="华文宋体"/>
-      <family val="3"/>
+      <name val="Droid Sans Fallback"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Droid Sans Fallback"/>
+      <name val="华文宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -869,9 +1184,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -879,17 +1436,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1174,37 +1775,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="D7:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+    <sheetView topLeftCell="C7" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="11.6640625" customWidth="1"/>
+    <col min="1" max="3" width="11.6617647058824" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="32.88671875" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.6617647058824" customWidth="1"/>
+    <col min="6" max="6" width="32.8897058823529" customWidth="1"/>
+    <col min="7" max="7" width="23.5514705882353" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" customWidth="1"/>
+    <col min="10" max="10" width="14.2205882352941" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.21875" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="19.2205882352941" customWidth="1"/>
+    <col min="13" max="13" width="18.6617647058824" customWidth="1"/>
+    <col min="14" max="14" width="19.3308823529412" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.6640625" customWidth="1"/>
+    <col min="16" max="1025" width="11.6617647058824" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1" spans="4:14">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1239,7 +1840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:14" ht="12.75" customHeight="1">
+    <row r="8" ht="12.75" customHeight="1" spans="6:14">
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1268,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:14">
+    <row r="9" spans="6:14">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -1297,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:14">
+    <row r="10" spans="6:14">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -1326,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:14">
+    <row r="11" spans="6:14">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -1355,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:14">
+    <row r="12" spans="6:14">
       <c r="F12" t="s">
         <v>26</v>
       </c>
@@ -1384,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:14">
+    <row r="13" spans="6:14">
       <c r="F13" t="s">
         <v>29</v>
       </c>
@@ -1413,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:14">
+    <row r="14" spans="6:14">
       <c r="F14" t="s">
         <v>32</v>
       </c>
@@ -1442,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:14">
+    <row r="15" spans="6:14">
       <c r="F15" t="s">
         <v>35</v>
       </c>
@@ -1471,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:14">
+    <row r="16" spans="6:14">
       <c r="F16" t="s">
         <v>38</v>
       </c>
@@ -1675,11 +2276,11 @@
       </c>
     </row>
     <row r="23" spans="6:14">
-      <c r="F23" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>229</v>
+      <c r="F23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -1687,8 +2288,8 @@
       <c r="I23" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>230</v>
+      <c r="J23" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="K23" t="s">
         <v>16</v>
@@ -1705,10 +2306,10 @@
     </row>
     <row r="24" spans="6:14">
       <c r="F24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1717,7 +2318,7 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K24" t="s">
         <v>16</v>
@@ -1734,10 +2335,10 @@
     </row>
     <row r="25" spans="6:14">
       <c r="F25" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G25" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -1746,7 +2347,7 @@
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K25" t="s">
         <v>16</v>
@@ -1763,10 +2364,10 @@
     </row>
     <row r="26" spans="6:14">
       <c r="F26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -1792,10 +2393,10 @@
     </row>
     <row r="27" spans="6:14">
       <c r="F27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -1804,7 +2405,7 @@
         <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K27" t="s">
         <v>16</v>
@@ -1821,19 +2422,19 @@
     </row>
     <row r="28" spans="6:14">
       <c r="F28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s">
         <v>16</v>
@@ -1850,19 +2451,19 @@
     </row>
     <row r="29" spans="6:14">
       <c r="F29" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
         <v>75</v>
       </c>
-      <c r="H29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" t="s">
-        <v>72</v>
-      </c>
       <c r="J29" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s">
         <v>16</v>
@@ -1879,19 +2480,19 @@
     </row>
     <row r="30" spans="6:14">
       <c r="F30" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J30" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K30" t="s">
         <v>16</v>
@@ -1908,10 +2509,10 @@
     </row>
     <row r="31" spans="6:14">
       <c r="F31" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G31" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -1920,7 +2521,7 @@
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s">
         <v>16</v>
@@ -1937,11 +2538,11 @@
     </row>
     <row r="32" spans="6:14">
       <c r="F32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" t="s">
         <v>81</v>
       </c>
-      <c r="G32" t="s">
-        <v>78</v>
-      </c>
       <c r="H32" t="s">
         <v>13</v>
       </c>
@@ -1949,7 +2550,7 @@
         <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K32" t="s">
         <v>16</v>
@@ -1965,9 +2566,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -1976,31 +2576,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:O39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="D7:P39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L30" sqref="$A30:$XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="42.21875" customWidth="1"/>
+    <col min="1" max="3" width="11.6617647058824" customWidth="1"/>
+    <col min="4" max="4" width="15.2205882352941" customWidth="1"/>
+    <col min="5" max="5" width="11.6617647058824" customWidth="1"/>
+    <col min="6" max="6" width="42.2205882352941" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="35.88671875" customWidth="1"/>
-    <col min="9" max="9" width="49.77734375" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="35.8897058823529" customWidth="1"/>
+    <col min="9" max="9" width="49.7794117647059" customWidth="1"/>
+    <col min="10" max="10" width="18.5514705882353" customWidth="1"/>
     <col min="11" max="11" width="41" customWidth="1"/>
-    <col min="12" max="12" width="19.21875" customWidth="1"/>
-    <col min="13" max="1025" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="19.2205882352941" customWidth="1"/>
+    <col min="13" max="1025" width="11.6617647058824" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1" spans="4:16">
       <c r="D7" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -2009,71 +2610,74 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="4:15" ht="12.75" customHeight="1">
+        <v>92</v>
+      </c>
+      <c r="P7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" spans="6:15">
       <c r="F8" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:15">
+    <row r="9" spans="6:15">
       <c r="F9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -2082,30 +2686,30 @@
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:15">
+    <row r="10" spans="6:15">
       <c r="F10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -2114,30 +2718,30 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="O10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="4:15">
+    <row r="11" spans="6:15">
       <c r="F11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I11" t="s">
         <v>20</v>
@@ -2146,30 +2750,30 @@
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="O11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="4:15">
+    <row r="12" spans="6:15">
       <c r="F12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I12" t="s">
         <v>23</v>
@@ -2178,30 +2782,30 @@
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N12" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="4:15">
+    <row r="13" spans="6:15">
       <c r="F13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I13" t="s">
         <v>26</v>
@@ -2210,30 +2814,30 @@
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L13" t="s">
         <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N13" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="4:15">
+    <row r="14" spans="6:15">
       <c r="F14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I14" t="s">
         <v>29</v>
@@ -2242,59 +2846,59 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L14" t="s">
         <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O14">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="4:15" ht="14.4">
+    <row r="15" spans="6:15">
       <c r="F15" t="s">
-        <v>120</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="H15" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L15" t="s">
         <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="N15" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O15">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="4:15">
+    <row r="16" spans="6:15">
       <c r="F16" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G16" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
@@ -2303,16 +2907,16 @@
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L16" t="s">
         <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N16" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="O16">
         <v>8</v>
@@ -2320,13 +2924,13 @@
     </row>
     <row r="17" spans="6:15">
       <c r="F17" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G17" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H17" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I17" t="s">
         <v>35</v>
@@ -2335,16 +2939,16 @@
         <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L17" t="s">
         <v>14</v>
       </c>
       <c r="M17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N17" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O17">
         <v>9</v>
@@ -2352,13 +2956,13 @@
     </row>
     <row r="18" spans="6:15">
       <c r="F18" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G18" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H18" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I18" t="s">
         <v>38</v>
@@ -2367,16 +2971,16 @@
         <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L18" t="s">
         <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N18" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="O18">
         <v>10</v>
@@ -2384,13 +2988,13 @@
     </row>
     <row r="19" spans="6:15">
       <c r="F19" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G19" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H19" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I19" t="s">
         <v>41</v>
@@ -2399,16 +3003,16 @@
         <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L19" t="s">
         <v>14</v>
       </c>
       <c r="M19" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N19" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="O19">
         <v>11</v>
@@ -2416,13 +3020,13 @@
     </row>
     <row r="20" spans="6:15">
       <c r="F20" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G20" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H20" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I20" t="s">
         <v>44</v>
@@ -2431,59 +3035,62 @@
         <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L20" t="s">
         <v>14</v>
       </c>
       <c r="M20" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N20" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O20">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="6:15">
+    <row r="21" spans="6:16">
       <c r="F21" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G21" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H21" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L21" t="s">
         <v>14</v>
       </c>
       <c r="M21" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="N21" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="6:15">
+      <c r="P21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="6:16">
       <c r="F22" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G22" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H22" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I22" t="s">
         <v>47</v>
@@ -2492,30 +3099,33 @@
         <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L22" t="s">
         <v>14</v>
       </c>
       <c r="M22" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N22" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="O22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="6:15">
+      <c r="P22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="6:16">
       <c r="F23" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G23" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H23" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I23" t="s">
         <v>50</v>
@@ -2524,30 +3134,33 @@
         <v>13</v>
       </c>
       <c r="K23" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L23" t="s">
         <v>14</v>
       </c>
       <c r="M23" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N23" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="O23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="6:15">
+      <c r="P23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="6:16">
       <c r="F24" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G24" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H24" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I24" t="s">
         <v>53</v>
@@ -2556,30 +3169,33 @@
         <v>13</v>
       </c>
       <c r="K24" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L24" t="s">
         <v>14</v>
       </c>
       <c r="M24" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N24" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="O24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="6:15">
+      <c r="P24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="6:16">
       <c r="F25" t="s">
-        <v>159</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>233</v>
+        <v>164</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="H25" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="I25" t="s">
         <v>56</v>
@@ -2588,202 +3204,220 @@
         <v>13</v>
       </c>
       <c r="K25" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L25" t="s">
         <v>14</v>
       </c>
       <c r="M25" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N25" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="O25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="6:15">
-      <c r="F26" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>231</v>
+      <c r="P25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="6:16">
+      <c r="F26" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="J26" t="s">
         <v>13</v>
       </c>
       <c r="K26" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L26" t="s">
         <v>14</v>
       </c>
       <c r="M26" t="s">
-        <v>98</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>236</v>
+        <v>102</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="O26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="6:15">
+      <c r="P26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="6:16">
       <c r="F27" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="G27" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="H27" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="I27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J27" t="s">
         <v>13</v>
       </c>
       <c r="K27" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L27" t="s">
         <v>14</v>
       </c>
       <c r="M27" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N27" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="O27">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="6:15" ht="14.4">
+      <c r="P27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="6:16">
       <c r="F28" t="s">
-        <v>166</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>121</v>
+        <v>176</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="H28" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="J28" t="s">
         <v>13</v>
       </c>
       <c r="K28" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L28" t="s">
         <v>14</v>
       </c>
       <c r="M28" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="N28" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O28">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="6:15">
+      <c r="P28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="6:16">
       <c r="F29" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="G29" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="H29" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="I29" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J29" t="s">
         <v>13</v>
       </c>
       <c r="K29" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="L29" t="s">
         <v>14</v>
       </c>
       <c r="M29" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N29" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="O29">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="6:15">
+      <c r="P29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="6:16">
       <c r="F30" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G30" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H30" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="I30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J30" t="s">
         <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="L30" t="s">
         <v>14</v>
       </c>
       <c r="M30" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N30" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O30">
         <v>9</v>
       </c>
+      <c r="P30" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="31" spans="6:15">
       <c r="F31" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G31" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="H31" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="J31" t="s">
         <v>13</v>
       </c>
       <c r="K31" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L31" t="s">
         <v>14</v>
       </c>
       <c r="M31" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="N31" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="O31">
         <v>99</v>
@@ -2791,31 +3425,31 @@
     </row>
     <row r="32" spans="6:15">
       <c r="F32" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="G32" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H32" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="I32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J32" t="s">
         <v>13</v>
       </c>
       <c r="K32" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="L32" t="s">
         <v>14</v>
       </c>
       <c r="M32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N32" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="O32">
         <v>3</v>
@@ -2823,28 +3457,28 @@
     </row>
     <row r="33" spans="6:15">
       <c r="F33" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G33" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="H33" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="J33" t="s">
         <v>13</v>
       </c>
       <c r="K33" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="L33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M33" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="N33" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="O33">
         <v>2</v>
@@ -2852,31 +3486,31 @@
     </row>
     <row r="34" spans="6:15">
       <c r="F34" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="G34" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="H34" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="I34" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J34" t="s">
         <v>13</v>
       </c>
       <c r="K34" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="L34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M34" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N34" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="O34">
         <v>8</v>
@@ -2884,31 +3518,31 @@
     </row>
     <row r="35" spans="6:15">
       <c r="F35" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="G35" t="s">
+        <v>201</v>
+      </c>
+      <c r="H35" t="s">
+        <v>202</v>
+      </c>
+      <c r="I35" t="s">
+        <v>77</v>
+      </c>
+      <c r="J35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" t="s">
         <v>191</v>
       </c>
-      <c r="H35" t="s">
-        <v>192</v>
-      </c>
-      <c r="I35" t="s">
-        <v>74</v>
-      </c>
-      <c r="J35" t="s">
-        <v>13</v>
-      </c>
-      <c r="K35" t="s">
-        <v>181</v>
-      </c>
       <c r="L35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M35" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N35" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="O35">
         <v>11</v>
@@ -2916,31 +3550,31 @@
     </row>
     <row r="36" spans="6:15">
       <c r="F36" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="G36" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="H36" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="I36" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s">
         <v>13</v>
       </c>
       <c r="K36" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="L36" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M36" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N36" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="O36">
         <v>12</v>
@@ -2948,28 +3582,28 @@
     </row>
     <row r="37" spans="6:15">
       <c r="F37" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="G37" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H37" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="J37" t="s">
         <v>13</v>
       </c>
       <c r="K37" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L37" t="s">
         <v>14</v>
       </c>
       <c r="M37" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="N37" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="O37">
         <v>6</v>
@@ -2977,31 +3611,31 @@
     </row>
     <row r="38" spans="6:15">
       <c r="F38" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="G38" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="H38" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="I38" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J38" t="s">
         <v>13</v>
       </c>
       <c r="K38" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="L38" t="s">
         <v>14</v>
       </c>
       <c r="M38" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N38" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="O38">
         <v>5</v>
@@ -3009,40 +3643,39 @@
     </row>
     <row r="39" spans="6:15">
       <c r="F39" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="G39" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="H39" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="I39" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J39" t="s">
         <v>13</v>
       </c>
       <c r="K39" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="L39" t="s">
         <v>14</v>
       </c>
       <c r="M39" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N39" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="O39">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -3051,258 +3684,258 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="D7:G34"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="37.88671875" customWidth="1"/>
-    <col min="7" max="7" width="58.44140625" customWidth="1"/>
-    <col min="8" max="8" width="31.109375" customWidth="1"/>
-    <col min="9" max="1025" width="11.6640625" customWidth="1"/>
+    <col min="1" max="3" width="11.6617647058824" customWidth="1"/>
+    <col min="4" max="4" width="23.7794117647059" customWidth="1"/>
+    <col min="5" max="5" width="11.6617647058824" customWidth="1"/>
+    <col min="6" max="6" width="37.8897058823529" customWidth="1"/>
+    <col min="7" max="7" width="58.4411764705882" customWidth="1"/>
+    <col min="8" max="8" width="31.1102941176471" customWidth="1"/>
+    <col min="9" max="1025" width="11.6617647058824" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1" spans="4:7">
       <c r="D7" s="1" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" ht="12.75" customHeight="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" spans="6:7">
       <c r="F8" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7">
       <c r="F9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7">
       <c r="F10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7">
       <c r="F11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="4:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="6:7">
       <c r="F12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="4:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7">
       <c r="F13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="4:7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="6:7">
       <c r="F14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="15" spans="4:7">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="6:7">
       <c r="F15" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="4:7">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="6:7">
       <c r="F16" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G16" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G17" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G18" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G19" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G20" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G21" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G22" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G23" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="6:7">
-      <c r="F24" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>238</v>
+      <c r="F24" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="G25" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="G26" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G27" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="G28" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="G29" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="G30" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="G31" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="G32" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="G33" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="G34" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/agile-service/src/main/resources/script/front/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ED463497-F715-A243-8466-D20AA20AD9CC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14400" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
+    <sheet name="IAM_DASHBOARD" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="271">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -199,7 +206,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
       </rPr>
       <t>choerodon.route.program.</t>
     </r>
@@ -207,7 +213,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
       </rPr>
       <t>board</t>
     </r>
@@ -300,16 +305,10 @@
     <t>PAGE_PERMISSION_CODE</t>
   </si>
   <si>
-    <t>PARENT_CODE</t>
-  </si>
-  <si>
     <t>TYPE</t>
   </si>
   <si>
     <t>ICON</t>
-  </si>
-  <si>
-    <t>SORT</t>
   </si>
   <si>
     <t>CATEGORY</t>
@@ -541,7 +540,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
       </rPr>
       <t>choerodon.code.program.</t>
     </r>
@@ -549,7 +547,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
       </rPr>
       <t>board</t>
     </r>
@@ -745,7 +742,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
       </rPr>
       <t>agile-service.</t>
     </r>
@@ -753,7 +749,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
       </rPr>
       <t>board-feature</t>
     </r>
@@ -761,7 +756,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -769,7 +763,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
       </rPr>
       <t>queryBoardInfo</t>
     </r>
@@ -797,19 +790,118 @@
   </si>
   <si>
     <t>foundation-service.project-page.pageQuery</t>
+  </si>
+  <si>
+    <t>@SORT</t>
+  </si>
+  <si>
+    <t>@SORT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>@PARENT_CODE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAM_DASHBOARD</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>NAMESPACE</t>
+  </si>
+  <si>
+    <t>FD_LEVEL</t>
+  </si>
+  <si>
+    <t>NEED_ROLES</t>
+  </si>
+  <si>
+    <t>IS_ENABLED</t>
+  </si>
+  <si>
+    <t>@POSITION</t>
+  </si>
+  <si>
+    <t>UncompleteTask</t>
+  </si>
+  <si>
+    <t>当前项目未完成的任务数</t>
+  </si>
+  <si>
+    <t>outstanding_tasks</t>
+  </si>
+  <si>
+    <t>agile</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BurnDown</t>
+  </si>
+  <si>
+    <t>燃尽图</t>
+  </si>
+  <si>
+    <t>burnout_map</t>
+  </si>
+  <si>
+    <t>VersionProgress</t>
+  </si>
+  <si>
+    <t>版本进度</t>
+  </si>
+  <si>
+    <t>EpicProgress</t>
+  </si>
+  <si>
+    <t>史诗进度</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>MineUnDone</t>
+  </si>
+  <si>
+    <t>unfinished_question</t>
+  </si>
+  <si>
+    <t>我的未完成问题</t>
+  </si>
+  <si>
+    <t>Undistributed</t>
+  </si>
+  <si>
+    <t>unallocated_question</t>
+  </si>
+  <si>
+    <t>未分配的问题</t>
+  </si>
+  <si>
+    <t>{"width": 4, "positionX": 8, "positionY": 0, "height": 4}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SprintProgress</t>
+  </si>
+  <si>
+    <t>{"width": 4, "positionX": 4, "positionY": 0, "height": 2}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -823,360 +915,35 @@
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="华文宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="华文宋体"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1184,313 +951,31 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1775,37 +1260,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:N32"/>
   <sheetViews>
     <sheetView topLeftCell="C7" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="11.6617647058824" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.6617647058824" customWidth="1"/>
-    <col min="6" max="6" width="32.8897058823529" customWidth="1"/>
-    <col min="7" max="7" width="23.5514705882353" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="32.796875" customWidth="1"/>
+    <col min="7" max="7" width="23.59765625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="14.2205882352941" customWidth="1"/>
+    <col min="10" max="10" width="14.19921875" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.2205882352941" customWidth="1"/>
-    <col min="13" max="13" width="18.6617647058824" customWidth="1"/>
-    <col min="14" max="14" width="19.3308823529412" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" customWidth="1"/>
+    <col min="13" max="13" width="18.59765625" customWidth="1"/>
+    <col min="14" max="14" width="19.3984375" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.6617647058824" customWidth="1"/>
+    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:14">
+    <row r="7" spans="4:14" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1840,7 +1325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" spans="6:14">
+    <row r="8" spans="4:14" ht="12.75" customHeight="1">
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1869,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="6:14">
+    <row r="9" spans="4:14">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -1898,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="6:14">
+    <row r="10" spans="4:14">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -1927,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="6:14">
+    <row r="11" spans="4:14">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -1956,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:14">
+    <row r="12" spans="4:14">
       <c r="F12" t="s">
         <v>26</v>
       </c>
@@ -1985,7 +1470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="6:14">
+    <row r="13" spans="4:14">
       <c r="F13" t="s">
         <v>29</v>
       </c>
@@ -2014,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="6:14">
+    <row r="14" spans="4:14">
       <c r="F14" t="s">
         <v>32</v>
       </c>
@@ -2043,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="6:14">
+    <row r="15" spans="4:14">
       <c r="F15" t="s">
         <v>35</v>
       </c>
@@ -2072,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="6:14">
+    <row r="16" spans="4:14">
       <c r="F16" t="s">
         <v>38</v>
       </c>
@@ -2566,8 +2051,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -2576,30 +2062,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L30" sqref="$A30:$XFD30"/>
+    <sheetView topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="11.6617647058824" customWidth="1"/>
-    <col min="4" max="4" width="15.2205882352941" customWidth="1"/>
-    <col min="5" max="5" width="11.6617647058824" customWidth="1"/>
-    <col min="6" max="6" width="42.2205882352941" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="42.19921875" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="35.8897058823529" customWidth="1"/>
-    <col min="9" max="9" width="49.7794117647059" customWidth="1"/>
-    <col min="10" max="10" width="18.5514705882353" customWidth="1"/>
+    <col min="8" max="8" width="35.796875" customWidth="1"/>
+    <col min="9" max="9" width="49.796875" customWidth="1"/>
+    <col min="10" max="10" width="18.59765625" customWidth="1"/>
     <col min="11" max="11" width="41" customWidth="1"/>
-    <col min="12" max="12" width="19.2205882352941" customWidth="1"/>
-    <col min="13" max="1025" width="11.6617647058824" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" customWidth="1"/>
+    <col min="13" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:16">
+    <row r="7" spans="4:16" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>85</v>
       </c>
@@ -2621,63 +2106,63 @@
       <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>89</v>
+      <c r="K7" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" t="s">
         <v>90</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="P7" t="s">
         <v>91</v>
       </c>
-      <c r="O7" t="s">
+    </row>
+    <row r="8" spans="4:16" ht="12.75" customHeight="1">
+      <c r="F8" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P7" t="s">
+      <c r="G8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1" spans="6:15">
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" t="s">
         <v>96</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" t="s">
-        <v>98</v>
-      </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="6:15">
+    <row r="9" spans="4:16">
       <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" t="s">
         <v>99</v>
-      </c>
-      <c r="G9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" t="s">
-        <v>101</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -2686,30 +2171,30 @@
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="6:15">
+    <row r="10" spans="4:16">
       <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" t="s">
         <v>104</v>
-      </c>
-      <c r="G10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H10" t="s">
-        <v>106</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -2718,30 +2203,30 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="6:15">
+    <row r="11" spans="4:16">
       <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" t="s">
         <v>108</v>
-      </c>
-      <c r="G11" t="s">
-        <v>109</v>
-      </c>
-      <c r="H11" t="s">
-        <v>110</v>
       </c>
       <c r="I11" t="s">
         <v>20</v>
@@ -2750,30 +2235,30 @@
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="6:15">
+    <row r="12" spans="4:16">
       <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" t="s">
         <v>112</v>
-      </c>
-      <c r="G12" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" t="s">
-        <v>114</v>
       </c>
       <c r="I12" t="s">
         <v>23</v>
@@ -2782,30 +2267,30 @@
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="6:15">
+    <row r="13" spans="4:16">
       <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" t="s">
         <v>116</v>
-      </c>
-      <c r="G13" t="s">
-        <v>117</v>
-      </c>
-      <c r="H13" t="s">
-        <v>118</v>
       </c>
       <c r="I13" t="s">
         <v>26</v>
@@ -2814,30 +2299,30 @@
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L13" t="s">
         <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="6:15">
+    <row r="14" spans="4:16">
       <c r="F14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" t="s">
         <v>120</v>
-      </c>
-      <c r="G14" t="s">
-        <v>121</v>
-      </c>
-      <c r="H14" t="s">
-        <v>122</v>
       </c>
       <c r="I14" t="s">
         <v>29</v>
@@ -2846,59 +2331,59 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L14" t="s">
         <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O14">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="6:15">
+    <row r="15" spans="4:16" ht="14">
       <c r="F15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" t="s">
         <v>124</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15" t="s">
         <v>125</v>
-      </c>
-      <c r="H15" t="s">
-        <v>126</v>
-      </c>
-      <c r="J15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" t="s">
-        <v>98</v>
-      </c>
-      <c r="N15" t="s">
-        <v>127</v>
       </c>
       <c r="O15">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="6:15">
+    <row r="16" spans="4:16">
       <c r="F16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" t="s">
         <v>128</v>
-      </c>
-      <c r="G16" t="s">
-        <v>129</v>
-      </c>
-      <c r="H16" t="s">
-        <v>130</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
@@ -2907,30 +2392,30 @@
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L16" t="s">
         <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O16">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="6:15">
+    <row r="17" spans="6:16">
       <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" t="s">
+        <v>131</v>
+      </c>
+      <c r="H17" t="s">
         <v>132</v>
-      </c>
-      <c r="G17" t="s">
-        <v>133</v>
-      </c>
-      <c r="H17" t="s">
-        <v>134</v>
       </c>
       <c r="I17" t="s">
         <v>35</v>
@@ -2939,30 +2424,30 @@
         <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L17" t="s">
         <v>14</v>
       </c>
       <c r="M17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O17">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="6:15">
+    <row r="18" spans="6:16">
       <c r="F18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" t="s">
+        <v>135</v>
+      </c>
+      <c r="H18" t="s">
         <v>136</v>
-      </c>
-      <c r="G18" t="s">
-        <v>137</v>
-      </c>
-      <c r="H18" t="s">
-        <v>138</v>
       </c>
       <c r="I18" t="s">
         <v>38</v>
@@ -2971,30 +2456,30 @@
         <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L18" t="s">
         <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="6:15">
+    <row r="19" spans="6:16">
       <c r="F19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" t="s">
         <v>140</v>
-      </c>
-      <c r="G19" t="s">
-        <v>141</v>
-      </c>
-      <c r="H19" t="s">
-        <v>142</v>
       </c>
       <c r="I19" t="s">
         <v>41</v>
@@ -3003,30 +2488,30 @@
         <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L19" t="s">
         <v>14</v>
       </c>
       <c r="M19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O19">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="6:15">
+    <row r="20" spans="6:16">
       <c r="F20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" t="s">
         <v>144</v>
-      </c>
-      <c r="G20" t="s">
-        <v>145</v>
-      </c>
-      <c r="H20" t="s">
-        <v>146</v>
       </c>
       <c r="I20" t="s">
         <v>44</v>
@@ -3035,16 +2520,16 @@
         <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L20" t="s">
         <v>14</v>
       </c>
       <c r="M20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O20">
         <v>12</v>
@@ -3052,45 +2537,45 @@
     </row>
     <row r="21" spans="6:16">
       <c r="F21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" t="s">
         <v>148</v>
       </c>
-      <c r="G21" t="s">
-        <v>149</v>
-      </c>
-      <c r="H21" t="s">
-        <v>150</v>
-      </c>
       <c r="J21" t="s">
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L21" t="s">
         <v>14</v>
       </c>
       <c r="M21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O21">
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="6:16">
       <c r="F22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" t="s">
         <v>152</v>
-      </c>
-      <c r="G22" t="s">
-        <v>153</v>
-      </c>
-      <c r="H22" t="s">
-        <v>154</v>
       </c>
       <c r="I22" t="s">
         <v>47</v>
@@ -3099,33 +2584,33 @@
         <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L22" t="s">
         <v>14</v>
       </c>
       <c r="M22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O22">
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="6:16">
       <c r="F23" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" t="s">
+        <v>155</v>
+      </c>
+      <c r="H23" t="s">
         <v>156</v>
-      </c>
-      <c r="G23" t="s">
-        <v>157</v>
-      </c>
-      <c r="H23" t="s">
-        <v>158</v>
       </c>
       <c r="I23" t="s">
         <v>50</v>
@@ -3134,33 +2619,33 @@
         <v>13</v>
       </c>
       <c r="K23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L23" t="s">
         <v>14</v>
       </c>
       <c r="M23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O23">
         <v>2</v>
       </c>
       <c r="P23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="6:16">
       <c r="F24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" t="s">
+        <v>159</v>
+      </c>
+      <c r="H24" t="s">
         <v>160</v>
-      </c>
-      <c r="G24" t="s">
-        <v>161</v>
-      </c>
-      <c r="H24" t="s">
-        <v>162</v>
       </c>
       <c r="I24" t="s">
         <v>53</v>
@@ -3169,33 +2654,33 @@
         <v>13</v>
       </c>
       <c r="K24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L24" t="s">
         <v>14</v>
       </c>
       <c r="M24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O24">
         <v>3</v>
       </c>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="6:16">
       <c r="F25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H25" t="s">
         <v>164</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H25" t="s">
-        <v>166</v>
       </c>
       <c r="I25" t="s">
         <v>56</v>
@@ -3204,33 +2689,33 @@
         <v>13</v>
       </c>
       <c r="K25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L25" t="s">
         <v>14</v>
       </c>
       <c r="M25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O25">
         <v>4</v>
       </c>
       <c r="P25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="6:16">
       <c r="F26" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>59</v>
@@ -3239,33 +2724,33 @@
         <v>13</v>
       </c>
       <c r="K26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L26" t="s">
         <v>14</v>
       </c>
       <c r="M26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O26">
         <v>5</v>
       </c>
       <c r="P26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="6:16">
       <c r="F27" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" t="s">
         <v>172</v>
-      </c>
-      <c r="G27" t="s">
-        <v>173</v>
-      </c>
-      <c r="H27" t="s">
-        <v>174</v>
       </c>
       <c r="I27" t="s">
         <v>62</v>
@@ -3274,65 +2759,65 @@
         <v>13</v>
       </c>
       <c r="K27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L27" t="s">
         <v>14</v>
       </c>
       <c r="M27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O27">
         <v>6</v>
       </c>
       <c r="P27" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="6:16">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="6:16" ht="14">
       <c r="F28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" t="s">
+        <v>175</v>
+      </c>
+      <c r="J28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" t="s">
+        <v>146</v>
+      </c>
+      <c r="L28" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" t="s">
+        <v>96</v>
+      </c>
+      <c r="N28" t="s">
         <v>125</v>
-      </c>
-      <c r="H28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J28" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28" t="s">
-        <v>148</v>
-      </c>
-      <c r="L28" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" t="s">
-        <v>98</v>
-      </c>
-      <c r="N28" t="s">
-        <v>127</v>
       </c>
       <c r="O28">
         <v>7</v>
       </c>
       <c r="P28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="6:16">
       <c r="F29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" t="s">
+        <v>177</v>
+      </c>
+      <c r="H29" t="s">
         <v>178</v>
-      </c>
-      <c r="G29" t="s">
-        <v>179</v>
-      </c>
-      <c r="H29" t="s">
-        <v>180</v>
       </c>
       <c r="I29" t="s">
         <v>65</v>
@@ -3341,33 +2826,33 @@
         <v>13</v>
       </c>
       <c r="K29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L29" t="s">
         <v>14</v>
       </c>
       <c r="M29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N29" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O29">
         <v>8</v>
       </c>
       <c r="P29" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="6:16">
       <c r="F30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I30" t="s">
         <v>68</v>
@@ -3376,62 +2861,62 @@
         <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L30" t="s">
         <v>14</v>
       </c>
       <c r="M30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O30">
         <v>9</v>
       </c>
       <c r="P30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="6:15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="6:16">
       <c r="F31" t="s">
+        <v>181</v>
+      </c>
+      <c r="G31" t="s">
+        <v>182</v>
+      </c>
+      <c r="H31" t="s">
         <v>183</v>
       </c>
-      <c r="G31" t="s">
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s">
+        <v>95</v>
+      </c>
+      <c r="L31" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" t="s">
+        <v>96</v>
+      </c>
+      <c r="N31" t="s">
         <v>184</v>
-      </c>
-      <c r="H31" t="s">
-        <v>185</v>
-      </c>
-      <c r="J31" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" t="s">
-        <v>97</v>
-      </c>
-      <c r="L31" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" t="s">
-        <v>98</v>
-      </c>
-      <c r="N31" t="s">
-        <v>186</v>
       </c>
       <c r="O31">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="6:15">
+    <row r="32" spans="6:16">
       <c r="F32" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" t="s">
+        <v>186</v>
+      </c>
+      <c r="H32" t="s">
         <v>187</v>
-      </c>
-      <c r="G32" t="s">
-        <v>188</v>
-      </c>
-      <c r="H32" t="s">
-        <v>189</v>
       </c>
       <c r="I32" t="s">
         <v>70</v>
@@ -3440,16 +2925,16 @@
         <v>13</v>
       </c>
       <c r="K32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L32" t="s">
         <v>14</v>
       </c>
       <c r="M32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O32">
         <v>3</v>
@@ -3457,28 +2942,28 @@
     </row>
     <row r="33" spans="6:15">
       <c r="F33" t="s">
+        <v>189</v>
+      </c>
+      <c r="G33" t="s">
+        <v>190</v>
+      </c>
+      <c r="H33" t="s">
         <v>191</v>
       </c>
-      <c r="G33" t="s">
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s">
         <v>192</v>
-      </c>
-      <c r="H33" t="s">
-        <v>193</v>
-      </c>
-      <c r="J33" t="s">
-        <v>13</v>
-      </c>
-      <c r="K33" t="s">
-        <v>194</v>
       </c>
       <c r="L33" t="s">
         <v>75</v>
       </c>
       <c r="M33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O33">
         <v>2</v>
@@ -3486,13 +2971,13 @@
     </row>
     <row r="34" spans="6:15">
       <c r="F34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G34" t="s">
+        <v>195</v>
+      </c>
+      <c r="H34" t="s">
         <v>196</v>
-      </c>
-      <c r="G34" t="s">
-        <v>197</v>
-      </c>
-      <c r="H34" t="s">
-        <v>198</v>
       </c>
       <c r="I34" t="s">
         <v>73</v>
@@ -3501,16 +2986,16 @@
         <v>13</v>
       </c>
       <c r="K34" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L34" t="s">
         <v>75</v>
       </c>
       <c r="M34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O34">
         <v>8</v>
@@ -3518,13 +3003,13 @@
     </row>
     <row r="35" spans="6:15">
       <c r="F35" t="s">
+        <v>198</v>
+      </c>
+      <c r="G35" t="s">
+        <v>199</v>
+      </c>
+      <c r="H35" t="s">
         <v>200</v>
-      </c>
-      <c r="G35" t="s">
-        <v>201</v>
-      </c>
-      <c r="H35" t="s">
-        <v>202</v>
       </c>
       <c r="I35" t="s">
         <v>77</v>
@@ -3533,16 +3018,16 @@
         <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L35" t="s">
         <v>75</v>
       </c>
       <c r="M35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N35" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O35">
         <v>11</v>
@@ -3550,13 +3035,13 @@
     </row>
     <row r="36" spans="6:15">
       <c r="F36" t="s">
+        <v>202</v>
+      </c>
+      <c r="G36" t="s">
+        <v>203</v>
+      </c>
+      <c r="H36" t="s">
         <v>204</v>
-      </c>
-      <c r="G36" t="s">
-        <v>205</v>
-      </c>
-      <c r="H36" t="s">
-        <v>206</v>
       </c>
       <c r="I36" t="s">
         <v>80</v>
@@ -3565,16 +3050,16 @@
         <v>13</v>
       </c>
       <c r="K36" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L36" t="s">
         <v>75</v>
       </c>
       <c r="M36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O36">
         <v>12</v>
@@ -3582,28 +3067,28 @@
     </row>
     <row r="37" spans="6:15">
       <c r="F37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J37" t="s">
         <v>13</v>
       </c>
       <c r="K37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L37" t="s">
         <v>14</v>
       </c>
       <c r="M37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N37" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O37">
         <v>6</v>
@@ -3611,13 +3096,13 @@
     </row>
     <row r="38" spans="6:15">
       <c r="F38" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I38" t="s">
         <v>83</v>
@@ -3626,16 +3111,16 @@
         <v>13</v>
       </c>
       <c r="K38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L38" t="s">
         <v>14</v>
       </c>
       <c r="M38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N38" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O38">
         <v>5</v>
@@ -3643,13 +3128,13 @@
     </row>
     <row r="39" spans="6:15">
       <c r="F39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G39" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I39" t="s">
         <v>84</v>
@@ -3658,24 +3143,25 @@
         <v>13</v>
       </c>
       <c r="K39" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L39" t="s">
         <v>14</v>
       </c>
       <c r="M39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N39" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O39">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -3684,261 +3170,632 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:G34"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="11.6617647058824" customWidth="1"/>
-    <col min="4" max="4" width="23.7794117647059" customWidth="1"/>
-    <col min="5" max="5" width="11.6617647058824" customWidth="1"/>
-    <col min="6" max="6" width="37.8897058823529" customWidth="1"/>
-    <col min="7" max="7" width="58.4411764705882" customWidth="1"/>
-    <col min="8" max="8" width="31.1102941176471" customWidth="1"/>
-    <col min="9" max="1025" width="11.6617647058824" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="37.796875" customWidth="1"/>
+    <col min="7" max="7" width="58.3984375" customWidth="1"/>
+    <col min="8" max="8" width="31.19921875" customWidth="1"/>
+    <col min="9" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:7">
+    <row r="7" spans="4:7" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="12.75" customHeight="1">
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
         <v>213</v>
       </c>
-      <c r="G7" s="1" t="s">
+    </row>
+    <row r="9" spans="4:7">
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" spans="6:7">
-      <c r="F8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" t="s">
+    <row r="10" spans="4:7">
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="6:7">
-      <c r="F9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" t="s">
+    <row r="11" spans="4:7">
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="6:7">
-      <c r="F10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" t="s">
+    <row r="12" spans="4:7">
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="6:7">
-      <c r="F11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" t="s">
+    <row r="13" spans="4:7">
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="6:7">
-      <c r="F12" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" t="s">
+    <row r="14" spans="4:7">
+      <c r="F14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="6:7">
-      <c r="F13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13" t="s">
+    <row r="15" spans="4:7">
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="6:7">
-      <c r="F14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" t="s">
+    <row r="16" spans="4:7">
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="6:7">
-      <c r="F15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="6:7">
-      <c r="F16" t="s">
-        <v>132</v>
-      </c>
-      <c r="G16" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G29" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499C5B6B-3A11-8B4F-B1DD-74A44588F44A}">
+  <dimension ref="D7:R14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="3" width="11.59765625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="23.3984375" style="6" customWidth="1"/>
+    <col min="7" max="8" width="23.796875" style="6" customWidth="1"/>
+    <col min="9" max="10" width="24" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.3984375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="11.59765625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="28.59765625" style="6" customWidth="1"/>
+    <col min="14" max="17" width="11.59765625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="46.3984375" style="6" customWidth="1"/>
+    <col min="19" max="1025" width="11.59765625" style="6" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:18">
+      <c r="D7" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="4:18">
+      <c r="E8" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="4:18">
+      <c r="E9" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="O9" s="6">
+        <v>2</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:18">
+      <c r="E10" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" s="6">
+        <v>3</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="4:18">
+      <c r="E11" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="O11" s="6">
+        <v>4</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="4:18">
+      <c r="E12" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="O12" s="6">
+        <v>5</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="4:18">
+      <c r="E13" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="O13" s="6">
+        <v>6</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>1</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="4:18" ht="14">
+      <c r="E14" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O14" s="6">
+        <v>7</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>1</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/agile-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ED463497-F715-A243-8466-D20AA20AD9CC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6BF36B16-164C-9742-9B3B-ABCF6A02BFE9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="272">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -303,9 +303,6 @@
   </si>
   <si>
     <t>PAGE_PERMISSION_CODE</t>
-  </si>
-  <si>
-    <t>TYPE</t>
   </si>
   <si>
     <t>ICON</t>
@@ -894,6 +891,14 @@
   </si>
   <si>
     <t>{"width": 4, "positionX": 4, "positionY": 0, "height": 2}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RESOURCE_LEVEL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>@TYPE</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2065,8 +2070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:P39"/>
   <sheetViews>
-    <sheetView topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -2107,48 +2112,48 @@
         <v>4</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="N7" t="s">
         <v>89</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="P7" t="s">
         <v>90</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="P7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="4:16" ht="12.75" customHeight="1">
       <c r="F8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
         <v>92</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" t="s">
         <v>95</v>
       </c>
-      <c r="L8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" t="s">
-        <v>96</v>
-      </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -2156,13 +2161,13 @@
     </row>
     <row r="9" spans="4:16">
       <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
         <v>97</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>98</v>
-      </c>
-      <c r="H9" t="s">
-        <v>99</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -2171,16 +2176,16 @@
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
       </c>
       <c r="M9" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" t="s">
         <v>100</v>
-      </c>
-      <c r="N9" t="s">
-        <v>101</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -2188,13 +2193,13 @@
     </row>
     <row r="10" spans="4:16">
       <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
         <v>102</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>103</v>
-      </c>
-      <c r="H10" t="s">
-        <v>104</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -2203,16 +2208,16 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O10">
         <v>2</v>
@@ -2220,13 +2225,13 @@
     </row>
     <row r="11" spans="4:16">
       <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
         <v>106</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>107</v>
-      </c>
-      <c r="H11" t="s">
-        <v>108</v>
       </c>
       <c r="I11" t="s">
         <v>20</v>
@@ -2235,16 +2240,16 @@
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O11">
         <v>3</v>
@@ -2252,13 +2257,13 @@
     </row>
     <row r="12" spans="4:16">
       <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
         <v>110</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>111</v>
-      </c>
-      <c r="H12" t="s">
-        <v>112</v>
       </c>
       <c r="I12" t="s">
         <v>23</v>
@@ -2267,16 +2272,16 @@
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O12">
         <v>4</v>
@@ -2284,13 +2289,13 @@
     </row>
     <row r="13" spans="4:16">
       <c r="F13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" t="s">
         <v>114</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>115</v>
-      </c>
-      <c r="H13" t="s">
-        <v>116</v>
       </c>
       <c r="I13" t="s">
         <v>26</v>
@@ -2299,16 +2304,16 @@
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L13" t="s">
         <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O13">
         <v>5</v>
@@ -2316,13 +2321,13 @@
     </row>
     <row r="14" spans="4:16">
       <c r="F14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" t="s">
         <v>118</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>119</v>
-      </c>
-      <c r="H14" t="s">
-        <v>120</v>
       </c>
       <c r="I14" t="s">
         <v>29</v>
@@ -2331,16 +2336,16 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" t="s">
         <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O14">
         <v>6</v>
@@ -2348,28 +2353,28 @@
     </row>
     <row r="15" spans="4:16" ht="14">
       <c r="F15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" t="s">
         <v>123</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" t="s">
+        <v>95</v>
+      </c>
+      <c r="N15" t="s">
         <v>124</v>
-      </c>
-      <c r="J15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" t="s">
-        <v>92</v>
-      </c>
-      <c r="L15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" t="s">
-        <v>96</v>
-      </c>
-      <c r="N15" t="s">
-        <v>125</v>
       </c>
       <c r="O15">
         <v>7</v>
@@ -2377,13 +2382,13 @@
     </row>
     <row r="16" spans="4:16">
       <c r="F16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" t="s">
         <v>126</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>127</v>
-      </c>
-      <c r="H16" t="s">
-        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
@@ -2392,16 +2397,16 @@
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L16" t="s">
         <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O16">
         <v>8</v>
@@ -2409,13 +2414,13 @@
     </row>
     <row r="17" spans="6:16">
       <c r="F17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" t="s">
         <v>130</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>131</v>
-      </c>
-      <c r="H17" t="s">
-        <v>132</v>
       </c>
       <c r="I17" t="s">
         <v>35</v>
@@ -2424,16 +2429,16 @@
         <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L17" t="s">
         <v>14</v>
       </c>
       <c r="M17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O17">
         <v>9</v>
@@ -2441,13 +2446,13 @@
     </row>
     <row r="18" spans="6:16">
       <c r="F18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" t="s">
         <v>134</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>135</v>
-      </c>
-      <c r="H18" t="s">
-        <v>136</v>
       </c>
       <c r="I18" t="s">
         <v>38</v>
@@ -2456,16 +2461,16 @@
         <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L18" t="s">
         <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O18">
         <v>10</v>
@@ -2473,13 +2478,13 @@
     </row>
     <row r="19" spans="6:16">
       <c r="F19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" t="s">
         <v>138</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>139</v>
-      </c>
-      <c r="H19" t="s">
-        <v>140</v>
       </c>
       <c r="I19" t="s">
         <v>41</v>
@@ -2488,16 +2493,16 @@
         <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L19" t="s">
         <v>14</v>
       </c>
       <c r="M19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O19">
         <v>11</v>
@@ -2505,13 +2510,13 @@
     </row>
     <row r="20" spans="6:16">
       <c r="F20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" t="s">
         <v>142</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>143</v>
-      </c>
-      <c r="H20" t="s">
-        <v>144</v>
       </c>
       <c r="I20" t="s">
         <v>44</v>
@@ -2520,16 +2525,16 @@
         <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L20" t="s">
         <v>14</v>
       </c>
       <c r="M20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O20">
         <v>12</v>
@@ -2537,45 +2542,45 @@
     </row>
     <row r="21" spans="6:16">
       <c r="F21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" t="s">
         <v>146</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>147</v>
       </c>
-      <c r="H21" t="s">
-        <v>148</v>
-      </c>
       <c r="J21" t="s">
         <v>13</v>
       </c>
       <c r="K21" t="s">
+        <v>94</v>
+      </c>
+      <c r="L21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" t="s">
         <v>95</v>
       </c>
-      <c r="L21" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" t="s">
-        <v>96</v>
-      </c>
       <c r="N21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O21">
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="6:16">
       <c r="F22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" t="s">
         <v>150</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>151</v>
-      </c>
-      <c r="H22" t="s">
-        <v>152</v>
       </c>
       <c r="I22" t="s">
         <v>47</v>
@@ -2584,33 +2589,33 @@
         <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L22" t="s">
         <v>14</v>
       </c>
       <c r="M22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O22">
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="6:16">
       <c r="F23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" t="s">
         <v>154</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>155</v>
-      </c>
-      <c r="H23" t="s">
-        <v>156</v>
       </c>
       <c r="I23" t="s">
         <v>50</v>
@@ -2619,33 +2624,33 @@
         <v>13</v>
       </c>
       <c r="K23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L23" t="s">
         <v>14</v>
       </c>
       <c r="M23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O23">
         <v>2</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="6:16">
       <c r="F24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" t="s">
         <v>158</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>159</v>
-      </c>
-      <c r="H24" t="s">
-        <v>160</v>
       </c>
       <c r="I24" t="s">
         <v>53</v>
@@ -2654,33 +2659,33 @@
         <v>13</v>
       </c>
       <c r="K24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L24" t="s">
         <v>14</v>
       </c>
       <c r="M24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O24">
         <v>3</v>
       </c>
       <c r="P24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="6:16">
       <c r="F25" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" t="s">
         <v>163</v>
-      </c>
-      <c r="H25" t="s">
-        <v>164</v>
       </c>
       <c r="I25" t="s">
         <v>56</v>
@@ -2689,33 +2694,33 @@
         <v>13</v>
       </c>
       <c r="K25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L25" t="s">
         <v>14</v>
       </c>
       <c r="M25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O25">
         <v>4</v>
       </c>
       <c r="P25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="6:16">
       <c r="F26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>59</v>
@@ -2724,33 +2729,33 @@
         <v>13</v>
       </c>
       <c r="K26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L26" t="s">
         <v>14</v>
       </c>
       <c r="M26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O26">
         <v>5</v>
       </c>
       <c r="P26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="6:16">
       <c r="F27" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" t="s">
         <v>170</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>171</v>
-      </c>
-      <c r="H27" t="s">
-        <v>172</v>
       </c>
       <c r="I27" t="s">
         <v>62</v>
@@ -2759,65 +2764,65 @@
         <v>13</v>
       </c>
       <c r="K27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L27" t="s">
         <v>14</v>
       </c>
       <c r="M27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O27">
         <v>6</v>
       </c>
       <c r="P27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="6:16" ht="14">
       <c r="F28" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" t="s">
         <v>174</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H28" t="s">
-        <v>175</v>
-      </c>
       <c r="J28" t="s">
         <v>13</v>
       </c>
       <c r="K28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L28" t="s">
         <v>14</v>
       </c>
       <c r="M28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O28">
         <v>7</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="6:16">
       <c r="F29" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" t="s">
         <v>176</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>177</v>
-      </c>
-      <c r="H29" t="s">
-        <v>178</v>
       </c>
       <c r="I29" t="s">
         <v>65</v>
@@ -2826,33 +2831,33 @@
         <v>13</v>
       </c>
       <c r="K29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L29" t="s">
         <v>14</v>
       </c>
       <c r="M29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O29">
         <v>8</v>
       </c>
       <c r="P29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="6:16">
       <c r="F30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I30" t="s">
         <v>68</v>
@@ -2861,48 +2866,48 @@
         <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L30" t="s">
         <v>14</v>
       </c>
       <c r="M30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O30">
         <v>9</v>
       </c>
       <c r="P30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="6:16">
       <c r="F31" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" t="s">
         <v>181</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>182</v>
       </c>
-      <c r="H31" t="s">
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s">
+        <v>94</v>
+      </c>
+      <c r="L31" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" t="s">
+        <v>95</v>
+      </c>
+      <c r="N31" t="s">
         <v>183</v>
-      </c>
-      <c r="J31" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" t="s">
-        <v>95</v>
-      </c>
-      <c r="L31" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" t="s">
-        <v>96</v>
-      </c>
-      <c r="N31" t="s">
-        <v>184</v>
       </c>
       <c r="O31">
         <v>99</v>
@@ -2910,13 +2915,13 @@
     </row>
     <row r="32" spans="6:16">
       <c r="F32" t="s">
+        <v>184</v>
+      </c>
+      <c r="G32" t="s">
         <v>185</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>186</v>
-      </c>
-      <c r="H32" t="s">
-        <v>187</v>
       </c>
       <c r="I32" t="s">
         <v>70</v>
@@ -2925,16 +2930,16 @@
         <v>13</v>
       </c>
       <c r="K32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L32" t="s">
         <v>14</v>
       </c>
       <c r="M32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O32">
         <v>3</v>
@@ -2942,28 +2947,28 @@
     </row>
     <row r="33" spans="6:15">
       <c r="F33" t="s">
+        <v>188</v>
+      </c>
+      <c r="G33" t="s">
         <v>189</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>190</v>
       </c>
-      <c r="H33" t="s">
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s">
         <v>191</v>
-      </c>
-      <c r="J33" t="s">
-        <v>13</v>
-      </c>
-      <c r="K33" t="s">
-        <v>192</v>
       </c>
       <c r="L33" t="s">
         <v>75</v>
       </c>
       <c r="M33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O33">
         <v>2</v>
@@ -2971,13 +2976,13 @@
     </row>
     <row r="34" spans="6:15">
       <c r="F34" t="s">
+        <v>193</v>
+      </c>
+      <c r="G34" t="s">
         <v>194</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>195</v>
-      </c>
-      <c r="H34" t="s">
-        <v>196</v>
       </c>
       <c r="I34" t="s">
         <v>73</v>
@@ -2986,16 +2991,16 @@
         <v>13</v>
       </c>
       <c r="K34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L34" t="s">
         <v>75</v>
       </c>
       <c r="M34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O34">
         <v>8</v>
@@ -3003,13 +3008,13 @@
     </row>
     <row r="35" spans="6:15">
       <c r="F35" t="s">
+        <v>197</v>
+      </c>
+      <c r="G35" t="s">
         <v>198</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>199</v>
-      </c>
-      <c r="H35" t="s">
-        <v>200</v>
       </c>
       <c r="I35" t="s">
         <v>77</v>
@@ -3018,16 +3023,16 @@
         <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L35" t="s">
         <v>75</v>
       </c>
       <c r="M35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O35">
         <v>11</v>
@@ -3035,13 +3040,13 @@
     </row>
     <row r="36" spans="6:15">
       <c r="F36" t="s">
+        <v>201</v>
+      </c>
+      <c r="G36" t="s">
         <v>202</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>203</v>
-      </c>
-      <c r="H36" t="s">
-        <v>204</v>
       </c>
       <c r="I36" t="s">
         <v>80</v>
@@ -3050,16 +3055,16 @@
         <v>13</v>
       </c>
       <c r="K36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L36" t="s">
         <v>75</v>
       </c>
       <c r="M36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O36">
         <v>12</v>
@@ -3067,28 +3072,28 @@
     </row>
     <row r="37" spans="6:15">
       <c r="F37" t="s">
+        <v>205</v>
+      </c>
+      <c r="G37" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" t="s">
         <v>206</v>
       </c>
-      <c r="G37" t="s">
-        <v>131</v>
-      </c>
-      <c r="H37" t="s">
-        <v>207</v>
-      </c>
       <c r="J37" t="s">
         <v>13</v>
       </c>
       <c r="K37" t="s">
+        <v>94</v>
+      </c>
+      <c r="L37" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" t="s">
         <v>95</v>
       </c>
-      <c r="L37" t="s">
-        <v>14</v>
-      </c>
-      <c r="M37" t="s">
-        <v>96</v>
-      </c>
       <c r="N37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O37">
         <v>6</v>
@@ -3096,13 +3101,13 @@
     </row>
     <row r="38" spans="6:15">
       <c r="F38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G38" t="s">
+        <v>198</v>
+      </c>
+      <c r="H38" t="s">
         <v>199</v>
-      </c>
-      <c r="H38" t="s">
-        <v>200</v>
       </c>
       <c r="I38" t="s">
         <v>83</v>
@@ -3111,16 +3116,16 @@
         <v>13</v>
       </c>
       <c r="K38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L38" t="s">
         <v>14</v>
       </c>
       <c r="M38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O38">
         <v>5</v>
@@ -3128,13 +3133,13 @@
     </row>
     <row r="39" spans="6:15">
       <c r="F39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G39" t="s">
+        <v>202</v>
+      </c>
+      <c r="H39" t="s">
         <v>203</v>
-      </c>
-      <c r="H39" t="s">
-        <v>204</v>
       </c>
       <c r="I39" t="s">
         <v>84</v>
@@ -3143,16 +3148,16 @@
         <v>13</v>
       </c>
       <c r="K39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L39" t="s">
         <v>14</v>
       </c>
       <c r="M39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O39">
         <v>6</v>
@@ -3190,232 +3195,232 @@
   <sheetData>
     <row r="7" spans="4:7" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="12.75" customHeight="1">
       <c r="F8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="4:7">
       <c r="F9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="4:7">
       <c r="F10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="4:7">
       <c r="F11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="4:7">
       <c r="F12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="4:7">
       <c r="F13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="4:7">
       <c r="F14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="4:7">
       <c r="F15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="4:7">
       <c r="F16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3433,7 +3438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499C5B6B-3A11-8B4F-B1DD-74A44588F44A}">
   <dimension ref="D7:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
@@ -3456,7 +3461,7 @@
   <sheetData>
     <row r="7" spans="4:18">
       <c r="D7" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>1</v>
@@ -3465,7 +3470,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>86</v>
@@ -3474,63 +3479,63 @@
         <v>87</v>
       </c>
       <c r="J7" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P7" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="R7" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="R7" s="6" t="s">
+    </row>
+    <row r="8" spans="4:18" ht="14">
+      <c r="E8" s="6" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="8" spans="4:18">
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="I8" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="O8" s="6">
         <v>1</v>
@@ -3542,36 +3547,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:18">
+    <row r="9" spans="4:18" ht="14">
       <c r="E9" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="H9" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="I9" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="O9" s="6">
         <v>2</v>
@@ -3583,36 +3588,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:18">
+    <row r="10" spans="4:18" ht="14">
       <c r="E10" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="H10" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>258</v>
-      </c>
       <c r="I10" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>258</v>
-      </c>
       <c r="K10" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>253</v>
-      </c>
       <c r="M10" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O10" s="6">
         <v>3</v>
@@ -3624,36 +3629,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:18">
+    <row r="11" spans="4:18" ht="14">
       <c r="E11" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="H11" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="I11" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="O11" s="6">
         <v>4</v>
@@ -3665,36 +3670,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:18">
+    <row r="12" spans="4:18" ht="14">
       <c r="E12" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="O12" s="6">
         <v>5</v>
@@ -3706,36 +3711,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:18">
+    <row r="13" spans="4:18" ht="14">
       <c r="E13" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="N13" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="O13" s="6">
         <v>6</v>
@@ -3747,39 +3752,39 @@
         <v>1</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="4:18" ht="14">
       <c r="E14" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K14" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>253</v>
-      </c>
       <c r="M14" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O14" s="6">
         <v>7</v>
@@ -3791,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/agile-service/src/main/resources/script/front/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\agile-service\src\main\resources\script\front\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6BF36B16-164C-9742-9B3B-ABCF6A02BFE9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="18984" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="282">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -206,6 +205,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
       </rPr>
       <t>choerodon.route.program.</t>
     </r>
@@ -213,6 +213,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
       </rPr>
       <t>board</t>
     </r>
@@ -519,9 +520,6 @@
   </si>
   <si>
     <t>insert_invitation</t>
-  </si>
-  <si>
-    <t>choerodon.code.program.roadMap</t>
   </si>
   <si>
     <t>线路图</t>
@@ -537,6 +535,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
       </rPr>
       <t>choerodon.code.program.</t>
     </r>
@@ -544,6 +543,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
       </rPr>
       <t>board</t>
     </r>
@@ -739,6 +739,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
       </rPr>
       <t>agile-service.</t>
     </r>
@@ -746,6 +747,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
       </rPr>
       <t>board-feature</t>
     </r>
@@ -753,6 +755,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -760,6 +763,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
       </rPr>
       <t>queryBoardInfo</t>
     </r>
@@ -899,13 +903,157 @@
   </si>
   <si>
     <t>@TYPE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/agile/page</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.route.pro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.roadMap</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/agile/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>project/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>roadMap</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目层线路图路由</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.program.roadMap</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.code.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.roadMap</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.route.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.roadMap</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.code.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>agile</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.program.roadMap</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.code.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.roadMap</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="10"/>
@@ -920,6 +1068,7 @@
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1270,29 +1419,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D7:N32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:N33"/>
   <sheetViews>
     <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="32.796875" customWidth="1"/>
-    <col min="7" max="7" width="23.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="57.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="14.19921875" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.59765625" customWidth="1"/>
-    <col min="14" max="14" width="19.3984375" customWidth="1"/>
+    <col min="12" max="12" width="19.21875" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="16" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:14" ht="12.75" customHeight="1">
@@ -1767,10 +1916,10 @@
     </row>
     <row r="23" spans="6:14">
       <c r="F23" s="2" t="s">
-        <v>59</v>
+        <v>272</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>60</v>
+        <v>273</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -1779,7 +1928,7 @@
         <v>14</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>61</v>
+        <v>274</v>
       </c>
       <c r="K23" t="s">
         <v>16</v>
@@ -1795,11 +1944,11 @@
       </c>
     </row>
     <row r="24" spans="6:14">
-      <c r="F24" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" t="s">
-        <v>63</v>
+      <c r="F24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1807,8 +1956,8 @@
       <c r="I24" t="s">
         <v>14</v>
       </c>
-      <c r="J24" t="s">
-        <v>64</v>
+      <c r="J24" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="K24" t="s">
         <v>16</v>
@@ -1825,10 +1974,10 @@
     </row>
     <row r="25" spans="6:14">
       <c r="F25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -1837,7 +1986,7 @@
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K25" t="s">
         <v>16</v>
@@ -1854,10 +2003,10 @@
     </row>
     <row r="26" spans="6:14">
       <c r="F26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -1866,7 +2015,7 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="K26" t="s">
         <v>16</v>
@@ -1883,10 +2032,10 @@
     </row>
     <row r="27" spans="6:14">
       <c r="F27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -1895,7 +2044,7 @@
         <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="K27" t="s">
         <v>16</v>
@@ -1912,19 +2061,19 @@
     </row>
     <row r="28" spans="6:14">
       <c r="F28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G28" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K28" t="s">
         <v>16</v>
@@ -1941,10 +2090,10 @@
     </row>
     <row r="29" spans="6:14">
       <c r="F29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -1953,7 +2102,7 @@
         <v>75</v>
       </c>
       <c r="J29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s">
         <v>16</v>
@@ -1970,10 +2119,10 @@
     </row>
     <row r="30" spans="6:14">
       <c r="F30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -1982,7 +2131,7 @@
         <v>75</v>
       </c>
       <c r="J30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K30" t="s">
         <v>16</v>
@@ -1999,19 +2148,19 @@
     </row>
     <row r="31" spans="6:14">
       <c r="F31" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
       </c>
       <c r="I31" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="J31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K31" t="s">
         <v>16</v>
@@ -2028,10 +2177,10 @@
     </row>
     <row r="32" spans="6:14">
       <c r="F32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
@@ -2040,7 +2189,7 @@
         <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K32" t="s">
         <v>16</v>
@@ -2052,6 +2201,35 @@
         <v>1</v>
       </c>
       <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="6:14">
+      <c r="F33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" t="s">
+        <v>82</v>
+      </c>
+      <c r="K33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
         <v>0</v>
       </c>
     </row>
@@ -2067,26 +2245,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D7:P39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="42.19921875" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="42.21875" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="35.796875" customWidth="1"/>
-    <col min="9" max="9" width="49.796875" customWidth="1"/>
-    <col min="10" max="10" width="18.59765625" customWidth="1"/>
+    <col min="8" max="8" width="35.77734375" customWidth="1"/>
+    <col min="9" max="9" width="49.77734375" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" customWidth="1"/>
     <col min="11" max="11" width="41" customWidth="1"/>
-    <col min="12" max="12" width="19.19921875" customWidth="1"/>
-    <col min="13" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="12" max="12" width="19.21875" customWidth="1"/>
+    <col min="13" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:16" ht="12.75" customHeight="1">
@@ -2112,19 +2290,19 @@
         <v>4</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L7" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>270</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>271</v>
       </c>
       <c r="N7" t="s">
         <v>89</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P7" t="s">
         <v>90</v>
@@ -2351,7 +2529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="4:16" ht="14">
+    <row r="15" spans="4:16" ht="14.4">
       <c r="F15" t="s">
         <v>121</v>
       </c>
@@ -2678,14 +2856,14 @@
       </c>
     </row>
     <row r="25" spans="6:16">
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" t="s">
         <v>162</v>
-      </c>
-      <c r="H25" t="s">
-        <v>163</v>
       </c>
       <c r="I25" t="s">
         <v>56</v>
@@ -2703,7 +2881,7 @@
         <v>99</v>
       </c>
       <c r="N25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O25">
         <v>4</v>
@@ -2714,51 +2892,48 @@
     </row>
     <row r="26" spans="6:16">
       <c r="F26" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H26" t="s">
+        <v>162</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="L26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="N26" t="s">
+        <v>163</v>
+      </c>
+      <c r="O26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="6:16">
+      <c r="F27" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I26" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="J26" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" t="s">
-        <v>145</v>
-      </c>
-      <c r="L26" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" t="s">
-        <v>99</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="O26">
-        <v>5</v>
-      </c>
-      <c r="P26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="6:16">
-      <c r="F27" t="s">
-        <v>169</v>
-      </c>
-      <c r="G27" t="s">
-        <v>170</v>
-      </c>
-      <c r="H27" t="s">
-        <v>171</v>
-      </c>
-      <c r="I27" t="s">
-        <v>62</v>
       </c>
       <c r="J27" t="s">
         <v>13</v>
@@ -2772,25 +2947,28 @@
       <c r="M27" t="s">
         <v>99</v>
       </c>
-      <c r="N27" t="s">
-        <v>172</v>
+      <c r="N27" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="O27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P27" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="6:16" ht="14">
+    <row r="28" spans="6:16">
       <c r="F28" t="s">
-        <v>173</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>122</v>
+        <v>168</v>
+      </c>
+      <c r="G28" t="s">
+        <v>169</v>
       </c>
       <c r="H28" t="s">
-        <v>174</v>
+        <v>170</v>
+      </c>
+      <c r="I28" t="s">
+        <v>62</v>
       </c>
       <c r="J28" t="s">
         <v>13</v>
@@ -2802,48 +2980,45 @@
         <v>14</v>
       </c>
       <c r="M28" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="N28" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="O28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P28" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="6:16">
+    <row r="29" spans="6:16" ht="14.4">
       <c r="F29" t="s">
-        <v>175</v>
-      </c>
-      <c r="G29" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="H29" t="s">
-        <v>177</v>
-      </c>
-      <c r="I29" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="J29" t="s">
         <v>13</v>
       </c>
       <c r="K29" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="L29" t="s">
         <v>14</v>
       </c>
       <c r="M29" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N29" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="O29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P29" t="s">
         <v>148</v>
@@ -2851,22 +3026,22 @@
     </row>
     <row r="30" spans="6:16">
       <c r="F30" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G30" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="H30" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J30" t="s">
         <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L30" t="s">
         <v>14</v>
@@ -2875,10 +3050,10 @@
         <v>99</v>
       </c>
       <c r="N30" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="O30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P30" t="s">
         <v>148</v>
@@ -2886,144 +3061,147 @@
     </row>
     <row r="31" spans="6:16">
       <c r="F31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G31" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="H31" t="s">
-        <v>182</v>
+        <v>173</v>
+      </c>
+      <c r="I31" t="s">
+        <v>68</v>
       </c>
       <c r="J31" t="s">
         <v>13</v>
       </c>
       <c r="K31" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="L31" t="s">
         <v>14</v>
       </c>
       <c r="M31" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="N31" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="O31">
-        <v>99</v>
+        <v>9</v>
+      </c>
+      <c r="P31" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="6:16">
       <c r="F32" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G32" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H32" t="s">
-        <v>186</v>
-      </c>
-      <c r="I32" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="J32" t="s">
         <v>13</v>
       </c>
       <c r="K32" t="s">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="L32" t="s">
         <v>14</v>
       </c>
       <c r="M32" t="s">
+        <v>95</v>
+      </c>
+      <c r="N32" t="s">
+        <v>182</v>
+      </c>
+      <c r="O32">
         <v>99</v>
-      </c>
-      <c r="N32" t="s">
-        <v>187</v>
-      </c>
-      <c r="O32">
-        <v>3</v>
       </c>
     </row>
     <row r="33" spans="6:15">
       <c r="F33" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G33" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H33" t="s">
-        <v>190</v>
+        <v>185</v>
+      </c>
+      <c r="I33" t="s">
+        <v>70</v>
       </c>
       <c r="J33" t="s">
         <v>13</v>
       </c>
       <c r="K33" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="L33" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="M33" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="N33" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="O33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="6:15">
       <c r="F34" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G34" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H34" t="s">
-        <v>195</v>
-      </c>
-      <c r="I34" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="J34" t="s">
         <v>13</v>
       </c>
       <c r="K34" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L34" t="s">
         <v>75</v>
       </c>
       <c r="M34" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N34" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="O34">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="6:15">
       <c r="F35" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G35" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H35" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J35" t="s">
         <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L35" t="s">
         <v>75</v>
@@ -3032,30 +3210,30 @@
         <v>99</v>
       </c>
       <c r="N35" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="O35">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="6:15">
       <c r="F36" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G36" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H36" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I36" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s">
         <v>13</v>
       </c>
       <c r="K36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L36" t="s">
         <v>75</v>
@@ -3064,91 +3242,91 @@
         <v>99</v>
       </c>
       <c r="N36" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="O36">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="6:15">
       <c r="F37" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G37" t="s">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="H37" t="s">
-        <v>206</v>
+        <v>202</v>
+      </c>
+      <c r="I37" t="s">
+        <v>80</v>
       </c>
       <c r="J37" t="s">
         <v>13</v>
       </c>
       <c r="K37" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="L37" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="M37" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="N37" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="O37">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="6:15">
       <c r="F38" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G38" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="H38" t="s">
-        <v>199</v>
-      </c>
-      <c r="I38" t="s">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="J38" t="s">
         <v>13</v>
       </c>
       <c r="K38" t="s">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="L38" t="s">
         <v>14</v>
       </c>
       <c r="M38" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N38" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="O38">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="6:15">
       <c r="F39" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G39" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H39" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J39" t="s">
         <v>13</v>
       </c>
       <c r="K39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L39" t="s">
         <v>14</v>
@@ -3157,9 +3335,41 @@
         <v>99</v>
       </c>
       <c r="N39" t="s">
+        <v>199</v>
+      </c>
+      <c r="O39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="6:15">
+      <c r="F40" t="s">
+        <v>207</v>
+      </c>
+      <c r="G40" t="s">
+        <v>201</v>
+      </c>
+      <c r="H40" t="s">
+        <v>202</v>
+      </c>
+      <c r="I40" t="s">
+        <v>84</v>
+      </c>
+      <c r="J40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" t="s">
         <v>204</v>
       </c>
-      <c r="O39">
+      <c r="L40" t="s">
+        <v>14</v>
+      </c>
+      <c r="M40" t="s">
+        <v>99</v>
+      </c>
+      <c r="N40" t="s">
+        <v>203</v>
+      </c>
+      <c r="O40">
         <v>6</v>
       </c>
     </row>
@@ -3175,36 +3385,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="D7:G34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="23.796875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="37.796875" customWidth="1"/>
-    <col min="7" max="7" width="58.3984375" customWidth="1"/>
-    <col min="8" max="8" width="31.19921875" customWidth="1"/>
-    <col min="9" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="37.77734375" customWidth="1"/>
+    <col min="7" max="7" width="58.44140625" customWidth="1"/>
+    <col min="8" max="8" width="31.21875" customWidth="1"/>
+    <col min="9" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:7" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="12.75" customHeight="1">
@@ -3212,7 +3422,7 @@
         <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="4:7">
@@ -3220,7 +3430,7 @@
         <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="4:7">
@@ -3228,7 +3438,7 @@
         <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="4:7">
@@ -3236,7 +3446,7 @@
         <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="4:7">
@@ -3244,7 +3454,7 @@
         <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="4:7">
@@ -3252,7 +3462,7 @@
         <v>113</v>
       </c>
       <c r="G13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="4:7">
@@ -3260,7 +3470,7 @@
         <v>117</v>
       </c>
       <c r="G14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="4:7">
@@ -3268,7 +3478,7 @@
         <v>125</v>
       </c>
       <c r="G15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="4:7">
@@ -3276,7 +3486,7 @@
         <v>129</v>
       </c>
       <c r="G16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="6:7">
@@ -3284,7 +3494,7 @@
         <v>133</v>
       </c>
       <c r="G17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="6:7">
@@ -3292,7 +3502,7 @@
         <v>137</v>
       </c>
       <c r="G18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="6:7">
@@ -3300,7 +3510,7 @@
         <v>141</v>
       </c>
       <c r="G19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="6:7">
@@ -3308,7 +3518,7 @@
         <v>149</v>
       </c>
       <c r="G20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="6:7">
@@ -3316,7 +3526,7 @@
         <v>153</v>
       </c>
       <c r="G21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="6:7">
@@ -3324,103 +3534,111 @@
         <v>157</v>
       </c>
       <c r="G22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7">
+      <c r="F23" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G23" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="6:7">
-      <c r="F23" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>228</v>
+        <v>281</v>
+      </c>
+      <c r="G24" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="6:7">
-      <c r="F25" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" t="s">
-        <v>229</v>
+      <c r="F25" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G27" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="G29" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G33" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G34" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7">
+      <c r="F35" t="s">
+        <v>207</v>
+      </c>
+      <c r="G35" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3435,33 +3653,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499C5B6B-3A11-8B4F-B1DD-74A44588F44A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.19921875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.19921875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.3984375" style="6" customWidth="1"/>
-    <col min="7" max="8" width="23.796875" style="6" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="6" customWidth="1"/>
+    <col min="7" max="8" width="23.77734375" style="6" customWidth="1"/>
     <col min="9" max="10" width="24" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.3984375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="11.59765625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="28.59765625" style="6" customWidth="1"/>
-    <col min="14" max="17" width="11.59765625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="46.3984375" style="6" customWidth="1"/>
-    <col min="19" max="1025" width="11.59765625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="28.5546875" style="6" customWidth="1"/>
+    <col min="14" max="17" width="11.5546875" style="6" customWidth="1"/>
+    <col min="18" max="18" width="46.44140625" style="6" customWidth="1"/>
+    <col min="19" max="1025" width="11.5546875" style="6" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:18">
       <c r="D7" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>1</v>
@@ -3470,7 +3688,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>86</v>
@@ -3479,13 +3697,13 @@
         <v>87</v>
       </c>
       <c r="J7" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>6</v>
@@ -3494,48 +3712,48 @@
         <v>89</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P7" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="R7" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="R7" s="6" t="s">
+    </row>
+    <row r="8" spans="4:18">
+      <c r="E8" s="6" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="8" spans="4:18" ht="14">
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="I8" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>250</v>
       </c>
       <c r="O8" s="6">
         <v>1</v>
@@ -3547,36 +3765,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:18" ht="14">
+    <row r="9" spans="4:18">
       <c r="E9" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="H9" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="I9" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>255</v>
       </c>
       <c r="O9" s="6">
         <v>2</v>
@@ -3588,33 +3806,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:18" ht="14">
+    <row r="10" spans="4:18">
       <c r="E10" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="H10" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>257</v>
-      </c>
       <c r="I10" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>257</v>
-      </c>
       <c r="K10" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="M10" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>95</v>
@@ -3629,36 +3847,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:18" ht="14">
+    <row r="11" spans="4:18">
       <c r="E11" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="H11" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="I11" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>260</v>
       </c>
       <c r="O11" s="6">
         <v>4</v>
@@ -3670,36 +3888,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:18" ht="14">
+    <row r="12" spans="4:18">
       <c r="E12" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="O12" s="6">
         <v>5</v>
@@ -3711,36 +3929,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:18" ht="14">
+    <row r="13" spans="4:18">
       <c r="E13" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="N13" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="O13" s="6">
         <v>6</v>
@@ -3752,15 +3970,15 @@
         <v>1</v>
       </c>
       <c r="R13" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="4:18">
+      <c r="E14" s="6" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="14" spans="4:18" ht="14">
-      <c r="E14" s="6" t="s">
-        <v>268</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>102</v>
@@ -3769,16 +3987,16 @@
         <v>102</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>102</v>
       </c>
       <c r="K14" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>102</v>
@@ -3796,11 +4014,12 @@
         <v>1</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="122" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="290">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -925,31 +925,9 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>.roadMap</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/agile/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>project/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="1"/>
-      </rPr>
-      <t>roadMap</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -977,7 +955,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>.roadMap</t>
     </r>
@@ -999,7 +977,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>.roadMap</t>
     </r>
@@ -1043,9 +1021,73 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.roadMap</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/agile/roadMap_project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.project.board</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/agile/board_project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.project.board</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.code.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>agile</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.project.board</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.project-invoke-program.queryBoardInfo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>agile-service.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>project-invoke-program</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
         <charset val="1"/>
       </rPr>
-      <t>.roadMap</t>
+      <t>.queryRoadMapOfProgram</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1420,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:N33"/>
+  <dimension ref="D7:N34"/>
   <sheetViews>
     <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1919,16 +1961,16 @@
         <v>272</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="K23" t="s">
         <v>16</v>
@@ -1973,11 +2015,11 @@
       </c>
     </row>
     <row r="25" spans="6:14">
-      <c r="F25" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" t="s">
-        <v>63</v>
+      <c r="F25" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -1985,8 +2027,8 @@
       <c r="I25" t="s">
         <v>14</v>
       </c>
-      <c r="J25" t="s">
-        <v>64</v>
+      <c r="J25" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="K25" t="s">
         <v>16</v>
@@ -2003,10 +2045,10 @@
     </row>
     <row r="26" spans="6:14">
       <c r="F26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -2015,7 +2057,7 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K26" t="s">
         <v>16</v>
@@ -2032,10 +2074,10 @@
     </row>
     <row r="27" spans="6:14">
       <c r="F27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -2044,7 +2086,7 @@
         <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="K27" t="s">
         <v>16</v>
@@ -2061,10 +2103,10 @@
     </row>
     <row r="28" spans="6:14">
       <c r="F28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -2073,7 +2115,7 @@
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="K28" t="s">
         <v>16</v>
@@ -2090,19 +2132,19 @@
     </row>
     <row r="29" spans="6:14">
       <c r="F29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
       </c>
       <c r="I29" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K29" t="s">
         <v>16</v>
@@ -2119,10 +2161,10 @@
     </row>
     <row r="30" spans="6:14">
       <c r="F30" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -2131,7 +2173,7 @@
         <v>75</v>
       </c>
       <c r="J30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s">
         <v>16</v>
@@ -2148,10 +2190,10 @@
     </row>
     <row r="31" spans="6:14">
       <c r="F31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -2160,7 +2202,7 @@
         <v>75</v>
       </c>
       <c r="J31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s">
         <v>16</v>
@@ -2177,19 +2219,19 @@
     </row>
     <row r="32" spans="6:14">
       <c r="F32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
       </c>
       <c r="I32" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="J32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K32" t="s">
         <v>16</v>
@@ -2206,10 +2248,10 @@
     </row>
     <row r="33" spans="6:14">
       <c r="F33" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>271</v>
+        <v>83</v>
+      </c>
+      <c r="G33" t="s">
+        <v>78</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
@@ -2218,7 +2260,7 @@
         <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K33" t="s">
         <v>16</v>
@@ -2230,6 +2272,35 @@
         <v>1</v>
       </c>
       <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="6:14">
+      <c r="F34" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" t="s">
+        <v>82</v>
+      </c>
+      <c r="K34" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
         <v>0</v>
       </c>
     </row>
@@ -2246,10 +2317,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:P40"/>
+  <dimension ref="D7:P41"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView topLeftCell="I13" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2857,7 +2928,7 @@
     </row>
     <row r="25" spans="6:16">
       <c r="F25" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>161</v>
@@ -2892,7 +2963,7 @@
     </row>
     <row r="26" spans="6:16">
       <c r="F26" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>161</v>
@@ -2901,19 +2972,19 @@
         <v>162</v>
       </c>
       <c r="I26" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="J26" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="L26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="L26" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="N26" t="s">
         <v>163</v>
@@ -2958,49 +3029,49 @@
       </c>
     </row>
     <row r="28" spans="6:16">
-      <c r="F28" t="s">
+      <c r="F28" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="L28" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="O28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="6:16">
+      <c r="F29" t="s">
         <v>168</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>169</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H29" t="s">
         <v>170</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I29" t="s">
         <v>62</v>
-      </c>
-      <c r="J28" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28" t="s">
-        <v>145</v>
-      </c>
-      <c r="L28" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" t="s">
-        <v>99</v>
-      </c>
-      <c r="N28" t="s">
-        <v>171</v>
-      </c>
-      <c r="O28">
-        <v>6</v>
-      </c>
-      <c r="P28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="6:16" ht="14.4">
-      <c r="F29" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H29" t="s">
-        <v>173</v>
       </c>
       <c r="J29" t="s">
         <v>13</v>
@@ -3012,48 +3083,45 @@
         <v>14</v>
       </c>
       <c r="M29" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="N29" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="O29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P29" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="6:16">
+    <row r="30" spans="6:16" ht="14.4">
       <c r="F30" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="H30" t="s">
-        <v>176</v>
-      </c>
-      <c r="I30" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="J30" t="s">
         <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="L30" t="s">
         <v>14</v>
       </c>
       <c r="M30" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N30" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="O30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P30" t="s">
         <v>148</v>
@@ -3061,16 +3129,16 @@
     </row>
     <row r="31" spans="6:16">
       <c r="F31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G31" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="H31" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J31" t="s">
         <v>13</v>
@@ -3085,10 +3153,10 @@
         <v>99</v>
       </c>
       <c r="N31" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="O31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P31" t="s">
         <v>148</v>
@@ -3096,138 +3164,141 @@
     </row>
     <row r="32" spans="6:16">
       <c r="F32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G32" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="H32" t="s">
-        <v>181</v>
+        <v>173</v>
+      </c>
+      <c r="I32" t="s">
+        <v>68</v>
       </c>
       <c r="J32" t="s">
         <v>13</v>
       </c>
       <c r="K32" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="L32" t="s">
         <v>14</v>
       </c>
       <c r="M32" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="N32" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="O32">
-        <v>99</v>
+        <v>9</v>
+      </c>
+      <c r="P32" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="6:15">
       <c r="F33" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G33" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H33" t="s">
-        <v>185</v>
-      </c>
-      <c r="I33" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="J33" t="s">
         <v>13</v>
       </c>
       <c r="K33" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="L33" t="s">
         <v>14</v>
       </c>
       <c r="M33" t="s">
+        <v>95</v>
+      </c>
+      <c r="N33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O33">
         <v>99</v>
-      </c>
-      <c r="N33" t="s">
-        <v>186</v>
-      </c>
-      <c r="O33">
-        <v>3</v>
       </c>
     </row>
     <row r="34" spans="6:15">
       <c r="F34" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H34" t="s">
-        <v>189</v>
+        <v>185</v>
+      </c>
+      <c r="I34" t="s">
+        <v>70</v>
       </c>
       <c r="J34" t="s">
         <v>13</v>
       </c>
       <c r="K34" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="L34" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="M34" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="N34" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="O34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="6:15">
       <c r="F35" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G35" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H35" t="s">
-        <v>194</v>
-      </c>
-      <c r="I35" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="J35" t="s">
         <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L35" t="s">
         <v>75</v>
       </c>
       <c r="M35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N35" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="O35">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="6:15">
       <c r="F36" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G36" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H36" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I36" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J36" t="s">
         <v>13</v>
@@ -3242,24 +3313,24 @@
         <v>99</v>
       </c>
       <c r="N36" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O36">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="6:15">
       <c r="F37" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G37" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H37" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s">
         <v>13</v>
@@ -3274,85 +3345,85 @@
         <v>99</v>
       </c>
       <c r="N37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="O37">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="6:15">
       <c r="F38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G38" t="s">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="H38" t="s">
-        <v>205</v>
+        <v>202</v>
+      </c>
+      <c r="I38" t="s">
+        <v>80</v>
       </c>
       <c r="J38" t="s">
         <v>13</v>
       </c>
       <c r="K38" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="L38" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="M38" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="N38" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="O38">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="6:15">
       <c r="F39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G39" t="s">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c r="H39" t="s">
-        <v>198</v>
-      </c>
-      <c r="I39" t="s">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="J39" t="s">
         <v>13</v>
       </c>
       <c r="K39" t="s">
-        <v>204</v>
+        <v>94</v>
       </c>
       <c r="L39" t="s">
         <v>14</v>
       </c>
       <c r="M39" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N39" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="O39">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="6:15">
       <c r="F40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G40" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H40" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J40" t="s">
         <v>13</v>
@@ -3367,9 +3438,41 @@
         <v>99</v>
       </c>
       <c r="N40" t="s">
+        <v>199</v>
+      </c>
+      <c r="O40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="6:15">
+      <c r="F41" t="s">
+        <v>207</v>
+      </c>
+      <c r="G41" t="s">
+        <v>201</v>
+      </c>
+      <c r="H41" t="s">
+        <v>202</v>
+      </c>
+      <c r="I41" t="s">
+        <v>84</v>
+      </c>
+      <c r="J41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" t="s">
+        <v>204</v>
+      </c>
+      <c r="L41" t="s">
+        <v>14</v>
+      </c>
+      <c r="M41" t="s">
+        <v>99</v>
+      </c>
+      <c r="N41" t="s">
         <v>203</v>
       </c>
-      <c r="O40">
+      <c r="O41">
         <v>6</v>
       </c>
     </row>
@@ -3386,10 +3489,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:G35"/>
+  <dimension ref="D7:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3539,7 +3642,7 @@
     </row>
     <row r="23" spans="6:7">
       <c r="F23" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G23" t="s">
         <v>226</v>
@@ -3547,10 +3650,10 @@
     </row>
     <row r="24" spans="6:7">
       <c r="F24" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G24" t="s">
-        <v>226</v>
+        <v>280</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="6:7">
@@ -3562,43 +3665,43 @@
       </c>
     </row>
     <row r="26" spans="6:7">
-      <c r="F26" t="s">
-        <v>168</v>
-      </c>
-      <c r="G26" t="s">
-        <v>228</v>
+      <c r="F26" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G28" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G30" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="6:7">
@@ -3606,38 +3709,46 @@
         <v>192</v>
       </c>
       <c r="G31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
+        <v>206</v>
+      </c>
+      <c r="G35" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7">
+      <c r="F36" t="s">
         <v>207</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G36" t="s">
         <v>235</v>
       </c>
     </row>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -910,28 +910,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>choerodon.route.pro</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ject</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.roadMap</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>项目层线路图路由</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -963,7 +941,7 @@
   </si>
   <si>
     <r>
-      <t>choerodon.route.</t>
+      <t>choerodon.code.</t>
     </r>
     <r>
       <rPr>
@@ -971,16 +949,24 @@
         <rFont val="Droid Sans Fallback"/>
         <charset val="134"/>
       </rPr>
-      <t>project</t>
+      <t>agile</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.roadMap</t>
-    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.program.roadMap</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/agile/roadMap_project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/agile/board_project</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -999,70 +985,6 @@
   </si>
   <si>
     <t>menu</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.program.roadMap</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>choerodon.code.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>project</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.roadMap</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/agile/roadMap_project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.project.board</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/agile/board_project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.project.board</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>choerodon.code.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>agile</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.project.board</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1085,10 +1007,34 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>.queryRoadMapOfProgram</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.agile.board</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.agile.roadMap</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.agile.board</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.agile.roadMap</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.agile.board</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.agile.roadMap</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1465,7 +1411,7 @@
   <dimension ref="D7:N34"/>
   <sheetViews>
     <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1958,19 +1904,19 @@
     </row>
     <row r="23" spans="6:14">
       <c r="F23" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="K23" t="s">
         <v>16</v>
@@ -2016,10 +1962,10 @@
     </row>
     <row r="25" spans="6:14">
       <c r="F25" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -2319,8 +2265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:P41"/>
   <sheetViews>
-    <sheetView topLeftCell="I13" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2928,7 +2874,7 @@
     </row>
     <row r="25" spans="6:16">
       <c r="F25" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>161</v>
@@ -2963,7 +2909,7 @@
     </row>
     <row r="26" spans="6:16">
       <c r="F26" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>161</v>
@@ -2972,19 +2918,19 @@
         <v>162</v>
       </c>
       <c r="I26" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="L26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="J26" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="L26" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="N26" t="s">
         <v>163</v>
@@ -3045,13 +2991,13 @@
         <v>13</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L28" t="s">
         <v>14</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>167</v>
@@ -3492,7 +3438,7 @@
   <dimension ref="D7:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3642,7 +3588,7 @@
     </row>
     <row r="23" spans="6:7">
       <c r="F23" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G23" t="s">
         <v>226</v>
@@ -3650,10 +3596,10 @@
     </row>
     <row r="24" spans="6:7">
       <c r="F24" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="6:7">
@@ -3666,10 +3612,10 @@
     </row>
     <row r="26" spans="6:7">
       <c r="F26" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="6:7">

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="307">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -726,9 +726,6 @@
     <t>agile-service.pi.queryBacklogAll</t>
   </si>
   <si>
-    <t>agile-service.board.queryByOptionsInProgram</t>
-  </si>
-  <si>
     <t>agile-service.art.queryArtCalendar</t>
   </si>
   <si>
@@ -927,16 +924,20 @@
         <rFont val="Droid Sans Fallback"/>
         <charset val="134"/>
       </rPr>
-      <t>project</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.roadMap</t>
-    </r>
+      <t>agile</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.program.roadMap</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/agile/roadMap_project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/agile/board_project</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -954,19 +955,53 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>menu</t>
+    <t>agile-service.project-invoke-program.queryBoardInfo</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>choerodon.code.program.roadMap</t>
+    <r>
+      <t>agile-service.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>project-invoke-program</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.queryRoadMapOfProgram</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>/agile/roadMap_project</t>
+    <t>choerodon.route.agile.board</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>/agile/board_project</t>
+    <t>choerodon.route.agile.roadMap</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.agile.board</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.agile.roadMap</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.agile.board</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.agile.roadMap</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -981,19 +1016,19 @@
       </rPr>
       <t>agile</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.programKanban</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>menu</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>agile-service.project-invoke-program.queryBoardInfo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>agile-service.</t>
+    <r>
+      <t>choerodon.code.</t>
     </r>
     <r>
       <rPr>
@@ -1001,7 +1036,21 @@
         <rFont val="Droid Sans Fallback"/>
         <charset val="134"/>
       </rPr>
-      <t>project-invoke-program</t>
+      <t>agile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.artCalendar</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.code.</t>
     </r>
     <r>
       <rPr>
@@ -1009,24 +1058,16 @@
         <rFont val="Droid Sans Fallback"/>
         <charset val="134"/>
       </rPr>
-      <t>.queryRoadMapOfProgram</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.agile.board</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.agile.roadMap</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.agile.board</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.agile.roadMap</t>
+      <t>agile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.pi</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1034,7 +1075,293 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>choerodon.code.agile.roadMap</t>
+    <r>
+      <t>choerodon.route.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>agile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.programKanban</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.route.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>agile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.artCalendar</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.route.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>agile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.pi</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.code.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>agile</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.code.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>agile</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.code.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>agile</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.route.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>agile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.artCalendar</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.route.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>agile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.programKanban</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/agile/kanban</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_project</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/agile/artCalendar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_project</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.route.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>agile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.pi</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/agile/pi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_project</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.code.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>agile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.pi</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.code.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>agile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.artCalendar</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.code.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>agile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.programKanban</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.board.queryByOptionsInProgram</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.project-invoke-program.queryByOptionsInProgram</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1408,10 +1735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:N34"/>
+  <dimension ref="D7:N37"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1816,11 +2143,11 @@
       </c>
     </row>
     <row r="20" spans="6:14">
-      <c r="F20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" t="s">
-        <v>51</v>
+      <c r="F20" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
@@ -1846,10 +2173,10 @@
     </row>
     <row r="21" spans="6:14">
       <c r="F21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
@@ -1858,7 +2185,7 @@
         <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s">
         <v>16</v>
@@ -1874,11 +2201,11 @@
       </c>
     </row>
     <row r="22" spans="6:14">
-      <c r="F22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" t="s">
-        <v>57</v>
+      <c r="F22" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -1887,7 +2214,7 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K22" t="s">
         <v>16</v>
@@ -1903,11 +2230,11 @@
       </c>
     </row>
     <row r="23" spans="6:14">
-      <c r="F23" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>278</v>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" t="s">
+        <v>54</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -1915,8 +2242,8 @@
       <c r="I23" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>272</v>
+      <c r="J23" t="s">
+        <v>55</v>
       </c>
       <c r="K23" t="s">
         <v>16</v>
@@ -1932,11 +2259,11 @@
       </c>
     </row>
     <row r="24" spans="6:14">
-      <c r="F24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>60</v>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" t="s">
+        <v>57</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1944,8 +2271,8 @@
       <c r="I24" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>61</v>
+      <c r="J24" t="s">
+        <v>58</v>
       </c>
       <c r="K24" t="s">
         <v>16</v>
@@ -1962,10 +2289,10 @@
     </row>
     <row r="25" spans="6:14">
       <c r="F25" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -1974,7 +2301,7 @@
         <v>14</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="K25" t="s">
         <v>16</v>
@@ -1990,11 +2317,11 @@
       </c>
     </row>
     <row r="26" spans="6:14">
-      <c r="F26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" t="s">
-        <v>63</v>
+      <c r="F26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -2002,8 +2329,8 @@
       <c r="I26" t="s">
         <v>14</v>
       </c>
-      <c r="J26" t="s">
-        <v>64</v>
+      <c r="J26" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="K26" t="s">
         <v>16</v>
@@ -2019,11 +2346,11 @@
       </c>
     </row>
     <row r="27" spans="6:14">
-      <c r="F27" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" t="s">
-        <v>66</v>
+      <c r="F27" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -2031,8 +2358,8 @@
       <c r="I27" t="s">
         <v>14</v>
       </c>
-      <c r="J27" t="s">
-        <v>67</v>
+      <c r="J27" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="K27" t="s">
         <v>16</v>
@@ -2048,11 +2375,11 @@
       </c>
     </row>
     <row r="28" spans="6:14">
-      <c r="F28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" t="s">
-        <v>69</v>
+      <c r="F28" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -2061,7 +2388,7 @@
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="K28" t="s">
         <v>16</v>
@@ -2078,10 +2405,10 @@
     </row>
     <row r="29" spans="6:14">
       <c r="F29" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -2090,7 +2417,7 @@
         <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K29" t="s">
         <v>16</v>
@@ -2107,19 +2434,19 @@
     </row>
     <row r="30" spans="6:14">
       <c r="F30" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G30" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="K30" t="s">
         <v>16</v>
@@ -2136,19 +2463,19 @@
     </row>
     <row r="31" spans="6:14">
       <c r="F31" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
       </c>
       <c r="I31" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="K31" t="s">
         <v>16</v>
@@ -2165,19 +2492,19 @@
     </row>
     <row r="32" spans="6:14">
       <c r="F32" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
       </c>
       <c r="I32" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K32" t="s">
         <v>16</v>
@@ -2194,19 +2521,19 @@
     </row>
     <row r="33" spans="6:14">
       <c r="F33" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G33" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
       </c>
       <c r="I33" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="J33" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K33" t="s">
         <v>16</v>
@@ -2223,19 +2550,19 @@
     </row>
     <row r="34" spans="6:14">
       <c r="F34" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>271</v>
+        <v>77</v>
+      </c>
+      <c r="G34" t="s">
+        <v>78</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
       </c>
       <c r="I34" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="J34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K34" t="s">
         <v>16</v>
@@ -2247,6 +2574,93 @@
         <v>1</v>
       </c>
       <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="6:14">
+      <c r="F35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>75</v>
+      </c>
+      <c r="J35" t="s">
+        <v>82</v>
+      </c>
+      <c r="K35" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="6:14">
+      <c r="F36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" t="s">
+        <v>79</v>
+      </c>
+      <c r="K36" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="6:14">
+      <c r="F37" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" t="s">
+        <v>82</v>
+      </c>
+      <c r="K37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
         <v>0</v>
       </c>
     </row>
@@ -2263,10 +2677,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:P41"/>
+  <dimension ref="D7:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2307,19 +2721,19 @@
         <v>4</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L7" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>269</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>270</v>
       </c>
       <c r="N7" t="s">
         <v>89</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P7" t="s">
         <v>90</v>
@@ -2515,23 +2929,23 @@
       </c>
     </row>
     <row r="14" spans="4:16">
-      <c r="F14" t="s">
-        <v>117</v>
+      <c r="F14" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="G14" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="H14" t="s">
-        <v>119</v>
-      </c>
-      <c r="I14" t="s">
-        <v>29</v>
+        <v>155</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="J14" t="s">
         <v>13</v>
       </c>
-      <c r="K14" t="s">
-        <v>91</v>
+      <c r="K14" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="L14" t="s">
         <v>14</v>
@@ -2540,59 +2954,62 @@
         <v>99</v>
       </c>
       <c r="N14" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="O14">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="4:16" ht="14.4">
-      <c r="F15" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>122</v>
+    <row r="15" spans="4:16">
+      <c r="F15" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G15" t="s">
+        <v>158</v>
       </c>
       <c r="H15" t="s">
-        <v>123</v>
+        <v>159</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
       </c>
-      <c r="K15" t="s">
-        <v>91</v>
+      <c r="K15" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="L15" t="s">
         <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="N15" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="O15">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="4:16">
-      <c r="F16" t="s">
-        <v>125</v>
+      <c r="F16" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="G16" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="H16" t="s">
-        <v>127</v>
-      </c>
-      <c r="I16" t="s">
-        <v>32</v>
+        <v>170</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
       </c>
-      <c r="K16" t="s">
-        <v>121</v>
+      <c r="K16" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="L16" t="s">
         <v>14</v>
@@ -2601,30 +3018,30 @@
         <v>99</v>
       </c>
       <c r="N16" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="O16">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="6:16">
-      <c r="F17" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" t="s">
-        <v>130</v>
-      </c>
-      <c r="H17" t="s">
-        <v>131</v>
-      </c>
-      <c r="I17" t="s">
-        <v>35</v>
+      <c r="F17" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
       </c>
-      <c r="K17" t="s">
-        <v>121</v>
+      <c r="K17" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="L17" t="s">
         <v>14</v>
@@ -2632,31 +3049,31 @@
       <c r="M17" t="s">
         <v>99</v>
       </c>
-      <c r="N17" t="s">
-        <v>132</v>
+      <c r="N17" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="O17">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="6:16">
-      <c r="F18" t="s">
-        <v>133</v>
-      </c>
-      <c r="G18" t="s">
-        <v>134</v>
+      <c r="F18" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="H18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I18" t="s">
-        <v>38</v>
+        <v>162</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="J18" t="s">
         <v>13</v>
       </c>
-      <c r="K18" t="s">
-        <v>121</v>
+      <c r="K18" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="L18" t="s">
         <v>14</v>
@@ -2665,7 +3082,7 @@
         <v>99</v>
       </c>
       <c r="N18" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="O18">
         <v>10</v>
@@ -2673,22 +3090,22 @@
     </row>
     <row r="19" spans="6:16">
       <c r="F19" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="G19" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H19" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="J19" t="s">
         <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="L19" t="s">
         <v>14</v>
@@ -2697,39 +3114,36 @@
         <v>99</v>
       </c>
       <c r="N19" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="O19">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="6:16">
+    <row r="20" spans="6:16" ht="14.4">
       <c r="F20" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" t="s">
-        <v>142</v>
+        <v>121</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="H20" t="s">
-        <v>143</v>
-      </c>
-      <c r="I20" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="J20" t="s">
         <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="L20" t="s">
         <v>14</v>
       </c>
       <c r="M20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N20" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="O20">
         <v>12</v>
@@ -2737,54 +3151,54 @@
     </row>
     <row r="21" spans="6:16">
       <c r="F21" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="H21" t="s">
-        <v>147</v>
+        <v>127</v>
+      </c>
+      <c r="I21" t="s">
+        <v>32</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="L21" t="s">
         <v>14</v>
       </c>
       <c r="M21" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="N21" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="6:16">
       <c r="F22" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="G22" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="H22" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J22" t="s">
         <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="L22" t="s">
         <v>14</v>
@@ -2793,33 +3207,30 @@
         <v>99</v>
       </c>
       <c r="N22" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="6:16">
       <c r="F23" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="G23" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="H23" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s">
         <v>13</v>
       </c>
       <c r="K23" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="L23" t="s">
         <v>14</v>
@@ -2828,33 +3239,30 @@
         <v>99</v>
       </c>
       <c r="N23" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="O23">
-        <v>2</v>
-      </c>
-      <c r="P23" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="6:16">
       <c r="F24" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="G24" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="H24" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s">
         <v>13</v>
       </c>
       <c r="K24" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="L24" t="s">
         <v>14</v>
@@ -2863,33 +3271,30 @@
         <v>99</v>
       </c>
       <c r="N24" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="O24">
-        <v>3</v>
-      </c>
-      <c r="P24" t="s">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="6:16">
-      <c r="F25" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>161</v>
+      <c r="F25" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" t="s">
+        <v>142</v>
       </c>
       <c r="H25" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="I25" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J25" t="s">
         <v>13</v>
       </c>
       <c r="K25" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="L25" t="s">
         <v>14</v>
@@ -2898,59 +3303,56 @@
         <v>99</v>
       </c>
       <c r="N25" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="O25">
-        <v>4</v>
-      </c>
-      <c r="P25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="6:16">
+      <c r="F26" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" t="s">
+        <v>147</v>
+      </c>
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" t="s">
+        <v>94</v>
+      </c>
+      <c r="L26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" t="s">
+        <v>95</v>
+      </c>
+      <c r="N26" t="s">
+        <v>93</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="6:16">
-      <c r="F26" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H26" t="s">
-        <v>162</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="J26" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="L26" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="N26" t="s">
-        <v>163</v>
-      </c>
-      <c r="O26">
-        <v>4</v>
-      </c>
-    </row>
     <row r="27" spans="6:16">
-      <c r="F27" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>59</v>
+      <c r="F27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" t="s">
+        <v>151</v>
+      </c>
+      <c r="I27" t="s">
+        <v>47</v>
       </c>
       <c r="J27" t="s">
         <v>13</v>
@@ -2964,60 +3366,63 @@
       <c r="M27" t="s">
         <v>99</v>
       </c>
-      <c r="N27" s="2" t="s">
-        <v>167</v>
+      <c r="N27" t="s">
+        <v>152</v>
       </c>
       <c r="O27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P27" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="28" spans="6:16">
-      <c r="F28" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>284</v>
+      <c r="F28" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H28" t="s">
+        <v>155</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
       </c>
       <c r="J28" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>280</v>
+      <c r="K28" t="s">
+        <v>145</v>
       </c>
       <c r="L28" t="s">
         <v>14</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>167</v>
+      <c r="M28" t="s">
+        <v>99</v>
+      </c>
+      <c r="N28" t="s">
+        <v>156</v>
       </c>
       <c r="O28">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="P28" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="6:16">
       <c r="F29" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G29" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H29" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="I29" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="J29" t="s">
         <v>13</v>
@@ -3032,24 +3437,27 @@
         <v>99</v>
       </c>
       <c r="N29" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="O29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P29" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="6:16" ht="14.4">
-      <c r="F30" t="s">
-        <v>172</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>122</v>
+    <row r="30" spans="6:16">
+      <c r="F30" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="H30" t="s">
-        <v>173</v>
+        <v>162</v>
+      </c>
+      <c r="I30" t="s">
+        <v>56</v>
       </c>
       <c r="J30" t="s">
         <v>13</v>
@@ -3061,36 +3469,36 @@
         <v>14</v>
       </c>
       <c r="M30" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="N30" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="O30">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P30" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="31" spans="6:16">
-      <c r="F31" t="s">
-        <v>174</v>
-      </c>
-      <c r="G31" t="s">
-        <v>175</v>
-      </c>
-      <c r="H31" t="s">
-        <v>176</v>
-      </c>
-      <c r="I31" t="s">
-        <v>65</v>
+      <c r="F31" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="J31" t="s">
         <v>13</v>
       </c>
       <c r="K31" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="L31" t="s">
         <v>14</v>
@@ -3098,11 +3506,11 @@
       <c r="M31" t="s">
         <v>99</v>
       </c>
-      <c r="N31" t="s">
-        <v>177</v>
+      <c r="N31" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="O31">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P31" t="s">
         <v>148</v>
@@ -3110,22 +3518,22 @@
     </row>
     <row r="32" spans="6:16">
       <c r="F32" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G32" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="H32" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I32" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J32" t="s">
         <v>13</v>
       </c>
       <c r="K32" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="L32" t="s">
         <v>14</v>
@@ -3134,30 +3542,30 @@
         <v>99</v>
       </c>
       <c r="N32" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="O32">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P32" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="6:15">
+    <row r="33" spans="6:16" ht="14.4">
       <c r="F33" t="s">
-        <v>179</v>
-      </c>
-      <c r="G33" t="s">
-        <v>180</v>
+        <v>172</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="H33" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="J33" t="s">
         <v>13</v>
       </c>
       <c r="K33" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="L33" t="s">
         <v>14</v>
@@ -3166,30 +3574,33 @@
         <v>95</v>
       </c>
       <c r="N33" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="O33">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="6:15">
+        <v>7</v>
+      </c>
+      <c r="P33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="6:16">
       <c r="F34" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G34" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="H34" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I34" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J34" t="s">
         <v>13</v>
       </c>
       <c r="K34" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="L34" t="s">
         <v>14</v>
@@ -3198,169 +3609,175 @@
         <v>99</v>
       </c>
       <c r="N34" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="O34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="6:15">
+        <v>8</v>
+      </c>
+      <c r="P34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="6:16">
       <c r="F35" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G35" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="H35" t="s">
-        <v>189</v>
+        <v>173</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
       </c>
       <c r="J35" t="s">
         <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="L35" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="M35" t="s">
+        <v>99</v>
+      </c>
+      <c r="N35" t="s">
+        <v>132</v>
+      </c>
+      <c r="O35">
+        <v>9</v>
+      </c>
+      <c r="P35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="6:16">
+      <c r="F36" t="s">
+        <v>179</v>
+      </c>
+      <c r="G36" t="s">
+        <v>180</v>
+      </c>
+      <c r="H36" t="s">
+        <v>181</v>
+      </c>
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s">
+        <v>94</v>
+      </c>
+      <c r="L36" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" t="s">
         <v>95</v>
       </c>
-      <c r="N35" t="s">
-        <v>191</v>
-      </c>
-      <c r="O35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="6:15">
-      <c r="F36" t="s">
-        <v>192</v>
-      </c>
-      <c r="G36" t="s">
-        <v>193</v>
-      </c>
-      <c r="H36" t="s">
-        <v>194</v>
-      </c>
-      <c r="I36" t="s">
-        <v>73</v>
-      </c>
-      <c r="J36" t="s">
-        <v>13</v>
-      </c>
-      <c r="K36" t="s">
-        <v>187</v>
-      </c>
-      <c r="L36" t="s">
-        <v>75</v>
-      </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
+        <v>182</v>
+      </c>
+      <c r="O36">
         <v>99</v>
       </c>
-      <c r="N36" t="s">
-        <v>195</v>
-      </c>
-      <c r="O36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="6:15">
+    </row>
+    <row r="37" spans="6:16">
       <c r="F37" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="G37" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="H37" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="I37" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J37" t="s">
         <v>13</v>
       </c>
       <c r="K37" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="L37" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="M37" t="s">
         <v>99</v>
       </c>
       <c r="N37" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="O37">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="6:15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="6:16">
       <c r="F38" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="G38" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="H38" t="s">
-        <v>202</v>
-      </c>
-      <c r="I38" t="s">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="J38" t="s">
         <v>13</v>
       </c>
       <c r="K38" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L38" t="s">
         <v>75</v>
       </c>
       <c r="M38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N38" t="s">
+        <v>191</v>
+      </c>
+      <c r="O38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="6:16">
+      <c r="F39" t="s">
+        <v>192</v>
+      </c>
+      <c r="G39" t="s">
+        <v>193</v>
+      </c>
+      <c r="H39" t="s">
+        <v>194</v>
+      </c>
+      <c r="I39" t="s">
+        <v>73</v>
+      </c>
+      <c r="J39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" t="s">
+        <v>187</v>
+      </c>
+      <c r="L39" t="s">
+        <v>75</v>
+      </c>
+      <c r="M39" t="s">
         <v>99</v>
       </c>
-      <c r="N38" t="s">
-        <v>203</v>
-      </c>
-      <c r="O38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="6:15">
-      <c r="F39" t="s">
-        <v>204</v>
-      </c>
-      <c r="G39" t="s">
-        <v>130</v>
-      </c>
-      <c r="H39" t="s">
-        <v>205</v>
-      </c>
-      <c r="J39" t="s">
-        <v>13</v>
-      </c>
-      <c r="K39" t="s">
-        <v>94</v>
-      </c>
-      <c r="L39" t="s">
-        <v>14</v>
-      </c>
-      <c r="M39" t="s">
-        <v>95</v>
-      </c>
       <c r="N39" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="O39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="6:15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="6:16">
       <c r="F40" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G40" t="s">
         <v>197</v>
@@ -3369,16 +3786,16 @@
         <v>198</v>
       </c>
       <c r="I40" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s">
         <v>13</v>
       </c>
       <c r="K40" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="L40" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="M40" t="s">
         <v>99</v>
@@ -3387,12 +3804,12 @@
         <v>199</v>
       </c>
       <c r="O40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="6:15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="6:16">
       <c r="F41" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G41" t="s">
         <v>201</v>
@@ -3401,16 +3818,16 @@
         <v>202</v>
       </c>
       <c r="I41" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s">
         <v>13</v>
       </c>
       <c r="K41" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="L41" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="M41" t="s">
         <v>99</v>
@@ -3419,6 +3836,99 @@
         <v>203</v>
       </c>
       <c r="O41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="6:16">
+      <c r="F42" t="s">
+        <v>204</v>
+      </c>
+      <c r="G42" t="s">
+        <v>130</v>
+      </c>
+      <c r="H42" t="s">
+        <v>205</v>
+      </c>
+      <c r="J42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" t="s">
+        <v>94</v>
+      </c>
+      <c r="L42" t="s">
+        <v>14</v>
+      </c>
+      <c r="M42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N42" t="s">
+        <v>191</v>
+      </c>
+      <c r="O42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="6:16">
+      <c r="F43" t="s">
+        <v>206</v>
+      </c>
+      <c r="G43" t="s">
+        <v>197</v>
+      </c>
+      <c r="H43" t="s">
+        <v>198</v>
+      </c>
+      <c r="I43" t="s">
+        <v>83</v>
+      </c>
+      <c r="J43" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" t="s">
+        <v>204</v>
+      </c>
+      <c r="L43" t="s">
+        <v>14</v>
+      </c>
+      <c r="M43" t="s">
+        <v>99</v>
+      </c>
+      <c r="N43" t="s">
+        <v>199</v>
+      </c>
+      <c r="O43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="6:16">
+      <c r="F44" t="s">
+        <v>207</v>
+      </c>
+      <c r="G44" t="s">
+        <v>201</v>
+      </c>
+      <c r="H44" t="s">
+        <v>202</v>
+      </c>
+      <c r="I44" t="s">
+        <v>84</v>
+      </c>
+      <c r="J44" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" t="s">
+        <v>204</v>
+      </c>
+      <c r="L44" t="s">
+        <v>14</v>
+      </c>
+      <c r="M44" t="s">
+        <v>99</v>
+      </c>
+      <c r="N44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O44">
         <v>6</v>
       </c>
     </row>
@@ -3435,10 +3945,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:G36"/>
+  <dimension ref="D7:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3571,131 +4081,155 @@
       </c>
     </row>
     <row r="21" spans="6:7">
-      <c r="F21" t="s">
-        <v>153</v>
-      </c>
-      <c r="G21" t="s">
-        <v>224</v>
+      <c r="F21" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G22" t="s">
-        <v>225</v>
+        <v>153</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" s="2" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="6:7">
-      <c r="F24" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>283</v>
+      <c r="F24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>227</v>
+        <v>274</v>
+      </c>
+      <c r="G25" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="6:7">
-      <c r="F27" t="s">
-        <v>168</v>
-      </c>
-      <c r="G27" t="s">
-        <v>228</v>
+      <c r="F27" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="6:7">
-      <c r="F28" t="s">
-        <v>174</v>
-      </c>
-      <c r="G28" t="s">
-        <v>229</v>
+      <c r="F28" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="6:7">
-      <c r="F29" t="s">
-        <v>178</v>
+      <c r="F29" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="G29" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="G30" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="G31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G32" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="G33" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G34" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="G35" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
+        <v>196</v>
+      </c>
+      <c r="G36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7">
+      <c r="F37" t="s">
+        <v>200</v>
+      </c>
+      <c r="G37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7">
+      <c r="F38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G38" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7">
+      <c r="F39" t="s">
         <v>207</v>
       </c>
-      <c r="G36" t="s">
-        <v>235</v>
+      <c r="G39" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3736,7 +4270,7 @@
   <sheetData>
     <row r="7" spans="4:18">
       <c r="D7" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>1</v>
@@ -3745,7 +4279,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>86</v>
@@ -3754,13 +4288,13 @@
         <v>87</v>
       </c>
       <c r="J7" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>6</v>
@@ -3769,48 +4303,48 @@
         <v>89</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P7" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="R7" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="8" spans="4:18">
       <c r="E8" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="I8" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="O8" s="6">
         <v>1</v>
@@ -3824,34 +4358,34 @@
     </row>
     <row r="9" spans="4:18">
       <c r="E9" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="H9" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="I9" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="O9" s="6">
         <v>2</v>
@@ -3865,31 +4399,31 @@
     </row>
     <row r="10" spans="4:18">
       <c r="E10" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="H10" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="I10" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="K10" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>251</v>
-      </c>
       <c r="M10" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>95</v>
@@ -3906,34 +4440,34 @@
     </row>
     <row r="11" spans="4:18">
       <c r="E11" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="H11" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="I11" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="O11" s="6">
         <v>4</v>
@@ -3947,34 +4481,34 @@
     </row>
     <row r="12" spans="4:18">
       <c r="E12" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="O12" s="6">
         <v>5</v>
@@ -3988,34 +4522,34 @@
     </row>
     <row r="13" spans="4:18">
       <c r="E13" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="N13" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="O13" s="6">
         <v>6</v>
@@ -4027,15 +4561,15 @@
         <v>1</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="4:18">
       <c r="E14" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>102</v>
@@ -4044,16 +4578,16 @@
         <v>102</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>102</v>
       </c>
       <c r="K14" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>102</v>
@@ -4071,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\agile-service\src\main\resources\script\front\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/agile-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="18984" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,20 @@
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
     <sheet name="IAM_DASHBOARD" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="308">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -205,7 +213,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>choerodon.route.program.</t>
     </r>
@@ -213,7 +221,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>board</t>
     </r>
@@ -535,7 +543,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>choerodon.code.program.</t>
     </r>
@@ -543,7 +551,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>board</t>
     </r>
@@ -736,7 +744,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>agile-service.</t>
     </r>
@@ -744,7 +752,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>board-feature</t>
     </r>
@@ -752,7 +760,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>.</t>
     </r>
@@ -760,7 +768,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>queryBoardInfo</t>
     </r>
@@ -922,7 +930,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>agile</t>
     </r>
@@ -948,7 +956,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>agile</t>
     </r>
@@ -966,7 +974,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>project-invoke-program</t>
     </r>
@@ -974,7 +982,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>.queryRoadMapOfProgram</t>
     </r>
@@ -1012,7 +1020,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>agile</t>
     </r>
@@ -1034,7 +1042,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>agile</t>
     </r>
@@ -1056,7 +1064,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>agile</t>
     </r>
@@ -1082,7 +1090,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>agile</t>
     </r>
@@ -1104,7 +1112,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>agile</t>
     </r>
@@ -1126,7 +1134,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>agile</t>
     </r>
@@ -1148,7 +1156,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>agile</t>
     </r>
@@ -1162,7 +1170,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>agile</t>
     </r>
@@ -1176,7 +1184,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>agile</t>
     </r>
@@ -1190,7 +1198,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>agile</t>
     </r>
@@ -1212,7 +1220,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>agile</t>
     </r>
@@ -1234,7 +1242,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>_project</t>
     </r>
@@ -1248,7 +1256,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>_project</t>
     </r>
@@ -1262,7 +1270,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>agile</t>
     </r>
@@ -1284,7 +1292,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>_project</t>
     </r>
@@ -1298,7 +1306,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>agile</t>
     </r>
@@ -1320,7 +1328,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>agile</t>
     </r>
@@ -1342,7 +1350,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>agile</t>
     </r>
@@ -1364,12 +1372,16 @@
     <t>agile-service.project-invoke-program.queryByOptionsInProgram</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>路线图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1424,7 +1436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1433,6 +1445,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1741,25 +1754,25 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="57.33203125" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="57.3984375" customWidth="1"/>
+    <col min="7" max="7" width="23.59765625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" customWidth="1"/>
+    <col min="10" max="10" width="14.19921875" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.21875" customWidth="1"/>
-    <col min="13" max="13" width="18.5546875" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" customWidth="1"/>
+    <col min="13" max="13" width="18.59765625" customWidth="1"/>
+    <col min="14" max="14" width="19.3984375" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.5546875" customWidth="1"/>
+    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" ht="12.75" customHeight="1">
+    <row r="7" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1794,7 +1807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:14" ht="12.75" customHeight="1">
+    <row r="8" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1823,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:14">
+    <row r="9" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -1852,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:14">
+    <row r="10" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -1881,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:14">
+    <row r="11" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -1910,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:14">
+    <row r="12" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>26</v>
       </c>
@@ -1939,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:14">
+    <row r="13" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>29</v>
       </c>
@@ -1968,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:14">
+    <row r="14" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>32</v>
       </c>
@@ -1997,7 +2010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:14">
+    <row r="15" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F15" t="s">
         <v>35</v>
       </c>
@@ -2026,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:14">
+    <row r="16" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
         <v>38</v>
       </c>
@@ -2055,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:14">
+    <row r="17" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F17" t="s">
         <v>41</v>
       </c>
@@ -2084,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:14">
+    <row r="18" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F18" t="s">
         <v>44</v>
       </c>
@@ -2113,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:14">
+    <row r="19" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
         <v>47</v>
       </c>
@@ -2142,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:14">
+    <row r="20" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F20" s="2" t="s">
         <v>297</v>
       </c>
@@ -2171,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="6:14">
+    <row r="21" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F21" t="s">
         <v>50</v>
       </c>
@@ -2200,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:14">
+    <row r="22" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F22" s="2" t="s">
         <v>296</v>
       </c>
@@ -2229,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="6:14">
+    <row r="23" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F23" t="s">
         <v>53</v>
       </c>
@@ -2258,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:14">
+    <row r="24" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F24" t="s">
         <v>56</v>
       </c>
@@ -2287,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="6:14">
+    <row r="25" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F25" s="2" t="s">
         <v>283</v>
       </c>
@@ -2316,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="6:14">
+    <row r="26" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F26" s="2" t="s">
         <v>59</v>
       </c>
@@ -2345,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="6:14">
+    <row r="27" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F27" s="2" t="s">
         <v>282</v>
       </c>
@@ -2374,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="6:14">
+    <row r="28" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F28" s="2" t="s">
         <v>300</v>
       </c>
@@ -2403,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="6:14">
+    <row r="29" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F29" t="s">
         <v>62</v>
       </c>
@@ -2432,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="6:14">
+    <row r="30" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F30" t="s">
         <v>65</v>
       </c>
@@ -2461,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="6:14">
+    <row r="31" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F31" t="s">
         <v>68</v>
       </c>
@@ -2490,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="6:14">
+    <row r="32" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F32" t="s">
         <v>70</v>
       </c>
@@ -2519,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:14">
+    <row r="33" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F33" t="s">
         <v>73</v>
       </c>
@@ -2548,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="6:14">
+    <row r="34" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F34" t="s">
         <v>77</v>
       </c>
@@ -2577,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:14">
+    <row r="35" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F35" t="s">
         <v>80</v>
       </c>
@@ -2606,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="6:14">
+    <row r="36" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F36" t="s">
         <v>83</v>
       </c>
@@ -2635,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="6:14">
+    <row r="37" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F37" t="s">
         <v>84</v>
       </c>
@@ -2679,26 +2692,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="42.21875" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="42.19921875" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="35.77734375" customWidth="1"/>
-    <col min="9" max="9" width="49.77734375" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="35.796875" customWidth="1"/>
+    <col min="9" max="9" width="49.796875" customWidth="1"/>
+    <col min="10" max="10" width="18.59765625" customWidth="1"/>
     <col min="11" max="11" width="41" customWidth="1"/>
-    <col min="12" max="12" width="19.21875" customWidth="1"/>
-    <col min="13" max="1025" width="11.5546875" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" customWidth="1"/>
+    <col min="13" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:16" ht="12.75" customHeight="1">
+    <row r="7" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>85</v>
       </c>
@@ -2739,7 +2752,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="4:16" ht="12.75" customHeight="1">
+    <row r="8" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>91</v>
       </c>
@@ -2768,7 +2781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:16">
+    <row r="9" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>96</v>
       </c>
@@ -2800,7 +2813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:16">
+    <row r="10" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>101</v>
       </c>
@@ -2832,7 +2845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="4:16">
+    <row r="11" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>105</v>
       </c>
@@ -2864,7 +2877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="4:16">
+    <row r="12" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>109</v>
       </c>
@@ -2896,7 +2909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="4:16">
+    <row r="13" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>113</v>
       </c>
@@ -2928,7 +2941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="4:16">
+    <row r="14" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F14" s="2" t="s">
         <v>286</v>
       </c>
@@ -2960,7 +2973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="4:16">
+    <row r="15" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F15" s="2" t="s">
         <v>287</v>
       </c>
@@ -2992,7 +3005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="4:16">
+    <row r="16" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F16" s="2" t="s">
         <v>288</v>
       </c>
@@ -3024,7 +3037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="6:16">
+    <row r="17" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F17" s="2" t="s">
         <v>289</v>
       </c>
@@ -3056,12 +3069,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="6:16">
+    <row r="18" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F18" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>161</v>
+      <c r="G18" s="8" t="s">
+        <v>307</v>
       </c>
       <c r="H18" t="s">
         <v>162</v>
@@ -3088,7 +3101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="6:16">
+    <row r="19" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
         <v>117</v>
       </c>
@@ -3120,7 +3133,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="6:16" ht="14.4">
+    <row r="20" spans="6:16" ht="14" x14ac:dyDescent="0.15">
       <c r="F20" t="s">
         <v>121</v>
       </c>
@@ -3149,7 +3162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="6:16">
+    <row r="21" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F21" t="s">
         <v>125</v>
       </c>
@@ -3181,7 +3194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="6:16">
+    <row r="22" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
         <v>129</v>
       </c>
@@ -3213,7 +3226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="6:16">
+    <row r="23" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F23" t="s">
         <v>133</v>
       </c>
@@ -3245,7 +3258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="6:16">
+    <row r="24" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F24" t="s">
         <v>137</v>
       </c>
@@ -3277,7 +3290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="6:16">
+    <row r="25" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F25" t="s">
         <v>141</v>
       </c>
@@ -3309,7 +3322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="6:16">
+    <row r="26" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F26" t="s">
         <v>145</v>
       </c>
@@ -3341,7 +3354,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="6:16">
+    <row r="27" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F27" t="s">
         <v>149</v>
       </c>
@@ -3376,7 +3389,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="6:16">
+    <row r="28" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F28" t="s">
         <v>153</v>
       </c>
@@ -3411,7 +3424,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="6:16">
+    <row r="29" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F29" t="s">
         <v>157</v>
       </c>
@@ -3446,7 +3459,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="6:16">
+    <row r="30" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F30" s="2" t="s">
         <v>272</v>
       </c>
@@ -3481,7 +3494,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="6:16">
+    <row r="31" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F31" s="2" t="s">
         <v>164</v>
       </c>
@@ -3516,7 +3529,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="6:16">
+    <row r="32" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F32" t="s">
         <v>168</v>
       </c>
@@ -3551,7 +3564,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="6:16" ht="14.4">
+    <row r="33" spans="6:16" ht="14" x14ac:dyDescent="0.15">
       <c r="F33" t="s">
         <v>172</v>
       </c>
@@ -3583,7 +3596,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="6:16">
+    <row r="34" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F34" t="s">
         <v>174</v>
       </c>
@@ -3618,7 +3631,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="6:16">
+    <row r="35" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F35" t="s">
         <v>178</v>
       </c>
@@ -3653,7 +3666,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="6:16">
+    <row r="36" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F36" t="s">
         <v>179</v>
       </c>
@@ -3682,7 +3695,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="6:16">
+    <row r="37" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F37" t="s">
         <v>183</v>
       </c>
@@ -3714,7 +3727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="6:16">
+    <row r="38" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F38" t="s">
         <v>187</v>
       </c>
@@ -3743,7 +3756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="6:16">
+    <row r="39" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F39" t="s">
         <v>192</v>
       </c>
@@ -3775,7 +3788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="6:16">
+    <row r="40" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F40" t="s">
         <v>196</v>
       </c>
@@ -3807,7 +3820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="6:16">
+    <row r="41" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F41" t="s">
         <v>200</v>
       </c>
@@ -3839,7 +3852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="6:16">
+    <row r="42" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F42" t="s">
         <v>204</v>
       </c>
@@ -3868,7 +3881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="6:16">
+    <row r="43" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F43" t="s">
         <v>206</v>
       </c>
@@ -3900,7 +3913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="6:16">
+    <row r="44" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F44" t="s">
         <v>207</v>
       </c>
@@ -3947,22 +3960,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="37.77734375" customWidth="1"/>
-    <col min="7" max="7" width="58.44140625" customWidth="1"/>
-    <col min="8" max="8" width="31.21875" customWidth="1"/>
-    <col min="9" max="1025" width="11.5546875" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="37.796875" customWidth="1"/>
+    <col min="7" max="7" width="58.3984375" customWidth="1"/>
+    <col min="8" max="8" width="31.19921875" customWidth="1"/>
+    <col min="9" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="12.75" customHeight="1">
+    <row r="7" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>208</v>
       </c>
@@ -3976,7 +3989,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="4:7" ht="12.75" customHeight="1">
+    <row r="8" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
         <v>96</v>
       </c>
@@ -3984,7 +3997,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="4:7">
+    <row r="9" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>101</v>
       </c>
@@ -3992,7 +4005,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="4:7">
+    <row r="10" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>101</v>
       </c>
@@ -4000,7 +4013,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="4:7">
+    <row r="11" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>105</v>
       </c>
@@ -4008,7 +4021,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="4:7">
+    <row r="12" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>109</v>
       </c>
@@ -4016,7 +4029,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="4:7">
+    <row r="13" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>113</v>
       </c>
@@ -4024,7 +4037,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="4:7">
+    <row r="14" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>117</v>
       </c>
@@ -4032,7 +4045,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="4:7">
+    <row r="15" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F15" t="s">
         <v>125</v>
       </c>
@@ -4040,7 +4053,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="4:7">
+    <row r="16" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
         <v>129</v>
       </c>
@@ -4048,7 +4061,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="6:7">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F17" t="s">
         <v>133</v>
       </c>
@@ -4056,7 +4069,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="6:7">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F18" t="s">
         <v>137</v>
       </c>
@@ -4064,7 +4077,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="6:7">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
         <v>141</v>
       </c>
@@ -4072,7 +4085,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="6:7">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F20" t="s">
         <v>149</v>
       </c>
@@ -4080,7 +4093,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="6:7">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F21" s="2" t="s">
         <v>304</v>
       </c>
@@ -4088,7 +4101,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="6:7">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
         <v>153</v>
       </c>
@@ -4096,7 +4109,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="23" spans="6:7">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F23" s="2" t="s">
         <v>303</v>
       </c>
@@ -4104,7 +4117,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="6:7">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F24" t="s">
         <v>157</v>
       </c>
@@ -4112,7 +4125,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="6:7">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F25" s="2" t="s">
         <v>274</v>
       </c>
@@ -4120,7 +4133,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="6:7">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F26" s="2" t="s">
         <v>285</v>
       </c>
@@ -4128,7 +4141,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="27" spans="6:7">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F27" s="2" t="s">
         <v>164</v>
       </c>
@@ -4136,7 +4149,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="6:7">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F28" s="2" t="s">
         <v>284</v>
       </c>
@@ -4144,7 +4157,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="6:7">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F29" s="2" t="s">
         <v>302</v>
       </c>
@@ -4152,7 +4165,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="6:7">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F30" t="s">
         <v>168</v>
       </c>
@@ -4160,7 +4173,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="6:7">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F31" t="s">
         <v>174</v>
       </c>
@@ -4168,7 +4181,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="6:7">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F32" t="s">
         <v>178</v>
       </c>
@@ -4176,7 +4189,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="6:7">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F33" t="s">
         <v>183</v>
       </c>
@@ -4184,7 +4197,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="34" spans="6:7">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F34" t="s">
         <v>192</v>
       </c>
@@ -4192,7 +4205,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="6:7">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F35" t="s">
         <v>192</v>
       </c>
@@ -4200,7 +4213,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="6:7">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F36" t="s">
         <v>196</v>
       </c>
@@ -4208,7 +4221,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="6:7">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F37" t="s">
         <v>200</v>
       </c>
@@ -4216,7 +4229,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="6:7">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F38" t="s">
         <v>206</v>
       </c>
@@ -4224,7 +4237,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="6:7">
+    <row r="39" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F39" t="s">
         <v>207</v>
       </c>
@@ -4251,24 +4264,24 @@
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="23.77734375" style="6" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="23.3984375" style="6" customWidth="1"/>
+    <col min="7" max="8" width="23.796875" style="6" customWidth="1"/>
     <col min="9" max="10" width="24" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="28.5546875" style="6" customWidth="1"/>
-    <col min="14" max="17" width="11.5546875" style="6" customWidth="1"/>
-    <col min="18" max="18" width="46.44140625" style="6" customWidth="1"/>
-    <col min="19" max="1025" width="11.5546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.3984375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="11.59765625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="28.59765625" style="6" customWidth="1"/>
+    <col min="14" max="17" width="11.59765625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="46.3984375" style="6" customWidth="1"/>
+    <col min="19" max="1025" width="11.59765625" style="6" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:18">
+    <row r="7" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D7" s="6" t="s">
         <v>238</v>
       </c>
@@ -4315,7 +4328,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="4:18">
+    <row r="8" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E8" s="6" t="s">
         <v>246</v>
       </c>
@@ -4356,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:18">
+    <row r="9" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E9" s="6" t="s">
         <v>251</v>
       </c>
@@ -4397,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:18">
+    <row r="10" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E10" s="6" t="s">
         <v>254</v>
       </c>
@@ -4438,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:18">
+    <row r="11" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E11" s="6" t="s">
         <v>256</v>
       </c>
@@ -4479,7 +4492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:18">
+    <row r="12" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E12" s="6" t="s">
         <v>259</v>
       </c>
@@ -4520,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:18">
+    <row r="13" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E13" s="6" t="s">
         <v>262</v>
       </c>
@@ -4564,7 +4577,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="4:18">
+    <row r="14" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E14" s="6" t="s">
         <v>266</v>
       </c>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="32340" windowHeight="18984" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="32340" windowHeight="18984" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
-    <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
-    <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
-    <sheet name="IAM_DASHBOARD" sheetId="4" r:id="rId4"/>
+    <sheet name="FD_CATEGORY_MENU " sheetId="5" r:id="rId2"/>
+    <sheet name="IAM_MENU_B" sheetId="2" r:id="rId3"/>
+    <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId4"/>
+    <sheet name="IAM_DASHBOARD" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="272">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -1186,12 +1187,33 @@
     <t>路线图</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">FD_CATEGORY_MENU </t>
+  </si>
+  <si>
+    <t>#RESOURCE_LEVEL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#CATEGORY_CODE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGILE</t>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1225,6 +1247,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF494949"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1246,7 +1274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1256,6 +1284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1560,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="C24" sqref="A24:XFD26"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I25:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2120,8 +2149,8 @@
       <c r="H25" t="s">
         <v>13</v>
       </c>
-      <c r="I25" t="s">
-        <v>56</v>
+      <c r="I25" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="J25" t="s">
         <v>57</v>
@@ -2268,10 +2297,306 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" customWidth="1"/>
+    <col min="7" max="7" width="51.33203125" customWidth="1"/>
+    <col min="8" max="8" width="58.44140625" customWidth="1"/>
+    <col min="9" max="9" width="31.21875" customWidth="1"/>
+    <col min="10" max="1026" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:8" ht="12.75" customHeight="1">
+      <c r="D7" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" ht="12.75" customHeight="1">
+      <c r="F8" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" ht="12.6">
+      <c r="F9" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" ht="12.6">
+      <c r="F10" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" ht="12.6">
+      <c r="F11" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" ht="12.6">
+      <c r="F12" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" ht="12.6">
+      <c r="F13" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" ht="12.6">
+      <c r="F14" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" ht="12.6">
+      <c r="F15" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" ht="12.6">
+      <c r="F16" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" ht="12.6">
+      <c r="F17" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" ht="12.6">
+      <c r="F18" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" ht="12.6">
+      <c r="F19" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" ht="12.6">
+      <c r="F20" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" ht="12.6">
+      <c r="F21" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8" ht="12.6">
+      <c r="F22" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8" ht="12.6">
+      <c r="F23" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8" ht="12.6">
+      <c r="F24" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8" ht="12.6">
+      <c r="F25" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G25" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8" ht="12.6">
+      <c r="F26" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="G26" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8" ht="12.6">
+      <c r="F27" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="G27" t="s">
+        <v>161</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8" ht="12.6">
+      <c r="F28" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="G28" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="6:8" ht="12.6">
+      <c r="F29" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G29" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="6:8" ht="12.6">
+      <c r="F30" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G30" t="s">
+        <v>172</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="C27" sqref="A27:XFD28"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2279,7 +2604,7 @@
     <col min="1" max="3" width="11.5546875" customWidth="1"/>
     <col min="4" max="4" width="15.21875" customWidth="1"/>
     <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="42.21875" customWidth="1"/>
+    <col min="6" max="6" width="64.44140625" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="35.77734375" customWidth="1"/>
     <col min="9" max="9" width="49.77734375" customWidth="1"/>
@@ -3222,12 +3547,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3235,7 +3560,7 @@
     <col min="1" max="3" width="11.5546875" customWidth="1"/>
     <col min="4" max="4" width="23.77734375" customWidth="1"/>
     <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="37.77734375" customWidth="1"/>
+    <col min="6" max="6" width="59.88671875" customWidth="1"/>
     <col min="7" max="7" width="58.44140625" customWidth="1"/>
     <col min="8" max="8" width="31.21875" customWidth="1"/>
     <col min="9" max="1025" width="11.5546875" customWidth="1"/>
@@ -3458,7 +3783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:R14"/>
   <sheetViews>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="32340" windowHeight="18984" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="32340" windowHeight="18984" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
-    <sheet name="FD_CATEGORY_MENU " sheetId="5" r:id="rId2"/>
+    <sheet name="FD_CATEGORY_MENU" sheetId="5" r:id="rId2"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId3"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId4"/>
     <sheet name="IAM_DASHBOARD" sheetId="4" r:id="rId5"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="218">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -174,18 +174,6 @@
     <t>问题链接路由</t>
   </si>
   <si>
-    <t>项目群看板路由</t>
-  </si>
-  <si>
-    <t>ART日历路由</t>
-  </si>
-  <si>
-    <t>公告板路由</t>
-  </si>
-  <si>
-    <t>PI目标路由</t>
-  </si>
-  <si>
     <t>choerodon.route.platform-reports.reportboard</t>
   </si>
   <si>
@@ -417,48 +405,6 @@
     <t>PROGRAM</t>
   </si>
   <si>
-    <t>项目群看板</t>
-  </si>
-  <si>
-    <t>Program Kanban</t>
-  </si>
-  <si>
-    <t>table_chart</t>
-  </si>
-  <si>
-    <t>ART日历</t>
-  </si>
-  <si>
-    <t>ART Calendar</t>
-  </si>
-  <si>
-    <t>insert_invitation</t>
-  </si>
-  <si>
-    <t>Road Map</t>
-  </si>
-  <si>
-    <t>view_week</t>
-  </si>
-  <si>
-    <t>项目群公告板</t>
-  </si>
-  <si>
-    <t>Program Board</t>
-  </si>
-  <si>
-    <t>low_priority</t>
-  </si>
-  <si>
-    <t>PI目标</t>
-  </si>
-  <si>
-    <t>PI Objective</t>
-  </si>
-  <si>
-    <t>center_focus_strong</t>
-  </si>
-  <si>
     <t>choerodon.code.agile-program.setting</t>
   </si>
   <si>
@@ -595,12 +541,6 @@
   </si>
   <si>
     <t>agile-service.issue-link-type.updateIssueLinkType</t>
-  </si>
-  <si>
-    <t>agile-service.art.queryArtCalendar</t>
-  </si>
-  <si>
-    <t>agile-service.pi-objective.queryPiObjectiveList</t>
   </si>
   <si>
     <t>agile-service.time-zone-work-calendar.queryTimeZoneWorkCalendar</t>
@@ -735,456 +675,6 @@
   </si>
   <si>
     <t>/agile/page</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目层线路图路由</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>choerodon.code.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>agile</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/agile/roadMap_project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/agile/board_project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>choerodon.code.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>agile</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>agile-service.project-invoke-program.queryBoardInfo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>agile-service.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>project-invoke-program</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.queryRoadMapOfProgram</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.agile.board</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.agile.roadMap</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.agile.board</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.agile.roadMap</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.agile.board</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.agile.roadMap</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>choerodon.code.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>agile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.programKanban</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>choerodon.code.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>agile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.artCalendar</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>choerodon.code.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>agile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.pi</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.agile.board</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>choerodon.route.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>agile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.programKanban</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>choerodon.route.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>agile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.artCalendar</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>choerodon.route.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>agile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.pi</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>choerodon.code.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>agile</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>choerodon.code.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>agile</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>choerodon.code.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>agile</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>choerodon.route.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>agile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.artCalendar</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>choerodon.route.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>agile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.programKanban</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/agile/kanban</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_project</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/agile/artCalendar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_project</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>choerodon.route.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>agile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.pi</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/agile/pi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_project</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>choerodon.code.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>agile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.pi</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>choerodon.code.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>agile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.artCalendar</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>choerodon.code.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>agile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.programKanban</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>agile-service.project-invoke-program.queryByOptionsInProgram</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>路线图</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1274,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1283,7 +773,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1587,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:N29"/>
+  <dimension ref="D7:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I25:I27"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="C19" sqref="A19:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1966,11 +1455,11 @@
       </c>
     </row>
     <row r="19" spans="6:14">
-      <c r="F19" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>257</v>
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -1979,7 +1468,7 @@
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s">
         <v>16</v>
@@ -1995,20 +1484,20 @@
       </c>
     </row>
     <row r="20" spans="6:14">
-      <c r="F20" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>258</v>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s">
+        <v>51</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
       </c>
-      <c r="I20" t="s">
-        <v>14</v>
+      <c r="I20" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s">
         <v>16</v>
@@ -2024,20 +1513,20 @@
       </c>
     </row>
     <row r="21" spans="6:14">
-      <c r="F21" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>234</v>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>232</v>
+        <v>52</v>
+      </c>
+      <c r="J21" t="s">
+        <v>56</v>
       </c>
       <c r="K21" t="s">
         <v>16</v>
@@ -2053,20 +1542,20 @@
       </c>
     </row>
     <row r="22" spans="6:14">
-      <c r="F22" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>235</v>
+      <c r="F22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="J22" t="s">
+        <v>59</v>
       </c>
       <c r="K22" t="s">
         <v>16</v>
@@ -2082,11 +1571,11 @@
       </c>
     </row>
     <row r="23" spans="6:14">
-      <c r="F23" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>260</v>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" t="s">
+        <v>55</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -2095,7 +1584,7 @@
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K23" t="s">
         <v>16</v>
@@ -2112,10 +1601,10 @@
     </row>
     <row r="24" spans="6:14">
       <c r="F24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -2124,7 +1613,7 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K24" t="s">
         <v>16</v>
@@ -2136,151 +1625,6 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="6:14">
-      <c r="F25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J25" t="s">
-        <v>57</v>
-      </c>
-      <c r="K25" t="s">
-        <v>16</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="6:14">
-      <c r="F26" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" t="s">
-        <v>59</v>
-      </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26" t="s">
-        <v>60</v>
-      </c>
-      <c r="K26" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="6:14">
-      <c r="F27" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" t="s">
-        <v>56</v>
-      </c>
-      <c r="J27" t="s">
-        <v>63</v>
-      </c>
-      <c r="K27" t="s">
-        <v>16</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="6:14">
-      <c r="F28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" t="s">
-        <v>59</v>
-      </c>
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" t="s">
-        <v>60</v>
-      </c>
-      <c r="K28" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="6:14">
-      <c r="F29" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" t="s">
-        <v>63</v>
-      </c>
-      <c r="K29" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29">
         <v>0</v>
       </c>
     </row>
@@ -2297,10 +1641,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:H30"/>
+  <dimension ref="D7:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2316,272 +1660,217 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:8" ht="12.75" customHeight="1">
-      <c r="D7" s="9" t="s">
-        <v>266</v>
+      <c r="D7" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="4:8" ht="12.75" customHeight="1">
-      <c r="F8" s="9" t="s">
-        <v>269</v>
+      <c r="F8" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="4:8" ht="12.6">
-      <c r="F9" s="9" t="s">
-        <v>269</v>
+      <c r="F9" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="G9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" ht="12.6">
+      <c r="F10" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" ht="12.6">
+      <c r="F11" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G11" t="s">
         <v>82</v>
       </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" ht="12.6">
-      <c r="F10" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G10" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8" ht="12.6">
-      <c r="F11" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" ht="12.6">
+      <c r="F12" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G12" t="s">
         <v>86</v>
       </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8" ht="12.6">
-      <c r="F12" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" ht="12.6">
+      <c r="F13" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" t="s">
         <v>90</v>
       </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8" ht="12.6">
-      <c r="F13" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" ht="12.6">
+      <c r="F14" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G14" t="s">
         <v>94</v>
       </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8" ht="12.6">
-      <c r="F14" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G14" t="s">
-        <v>98</v>
-      </c>
       <c r="H14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="4:8" ht="12.6">
-      <c r="F15" s="9" t="s">
-        <v>269</v>
+      <c r="F15" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="G15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" ht="12.6">
+      <c r="F16" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" t="s">
         <v>106</v>
       </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8" ht="12.6">
-      <c r="F16" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" ht="12.6">
+      <c r="F17" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G17" t="s">
         <v>110</v>
       </c>
-      <c r="H16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" ht="12.6">
-      <c r="F17" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" ht="12.6">
+      <c r="F18" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G18" t="s">
         <v>114</v>
       </c>
-      <c r="H17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8" ht="12.6">
-      <c r="F18" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" ht="12.6">
+      <c r="F19" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G19" t="s">
         <v>118</v>
       </c>
-      <c r="H18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="6:8" ht="12.6">
-      <c r="F19" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G19" t="s">
-        <v>122</v>
-      </c>
       <c r="H19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="6:8" ht="12.6">
-      <c r="F20" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>245</v>
+      <c r="F20" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G20" t="s">
+        <v>130</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="6:8" ht="12.6">
-      <c r="F21" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H21" t="s">
-        <v>14</v>
+      <c r="F21" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="6:8" ht="12.6">
-      <c r="F22" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H22" t="s">
-        <v>14</v>
+      <c r="F22" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="6:8" ht="12.6">
-      <c r="F23" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>243</v>
+      <c r="F23" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" t="s">
+        <v>147</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="6:8" ht="12.6">
-      <c r="F24" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>247</v>
+      <c r="F24" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G24" t="s">
+        <v>153</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="6:8" ht="12.6">
-      <c r="F25" s="9" t="s">
-        <v>269</v>
+      <c r="F25" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="G25" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="6:8" ht="12.6">
-      <c r="F26" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="G26" t="s">
-        <v>157</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="27" spans="6:8" ht="12.6">
-      <c r="F27" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="G27" t="s">
-        <v>161</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="28" spans="6:8" ht="12.6">
-      <c r="F28" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="G28" t="s">
-        <v>165</v>
-      </c>
-      <c r="H28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="6:8" ht="12.6">
-      <c r="F29" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G29" t="s">
-        <v>171</v>
-      </c>
-      <c r="H29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="6:8" ht="12.6">
-      <c r="F30" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G30" t="s">
-        <v>172</v>
-      </c>
-      <c r="H30" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2593,10 +1882,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:P35"/>
+  <dimension ref="D7:P30"/>
   <sheetViews>
     <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="C14" sqref="A14:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2616,7 +1905,7 @@
   <sheetData>
     <row r="7" spans="4:16" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -2625,60 +1914,60 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="P7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="4:16" ht="12.75" customHeight="1">
       <c r="F8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" t="s">
         <v>72</v>
       </c>
-      <c r="G8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" t="s">
-        <v>76</v>
-      </c>
       <c r="N8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -2686,13 +1975,13 @@
     </row>
     <row r="9" spans="4:16">
       <c r="F9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -2701,16 +1990,16 @@
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -2718,13 +2007,13 @@
     </row>
     <row r="10" spans="4:16">
       <c r="F10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -2733,16 +2022,16 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O10">
         <v>2</v>
@@ -2750,13 +2039,13 @@
     </row>
     <row r="11" spans="4:16">
       <c r="F11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s">
         <v>20</v>
@@ -2765,16 +2054,16 @@
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O11">
         <v>3</v>
@@ -2782,13 +2071,13 @@
     </row>
     <row r="12" spans="4:16">
       <c r="F12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s">
         <v>23</v>
@@ -2797,16 +2086,16 @@
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O12">
         <v>4</v>
@@ -2814,13 +2103,13 @@
     </row>
     <row r="13" spans="4:16">
       <c r="F13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s">
         <v>26</v>
@@ -2829,228 +2118,228 @@
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L13" t="s">
         <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="O13">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="4:16">
-      <c r="F14" s="2" t="s">
-        <v>245</v>
+      <c r="F14" t="s">
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="H14" t="s">
-        <v>129</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>249</v>
+        <v>96</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
       </c>
       <c r="J14" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>252</v>
+      <c r="K14" t="s">
+        <v>68</v>
       </c>
       <c r="L14" t="s">
         <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="O14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="4:16">
-      <c r="F15" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G15" t="s">
-        <v>131</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="4:16" ht="14.4">
+      <c r="F15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="H15" t="s">
-        <v>132</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>253</v>
+      <c r="K15" t="s">
+        <v>68</v>
       </c>
       <c r="L15" t="s">
         <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="N15" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="O15">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="4:16">
-      <c r="F16" s="2" t="s">
-        <v>247</v>
+      <c r="F16" t="s">
+        <v>102</v>
       </c>
       <c r="G16" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="H16" t="s">
-        <v>140</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>251</v>
+        <v>104</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>254</v>
+      <c r="K16" t="s">
+        <v>98</v>
       </c>
       <c r="L16" t="s">
         <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N16" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="O16">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="6:16">
-      <c r="F17" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>239</v>
+      <c r="F17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>236</v>
+      <c r="K17" t="s">
+        <v>98</v>
       </c>
       <c r="L17" t="s">
         <v>14</v>
       </c>
       <c r="M17" t="s">
-        <v>80</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>138</v>
+        <v>76</v>
+      </c>
+      <c r="N17" t="s">
+        <v>109</v>
       </c>
       <c r="O17">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="6:16">
-      <c r="F18" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>265</v>
+      <c r="F18" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" t="s">
+        <v>111</v>
       </c>
       <c r="H18" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>240</v>
+        <v>112</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
       </c>
       <c r="J18" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>233</v>
+      <c r="K18" t="s">
+        <v>98</v>
       </c>
       <c r="L18" t="s">
         <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N18" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="O18">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="6:16">
       <c r="F19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" t="s">
         <v>98</v>
       </c>
-      <c r="G19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" t="s">
-        <v>72</v>
-      </c>
       <c r="L19" t="s">
         <v>14</v>
       </c>
       <c r="M19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N19" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="O19">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="6:16" ht="14.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="6:16">
       <c r="F20" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>103</v>
+        <v>118</v>
+      </c>
+      <c r="G20" t="s">
+        <v>119</v>
       </c>
       <c r="H20" t="s">
-        <v>104</v>
+        <v>120</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
       </c>
       <c r="J20" t="s">
         <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="L20" t="s">
         <v>14</v>
@@ -3059,480 +2348,320 @@
         <v>76</v>
       </c>
       <c r="N20" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="O20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="6:16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="6:16" ht="14.4">
       <c r="F21" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" t="s">
-        <v>107</v>
+        <v>124</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="H21" t="s">
-        <v>108</v>
-      </c>
-      <c r="I21" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="L21" t="s">
         <v>14</v>
       </c>
       <c r="M21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="N21" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="O21">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="P21" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="6:16">
       <c r="F22" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="G22" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="H22" t="s">
-        <v>112</v>
-      </c>
-      <c r="I22" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="J22" t="s">
         <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="L22" t="s">
         <v>14</v>
       </c>
       <c r="M22" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="N22" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="O22">
-        <v>14</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="6:16">
       <c r="F23" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="G23" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="H23" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="I23" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J23" t="s">
         <v>13</v>
       </c>
       <c r="K23" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="L23" t="s">
         <v>14</v>
       </c>
       <c r="M23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N23" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="O23">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="6:16">
       <c r="F24" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="G24" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="H24" t="s">
-        <v>120</v>
-      </c>
-      <c r="I24" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="J24" t="s">
         <v>13</v>
       </c>
       <c r="K24" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="L24" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M24" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="N24" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="O24">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="6:16">
       <c r="F25" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="G25" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="H25" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J25" t="s">
         <v>13</v>
       </c>
       <c r="K25" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N25" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="O25">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="6:16" ht="14.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="6:16">
       <c r="F26" t="s">
-        <v>142</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>103</v>
+        <v>143</v>
+      </c>
+      <c r="G26" t="s">
+        <v>144</v>
       </c>
       <c r="H26" t="s">
-        <v>143</v>
+        <v>145</v>
+      </c>
+      <c r="I26" t="s">
+        <v>54</v>
       </c>
       <c r="J26" t="s">
         <v>13</v>
       </c>
       <c r="K26" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M26" t="s">
         <v>76</v>
       </c>
       <c r="N26" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="O26">
-        <v>7</v>
-      </c>
-      <c r="P26" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="6:16">
       <c r="F27" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G27" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H27" t="s">
-        <v>146</v>
+        <v>149</v>
+      </c>
+      <c r="I27" t="s">
+        <v>57</v>
       </c>
       <c r="J27" t="s">
         <v>13</v>
       </c>
       <c r="K27" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="L27" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M27" t="s">
         <v>76</v>
       </c>
       <c r="N27" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O27">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="6:16">
       <c r="F28" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G28" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="H28" t="s">
-        <v>150</v>
-      </c>
-      <c r="I28" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="J28" t="s">
         <v>13</v>
       </c>
       <c r="K28" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="L28" t="s">
         <v>14</v>
       </c>
       <c r="M28" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="N28" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="O28">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="6:16">
       <c r="F29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G29" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H29" t="s">
-        <v>154</v>
+        <v>145</v>
+      </c>
+      <c r="I29" t="s">
+        <v>60</v>
       </c>
       <c r="J29" t="s">
         <v>13</v>
       </c>
       <c r="K29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L29" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="M29" t="s">
         <v>76</v>
       </c>
       <c r="N29" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="O29">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="6:16">
       <c r="F30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G30" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H30" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J30" t="s">
         <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L30" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="M30" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N30" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="O30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="6:16">
-      <c r="F31" t="s">
-        <v>161</v>
-      </c>
-      <c r="G31" t="s">
-        <v>162</v>
-      </c>
-      <c r="H31" t="s">
-        <v>163</v>
-      </c>
-      <c r="I31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J31" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" t="s">
-        <v>152</v>
-      </c>
-      <c r="L31" t="s">
-        <v>56</v>
-      </c>
-      <c r="M31" t="s">
-        <v>80</v>
-      </c>
-      <c r="N31" t="s">
-        <v>164</v>
-      </c>
-      <c r="O31">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="6:16">
-      <c r="F32" t="s">
-        <v>165</v>
-      </c>
-      <c r="G32" t="s">
-        <v>166</v>
-      </c>
-      <c r="H32" t="s">
-        <v>167</v>
-      </c>
-      <c r="I32" t="s">
-        <v>61</v>
-      </c>
-      <c r="J32" t="s">
-        <v>13</v>
-      </c>
-      <c r="K32" t="s">
-        <v>152</v>
-      </c>
-      <c r="L32" t="s">
-        <v>56</v>
-      </c>
-      <c r="M32" t="s">
-        <v>80</v>
-      </c>
-      <c r="N32" t="s">
-        <v>168</v>
-      </c>
-      <c r="O32">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="6:15">
-      <c r="F33" t="s">
-        <v>169</v>
-      </c>
-      <c r="G33" t="s">
-        <v>111</v>
-      </c>
-      <c r="H33" t="s">
-        <v>170</v>
-      </c>
-      <c r="J33" t="s">
-        <v>13</v>
-      </c>
-      <c r="K33" t="s">
-        <v>75</v>
-      </c>
-      <c r="L33" t="s">
-        <v>14</v>
-      </c>
-      <c r="M33" t="s">
-        <v>76</v>
-      </c>
-      <c r="N33" t="s">
-        <v>156</v>
-      </c>
-      <c r="O33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="6:15">
-      <c r="F34" t="s">
-        <v>171</v>
-      </c>
-      <c r="G34" t="s">
-        <v>162</v>
-      </c>
-      <c r="H34" t="s">
-        <v>163</v>
-      </c>
-      <c r="I34" t="s">
-        <v>64</v>
-      </c>
-      <c r="J34" t="s">
-        <v>13</v>
-      </c>
-      <c r="K34" t="s">
-        <v>169</v>
-      </c>
-      <c r="L34" t="s">
-        <v>14</v>
-      </c>
-      <c r="M34" t="s">
-        <v>80</v>
-      </c>
-      <c r="N34" t="s">
-        <v>164</v>
-      </c>
-      <c r="O34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="6:15">
-      <c r="F35" t="s">
-        <v>172</v>
-      </c>
-      <c r="G35" t="s">
-        <v>166</v>
-      </c>
-      <c r="H35" t="s">
-        <v>167</v>
-      </c>
-      <c r="I35" t="s">
-        <v>65</v>
-      </c>
-      <c r="J35" t="s">
-        <v>13</v>
-      </c>
-      <c r="K35" t="s">
-        <v>169</v>
-      </c>
-      <c r="L35" t="s">
-        <v>14</v>
-      </c>
-      <c r="M35" t="s">
-        <v>80</v>
-      </c>
-      <c r="N35" t="s">
-        <v>168</v>
-      </c>
-      <c r="O35">
         <v>6</v>
       </c>
     </row>
@@ -3549,10 +2678,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:G31"/>
+  <dimension ref="D7:G26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="A20" sqref="A20:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3568,208 +2697,168 @@
   <sheetData>
     <row r="7" spans="4:7" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="12.75" customHeight="1">
       <c r="F8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="4:7">
       <c r="F9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="4:7">
       <c r="F10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="4:7">
       <c r="F11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="4:7">
       <c r="F12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="4:7">
       <c r="F13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="4:7">
       <c r="F14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="4:7">
       <c r="F15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G15" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="4:7">
       <c r="F16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G16" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G17" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G18" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G19" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="6:7">
-      <c r="F20" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>264</v>
+      <c r="F20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="6:7">
-      <c r="F21" s="2" t="s">
-        <v>262</v>
+      <c r="F21" t="s">
+        <v>139</v>
       </c>
       <c r="G21" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="6:7">
-      <c r="F22" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>238</v>
+      <c r="F22" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="6:7">
-      <c r="F23" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>237</v>
+      <c r="F23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="6:7">
-      <c r="F24" s="2" t="s">
-        <v>261</v>
+      <c r="F24" t="s">
+        <v>147</v>
       </c>
       <c r="G24" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G25" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G26" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" spans="6:7">
-      <c r="F27" t="s">
-        <v>157</v>
-      </c>
-      <c r="G27" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="28" spans="6:7">
-      <c r="F28" t="s">
-        <v>161</v>
-      </c>
-      <c r="G28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="6:7">
-      <c r="F29" t="s">
-        <v>165</v>
-      </c>
-      <c r="G29" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="30" spans="6:7">
-      <c r="F30" t="s">
-        <v>171</v>
-      </c>
-      <c r="G30" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="31" spans="6:7">
-      <c r="F31" t="s">
-        <v>172</v>
-      </c>
-      <c r="G31" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3810,7 +2899,7 @@
   <sheetData>
     <row r="7" spans="4:18">
       <c r="D7" s="6" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>1</v>
@@ -3819,72 +2908,72 @@
         <v>2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="4:18">
       <c r="E8" s="6" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="O8" s="6">
         <v>1</v>
@@ -3898,34 +2987,34 @@
     </row>
     <row r="9" spans="4:18">
       <c r="E9" s="6" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="O9" s="6">
         <v>2</v>
@@ -3939,34 +3028,34 @@
     </row>
     <row r="10" spans="4:18">
       <c r="E10" s="6" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O10" s="6">
         <v>3</v>
@@ -3980,34 +3069,34 @@
     </row>
     <row r="11" spans="4:18">
       <c r="E11" s="6" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="O11" s="6">
         <v>4</v>
@@ -4021,34 +3110,34 @@
     </row>
     <row r="12" spans="4:18">
       <c r="E12" s="6" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="O12" s="6">
         <v>5</v>
@@ -4062,34 +3151,34 @@
     </row>
     <row r="13" spans="4:18">
       <c r="E13" s="6" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="O13" s="6">
         <v>6</v>
@@ -4101,39 +3190,39 @@
         <v>1</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="4:18">
       <c r="E14" s="6" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O14" s="6">
         <v>7</v>
@@ -4145,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="32340" windowHeight="18984" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="32340" windowHeight="18984" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="219">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -697,6 +697,20 @@
   </si>
   <si>
     <t>DEFAULT</t>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.code.agil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1078,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="C19" sqref="A19:XFD23"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1641,10 +1655,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:H25"/>
+  <dimension ref="D7:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1680,19 +1694,19 @@
       <c r="F8" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="G8" t="s">
-        <v>73</v>
+      <c r="G8" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="4:8" ht="12.6">
+    <row r="9" spans="4:8" ht="12.75" customHeight="1">
       <c r="F9" s="8" t="s">
         <v>215</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -1714,7 +1728,7 @@
         <v>215</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -1725,7 +1739,7 @@
         <v>215</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -1736,7 +1750,7 @@
         <v>215</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -1747,7 +1761,7 @@
         <v>215</v>
       </c>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -1758,7 +1772,7 @@
         <v>215</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -1769,7 +1783,7 @@
         <v>215</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -1780,7 +1794,7 @@
         <v>215</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -1791,7 +1805,7 @@
         <v>215</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -1802,7 +1816,7 @@
         <v>215</v>
       </c>
       <c r="G19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -1813,7 +1827,7 @@
         <v>215</v>
       </c>
       <c r="G20" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -1821,13 +1835,13 @@
     </row>
     <row r="21" spans="6:8" ht="12.6">
       <c r="F21" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G21" t="s">
-        <v>139</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>216</v>
+        <v>130</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="6:8" ht="12.6">
@@ -1835,7 +1849,7 @@
         <v>217</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>216</v>
@@ -1846,21 +1860,21 @@
         <v>217</v>
       </c>
       <c r="G23" t="s">
-        <v>147</v>
-      </c>
-      <c r="H23" t="s">
-        <v>52</v>
+        <v>143</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="6:8" ht="12.6">
       <c r="F24" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G24" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="6:8" ht="12.6">
@@ -1868,9 +1882,20 @@
         <v>215</v>
       </c>
       <c r="G25" t="s">
+        <v>153</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8" ht="12.6">
+      <c r="F26" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G26" t="s">
         <v>154</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H26" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1884,8 +1909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="C14" sqref="A14:XFD18"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="32340" windowHeight="18984" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="32340" windowHeight="18984" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="216">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -397,18 +397,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>choerodon.code.program</t>
-  </si>
-  <si>
-    <t>PROGRAM</t>
-  </si>
-  <si>
-    <t>choerodon.code.agile-program.setting</t>
-  </si>
-  <si>
-    <t>Program Setting</t>
   </si>
   <si>
     <t>choerodon.code.platform-reports</t>
@@ -710,6 +698,10 @@
       </rPr>
       <t>e</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.agile.setting</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1508,7 +1500,7 @@
         <v>13</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J20" t="s">
         <v>53</v>
@@ -1618,7 +1610,7 @@
         <v>61</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1657,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1675,27 +1667,27 @@
   <sheetData>
     <row r="7" spans="4:8" ht="12.75" customHeight="1">
       <c r="D7" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="4:8" ht="12.75" customHeight="1">
       <c r="F8" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -1703,7 +1695,7 @@
     </row>
     <row r="9" spans="4:8" ht="12.75" customHeight="1">
       <c r="F9" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G9" t="s">
         <v>73</v>
@@ -1714,7 +1706,7 @@
     </row>
     <row r="10" spans="4:8" ht="12.6">
       <c r="F10" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G10" t="s">
         <v>78</v>
@@ -1725,10 +1717,10 @@
     </row>
     <row r="11" spans="4:8" ht="12.6">
       <c r="F11" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -1736,10 +1728,10 @@
     </row>
     <row r="12" spans="4:8" ht="12.6">
       <c r="F12" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -1747,10 +1739,10 @@
     </row>
     <row r="13" spans="4:8" ht="12.6">
       <c r="F13" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -1758,10 +1750,10 @@
     </row>
     <row r="14" spans="4:8" ht="12.6">
       <c r="F14" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G14" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -1769,10 +1761,10 @@
     </row>
     <row r="15" spans="4:8" ht="12.6">
       <c r="F15" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -1780,7 +1772,7 @@
     </row>
     <row r="16" spans="4:8" ht="12.6">
       <c r="F16" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G16" t="s">
         <v>102</v>
@@ -1791,7 +1783,7 @@
     </row>
     <row r="17" spans="6:8" ht="12.6">
       <c r="F17" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G17" t="s">
         <v>106</v>
@@ -1802,7 +1794,7 @@
     </row>
     <row r="18" spans="6:8" ht="12.6">
       <c r="F18" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G18" t="s">
         <v>110</v>
@@ -1813,7 +1805,7 @@
     </row>
     <row r="19" spans="6:8" ht="12.6">
       <c r="F19" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G19" t="s">
         <v>114</v>
@@ -1824,7 +1816,7 @@
     </row>
     <row r="20" spans="6:8" ht="12.6">
       <c r="F20" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G20" t="s">
         <v>118</v>
@@ -1835,10 +1827,10 @@
     </row>
     <row r="21" spans="6:8" ht="12.6">
       <c r="F21" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G21" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -1846,32 +1838,32 @@
     </row>
     <row r="22" spans="6:8" ht="12.6">
       <c r="F22" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="6:8" ht="12.6">
       <c r="F23" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G23" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="6:8" ht="12.6">
       <c r="F24" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H24" t="s">
         <v>52</v>
@@ -1879,10 +1871,10 @@
     </row>
     <row r="25" spans="6:8" ht="12.6">
       <c r="F25" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
@@ -1890,10 +1882,10 @@
     </row>
     <row r="26" spans="6:8" ht="12.6">
       <c r="F26" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
@@ -1907,10 +1899,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:P30"/>
+  <dimension ref="D7:P29"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1951,19 +1943,19 @@
         <v>4</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="N7" t="s">
         <v>66</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P7" t="s">
         <v>67</v>
@@ -2027,7 +2019,7 @@
         <v>77</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="4:16">
@@ -2059,7 +2051,7 @@
         <v>81</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="4:16">
@@ -2091,7 +2083,7 @@
         <v>85</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="4:16">
@@ -2123,7 +2115,7 @@
         <v>89</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="4:16">
@@ -2155,7 +2147,7 @@
         <v>93</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="4:16">
@@ -2187,12 +2179,12 @@
         <v>97</v>
       </c>
       <c r="O14">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="4:16" ht="14.4">
-      <c r="F15" t="s">
-        <v>98</v>
+      <c r="F15" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>99</v>
@@ -2216,7 +2208,7 @@
         <v>101</v>
       </c>
       <c r="O15">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="4:16">
@@ -2248,10 +2240,10 @@
         <v>105</v>
       </c>
       <c r="O16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="6:16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="6:15">
       <c r="F17" t="s">
         <v>106</v>
       </c>
@@ -2280,10 +2272,10 @@
         <v>109</v>
       </c>
       <c r="O17">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="6:16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="6:15">
       <c r="F18" t="s">
         <v>110</v>
       </c>
@@ -2312,10 +2304,10 @@
         <v>113</v>
       </c>
       <c r="O18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="6:16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="6:15">
       <c r="F19" t="s">
         <v>114</v>
       </c>
@@ -2344,10 +2336,10 @@
         <v>117</v>
       </c>
       <c r="O19">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="6:16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="6:15">
       <c r="F20" t="s">
         <v>118</v>
       </c>
@@ -2376,24 +2368,24 @@
         <v>121</v>
       </c>
       <c r="O20">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="6:16" ht="14.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="6:15">
       <c r="F21" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" t="s">
         <v>124</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H21" t="s">
-        <v>125</v>
-      </c>
       <c r="J21" t="s">
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="L21" t="s">
         <v>14</v>
@@ -2402,16 +2394,13 @@
         <v>72</v>
       </c>
       <c r="N21" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="O21">
-        <v>7</v>
-      </c>
-      <c r="P21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="6:16">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="6:15">
       <c r="F22" t="s">
         <v>126</v>
       </c>
@@ -2421,26 +2410,29 @@
       <c r="H22" t="s">
         <v>128</v>
       </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
       <c r="J22" t="s">
         <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="L22" t="s">
         <v>14</v>
       </c>
       <c r="M22" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N22" t="s">
         <v>129</v>
       </c>
       <c r="O22">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="6:16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="6:15">
       <c r="F23" t="s">
         <v>130</v>
       </c>
@@ -2450,58 +2442,58 @@
       <c r="H23" t="s">
         <v>132</v>
       </c>
-      <c r="I23" t="s">
-        <v>47</v>
-      </c>
       <c r="J23" t="s">
         <v>13</v>
       </c>
       <c r="K23" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="6:16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="6:15">
       <c r="F24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H24" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="I24" t="s">
+        <v>50</v>
       </c>
       <c r="J24" t="s">
         <v>13</v>
       </c>
       <c r="K24" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="L24" t="s">
         <v>52</v>
       </c>
       <c r="M24" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N24" t="s">
         <v>138</v>
       </c>
       <c r="O24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="6:16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="6:15">
       <c r="F25" t="s">
         <v>139</v>
       </c>
@@ -2512,13 +2504,13 @@
         <v>141</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J25" t="s">
         <v>13</v>
       </c>
       <c r="K25" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L25" t="s">
         <v>52</v>
@@ -2530,10 +2522,10 @@
         <v>142</v>
       </c>
       <c r="O25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="6:16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="6:15">
       <c r="F26" t="s">
         <v>143</v>
       </c>
@@ -2544,13 +2536,13 @@
         <v>145</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J26" t="s">
         <v>13</v>
       </c>
       <c r="K26" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L26" t="s">
         <v>52</v>
@@ -2562,73 +2554,73 @@
         <v>146</v>
       </c>
       <c r="O26">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="6:16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="6:15">
       <c r="F27" t="s">
         <v>147</v>
       </c>
       <c r="G27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" t="s">
         <v>148</v>
       </c>
-      <c r="H27" t="s">
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s">
+        <v>71</v>
+      </c>
+      <c r="L27" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" t="s">
+        <v>72</v>
+      </c>
+      <c r="N27" t="s">
+        <v>134</v>
+      </c>
+      <c r="O27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="6:15">
+      <c r="F28" t="s">
         <v>149</v>
       </c>
-      <c r="I27" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" t="s">
-        <v>134</v>
-      </c>
-      <c r="L27" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="G28" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" t="s">
+        <v>141</v>
+      </c>
+      <c r="I28" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" t="s">
+        <v>147</v>
+      </c>
+      <c r="L28" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" t="s">
         <v>76</v>
       </c>
-      <c r="N27" t="s">
-        <v>150</v>
-      </c>
-      <c r="O27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="6:16">
-      <c r="F28" t="s">
-        <v>151</v>
-      </c>
-      <c r="G28" t="s">
-        <v>107</v>
-      </c>
-      <c r="H28" t="s">
-        <v>152</v>
-      </c>
-      <c r="J28" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28" t="s">
-        <v>71</v>
-      </c>
-      <c r="L28" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" t="s">
-        <v>72</v>
-      </c>
       <c r="N28" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O28">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="6:16">
+    <row r="29" spans="6:15">
       <c r="F29" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G29" t="s">
         <v>144</v>
@@ -2637,13 +2629,13 @@
         <v>145</v>
       </c>
       <c r="I29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J29" t="s">
         <v>13</v>
       </c>
       <c r="K29" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L29" t="s">
         <v>14</v>
@@ -2655,39 +2647,7 @@
         <v>146</v>
       </c>
       <c r="O29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="6:16">
-      <c r="F30" t="s">
-        <v>154</v>
-      </c>
-      <c r="G30" t="s">
-        <v>148</v>
-      </c>
-      <c r="H30" t="s">
-        <v>149</v>
-      </c>
-      <c r="I30" t="s">
-        <v>61</v>
-      </c>
-      <c r="J30" t="s">
-        <v>13</v>
-      </c>
-      <c r="K30" t="s">
-        <v>151</v>
-      </c>
-      <c r="L30" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" t="s">
-        <v>76</v>
-      </c>
-      <c r="N30" t="s">
-        <v>150</v>
-      </c>
-      <c r="O30">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2705,7 +2665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:XFD24"/>
     </sheetView>
   </sheetViews>
@@ -2722,16 +2682,16 @@
   <sheetData>
     <row r="7" spans="4:7" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="12.75" customHeight="1">
@@ -2739,7 +2699,7 @@
         <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="4:7">
@@ -2747,7 +2707,7 @@
         <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="4:7">
@@ -2755,7 +2715,7 @@
         <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="4:7">
@@ -2763,7 +2723,7 @@
         <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="4:7">
@@ -2771,7 +2731,7 @@
         <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="4:7">
@@ -2779,7 +2739,7 @@
         <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="4:7">
@@ -2787,7 +2747,7 @@
         <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="4:7">
@@ -2795,7 +2755,7 @@
         <v>102</v>
       </c>
       <c r="G15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="4:7">
@@ -2803,7 +2763,7 @@
         <v>106</v>
       </c>
       <c r="G16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="6:7">
@@ -2811,7 +2771,7 @@
         <v>110</v>
       </c>
       <c r="G17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="6:7">
@@ -2819,7 +2779,7 @@
         <v>114</v>
       </c>
       <c r="G18" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="6:7">
@@ -2827,63 +2787,63 @@
         <v>118</v>
       </c>
       <c r="G19" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G23" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G24" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G26" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2902,7 +2862,7 @@
   <dimension ref="D7:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2924,7 +2884,7 @@
   <sheetData>
     <row r="7" spans="4:18">
       <c r="D7" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>1</v>
@@ -2933,7 +2893,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>63</v>
@@ -2942,13 +2902,13 @@
         <v>64</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>6</v>
@@ -2957,48 +2917,48 @@
         <v>66</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="4:18">
       <c r="E8" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>191</v>
-      </c>
       <c r="M8" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O8" s="6">
         <v>1</v>
@@ -3012,34 +2972,34 @@
     </row>
     <row r="9" spans="4:18">
       <c r="E9" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K9" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="O9" s="6">
         <v>2</v>
@@ -3053,31 +3013,31 @@
     </row>
     <row r="10" spans="4:18">
       <c r="E10" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>72</v>
@@ -3094,34 +3054,34 @@
     </row>
     <row r="11" spans="4:18">
       <c r="E11" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O11" s="6">
         <v>4</v>
@@ -3135,34 +3095,34 @@
     </row>
     <row r="12" spans="4:18">
       <c r="E12" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O12" s="6">
         <v>5</v>
@@ -3176,34 +3136,34 @@
     </row>
     <row r="13" spans="4:18">
       <c r="E13" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="O13" s="6">
         <v>6</v>
@@ -3215,15 +3175,15 @@
         <v>1</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="4:18">
       <c r="E14" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>79</v>
@@ -3232,16 +3192,16 @@
         <v>79</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>79</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>79</v>
@@ -3259,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="32340" windowHeight="18984" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="32340" windowHeight="18984" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -1649,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="B11" sqref="A11:XFD11"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1901,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:P29"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1987,7 +1987,7 @@
         <v>70</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="4:16">
@@ -2429,7 +2429,7 @@
         <v>129</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="6:15">
@@ -2861,7 +2861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:R14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="BG1" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\agile-service\src\main\resources\script\front\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/agile-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="32340" windowHeight="18984" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -552,10 +552,6 @@
     <t>@SORT</t>
   </si>
   <si>
-    <t>@SORT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>@PARENT_CODE</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -694,7 +690,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>e</t>
     </r>
@@ -704,12 +700,16 @@
     <t>choerodon.code.agile.setting</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>SORT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1088,25 +1088,25 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="57.44140625" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="57.3984375" customWidth="1"/>
+    <col min="7" max="7" width="23.59765625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" customWidth="1"/>
+    <col min="10" max="10" width="14.19921875" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.21875" customWidth="1"/>
-    <col min="13" max="13" width="18.5546875" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" customWidth="1"/>
+    <col min="13" max="13" width="18.59765625" customWidth="1"/>
+    <col min="14" max="14" width="19.3984375" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.5546875" customWidth="1"/>
+    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" ht="12.75" customHeight="1">
+    <row r="7" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:14" ht="12.75" customHeight="1">
+    <row r="8" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:14">
+    <row r="9" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:14">
+    <row r="10" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:14">
+    <row r="11" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:14">
+    <row r="12" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>26</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:14">
+    <row r="13" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>29</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:14">
+    <row r="14" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>32</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:14">
+    <row r="15" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F15" t="s">
         <v>35</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:14">
+    <row r="16" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
         <v>38</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:14">
+    <row r="17" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F17" t="s">
         <v>41</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:14">
+    <row r="18" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F18" t="s">
         <v>44</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:14">
+    <row r="19" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
         <v>47</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:14">
+    <row r="20" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F20" t="s">
         <v>50</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>13</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J20" t="s">
         <v>53</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="6:14">
+    <row r="21" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F21" t="s">
         <v>54</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:14">
+    <row r="22" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
         <v>57</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="6:14">
+    <row r="23" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F23" t="s">
         <v>60</v>
       </c>
@@ -1605,12 +1605,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:14">
+    <row r="24" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F24" t="s">
         <v>61</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1653,49 +1653,49 @@
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" customWidth="1"/>
-    <col min="7" max="7" width="51.33203125" customWidth="1"/>
-    <col min="8" max="8" width="58.44140625" customWidth="1"/>
-    <col min="9" max="9" width="31.21875" customWidth="1"/>
-    <col min="10" max="1026" width="11.5546875" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="30.19921875" customWidth="1"/>
+    <col min="7" max="7" width="51.3984375" customWidth="1"/>
+    <col min="8" max="8" width="58.3984375" customWidth="1"/>
+    <col min="9" max="9" width="31.19921875" customWidth="1"/>
+    <col min="10" max="1026" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="12.75" customHeight="1">
+    <row r="7" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>152</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8" ht="12.75" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="4:8" ht="12.75" customHeight="1">
+    <row r="9" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F9" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G9" t="s">
         <v>73</v>
@@ -1704,9 +1704,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="4:8" ht="12.6">
+    <row r="10" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F10" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G10" t="s">
         <v>78</v>
@@ -1715,9 +1715,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="4:8" ht="12.6">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F11" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G11" t="s">
         <v>82</v>
@@ -1726,9 +1726,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="4:8" ht="12.6">
+    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F12" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G12" t="s">
         <v>86</v>
@@ -1737,9 +1737,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="4:8" ht="12.6">
+    <row r="13" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F13" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G13" t="s">
         <v>90</v>
@@ -1748,9 +1748,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="4:8" ht="12.6">
+    <row r="14" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F14" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G14" t="s">
         <v>94</v>
@@ -1759,9 +1759,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="4:8" ht="12.6">
+    <row r="15" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F15" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G15" t="s">
         <v>98</v>
@@ -1770,9 +1770,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="4:8" ht="12.6">
+    <row r="16" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F16" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G16" t="s">
         <v>102</v>
@@ -1781,9 +1781,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="6:8" ht="12.6">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F17" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G17" t="s">
         <v>106</v>
@@ -1792,9 +1792,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="6:8" ht="12.6">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F18" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G18" t="s">
         <v>110</v>
@@ -1803,9 +1803,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="6:8" ht="12.6">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F19" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G19" t="s">
         <v>114</v>
@@ -1814,9 +1814,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="6:8" ht="12.6">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F20" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G20" t="s">
         <v>118</v>
@@ -1825,9 +1825,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="6:8" ht="12.6">
+    <row r="21" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F21" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G21" t="s">
         <v>126</v>
@@ -1836,31 +1836,31 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="6:8" ht="12.6">
+    <row r="22" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F22" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G22" t="s">
         <v>135</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F23" s="8" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="6:8" ht="12.6">
-      <c r="F23" s="8" t="s">
-        <v>213</v>
       </c>
       <c r="G23" t="s">
         <v>139</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F24" s="8" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="6:8" ht="12.6">
-      <c r="F24" s="8" t="s">
-        <v>213</v>
       </c>
       <c r="G24" t="s">
         <v>143</v>
@@ -1869,9 +1869,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="6:8" ht="12.6">
+    <row r="25" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F25" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G25" t="s">
         <v>149</v>
@@ -1880,9 +1880,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="6:8" ht="12.6">
+    <row r="26" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F26" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G26" t="s">
         <v>150</v>
@@ -1901,26 +1901,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="64.44140625" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="64.3984375" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="35.77734375" customWidth="1"/>
-    <col min="9" max="9" width="49.77734375" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="35.796875" customWidth="1"/>
+    <col min="9" max="9" width="49.796875" customWidth="1"/>
+    <col min="10" max="10" width="18.59765625" customWidth="1"/>
     <col min="11" max="11" width="41" customWidth="1"/>
-    <col min="12" max="12" width="19.21875" customWidth="1"/>
-    <col min="13" max="1025" width="11.5546875" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" customWidth="1"/>
+    <col min="13" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:16" ht="12.75" customHeight="1">
+    <row r="7" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>62</v>
       </c>
@@ -1943,25 +1943,25 @@
         <v>4</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L7" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="N7" t="s">
         <v>66</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="P7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="4:16" ht="12.75" customHeight="1">
+    <row r="8" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>68</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:16">
+    <row r="9" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>73</v>
       </c>
@@ -2019,10 +2019,10 @@
         <v>77</v>
       </c>
       <c r="O9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="4:16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>78</v>
       </c>
@@ -2051,10 +2051,10 @@
         <v>81</v>
       </c>
       <c r="O10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="4:16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>82</v>
       </c>
@@ -2083,10 +2083,10 @@
         <v>85</v>
       </c>
       <c r="O11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="4:16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>86</v>
       </c>
@@ -2115,10 +2115,10 @@
         <v>89</v>
       </c>
       <c r="O12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="4:16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>90</v>
       </c>
@@ -2147,10 +2147,10 @@
         <v>93</v>
       </c>
       <c r="O13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="4:16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>94</v>
       </c>
@@ -2179,12 +2179,12 @@
         <v>97</v>
       </c>
       <c r="O14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="4:16" ht="14.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="4:16" ht="14" x14ac:dyDescent="0.15">
       <c r="F15" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>99</v>
@@ -2208,10 +2208,10 @@
         <v>101</v>
       </c>
       <c r="O15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="4:16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
         <v>102</v>
       </c>
@@ -2240,10 +2240,10 @@
         <v>105</v>
       </c>
       <c r="O16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="6:15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F17" t="s">
         <v>106</v>
       </c>
@@ -2272,10 +2272,10 @@
         <v>109</v>
       </c>
       <c r="O17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="6:15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F18" t="s">
         <v>110</v>
       </c>
@@ -2304,10 +2304,10 @@
         <v>113</v>
       </c>
       <c r="O18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="6:15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
         <v>114</v>
       </c>
@@ -2336,10 +2336,10 @@
         <v>117</v>
       </c>
       <c r="O19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="6:15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F20" t="s">
         <v>118</v>
       </c>
@@ -2368,10 +2368,10 @@
         <v>121</v>
       </c>
       <c r="O20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="6:15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F21" t="s">
         <v>122</v>
       </c>
@@ -2397,10 +2397,10 @@
         <v>125</v>
       </c>
       <c r="O21">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="6:15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
         <v>126</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="6:15">
+    <row r="23" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F23" t="s">
         <v>130</v>
       </c>
@@ -2458,10 +2458,10 @@
         <v>134</v>
       </c>
       <c r="O23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="6:15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F24" t="s">
         <v>135</v>
       </c>
@@ -2490,10 +2490,10 @@
         <v>138</v>
       </c>
       <c r="O24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="6:15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F25" t="s">
         <v>139</v>
       </c>
@@ -2522,10 +2522,10 @@
         <v>142</v>
       </c>
       <c r="O25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="6:15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F26" t="s">
         <v>143</v>
       </c>
@@ -2554,10 +2554,10 @@
         <v>146</v>
       </c>
       <c r="O26">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="6:15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F27" t="s">
         <v>147</v>
       </c>
@@ -2583,10 +2583,10 @@
         <v>134</v>
       </c>
       <c r="O27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="6:15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F28" t="s">
         <v>149</v>
       </c>
@@ -2615,10 +2615,10 @@
         <v>142</v>
       </c>
       <c r="O28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="6:15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F29" t="s">
         <v>150</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>146</v>
       </c>
       <c r="O29">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2669,18 +2669,18 @@
       <selection activeCell="A20" sqref="A20:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="59.88671875" customWidth="1"/>
-    <col min="7" max="7" width="58.44140625" customWidth="1"/>
-    <col min="8" max="8" width="31.21875" customWidth="1"/>
-    <col min="9" max="1025" width="11.5546875" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="59.796875" customWidth="1"/>
+    <col min="7" max="7" width="58.3984375" customWidth="1"/>
+    <col min="8" max="8" width="31.19921875" customWidth="1"/>
+    <col min="9" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="12.75" customHeight="1">
+    <row r="7" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>151</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="4:7" ht="12.75" customHeight="1">
+    <row r="8" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
         <v>73</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="4:7">
+    <row r="9" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>78</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="4:7">
+    <row r="10" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>78</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="4:7">
+    <row r="11" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>82</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="4:7">
+    <row r="12" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>86</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="4:7">
+    <row r="13" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>90</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="4:7">
+    <row r="14" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>94</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="4:7">
+    <row r="15" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F15" t="s">
         <v>102</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="4:7">
+    <row r="16" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
         <v>106</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="6:7">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F17" t="s">
         <v>110</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="6:7">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F18" t="s">
         <v>114</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="6:7">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
         <v>118</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="6:7">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F20" t="s">
         <v>126</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="6:7">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F21" t="s">
         <v>135</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="6:7">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
         <v>135</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="6:7">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F23" t="s">
         <v>139</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="6:7">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F24" t="s">
         <v>143</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="6:7">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F25" t="s">
         <v>149</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="6:7">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F26" t="s">
         <v>150</v>
       </c>
@@ -2865,26 +2865,26 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="23.77734375" style="6" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="23.3984375" style="6" customWidth="1"/>
+    <col min="7" max="8" width="23.796875" style="6" customWidth="1"/>
     <col min="9" max="10" width="24" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="28.5546875" style="6" customWidth="1"/>
-    <col min="14" max="17" width="11.5546875" style="6" customWidth="1"/>
-    <col min="18" max="18" width="46.44140625" style="6" customWidth="1"/>
-    <col min="19" max="1025" width="11.5546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.3984375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="11.59765625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="28.59765625" style="6" customWidth="1"/>
+    <col min="14" max="17" width="11.59765625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="46.3984375" style="6" customWidth="1"/>
+    <col min="19" max="1025" width="11.59765625" style="6" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:18">
+    <row r="7" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D7" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>1</v>
@@ -2893,7 +2893,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>63</v>
@@ -2902,13 +2902,13 @@
         <v>64</v>
       </c>
       <c r="J7" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>6</v>
@@ -2920,45 +2920,45 @@
         <v>172</v>
       </c>
       <c r="P7" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="R7" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="R7" s="6" t="s">
+    </row>
+    <row r="8" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+      <c r="E8" s="6" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="8" spans="4:18">
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="I8" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="O8" s="6">
         <v>1</v>
@@ -2970,36 +2970,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:18">
+    <row r="9" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E9" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="H9" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="I9" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="O9" s="6">
         <v>2</v>
@@ -3011,33 +3011,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:18">
+    <row r="10" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E10" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="H10" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="I10" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="K10" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>187</v>
-      </c>
       <c r="M10" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>72</v>
@@ -3052,36 +3052,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:18">
+    <row r="11" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E11" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="H11" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="I11" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="O11" s="6">
         <v>4</v>
@@ -3093,36 +3093,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:18">
+    <row r="12" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E12" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="O12" s="6">
         <v>5</v>
@@ -3134,36 +3134,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:18">
+    <row r="13" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E13" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="N13" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="O13" s="6">
         <v>6</v>
@@ -3175,15 +3175,15 @@
         <v>1</v>
       </c>
       <c r="R13" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+      <c r="E14" s="6" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="14" spans="4:18">
-      <c r="E14" s="6" t="s">
-        <v>203</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>79</v>
@@ -3192,16 +3192,16 @@
         <v>79</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>79</v>
       </c>
       <c r="K14" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>79</v>
@@ -3219,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="220" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="216">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -683,25 +683,15 @@
     <t>DEFAULT</t>
   </si>
   <si>
-    <r>
-      <t>choerodon.code.agil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="1"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>choerodon.code.agile.setting</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SORT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_project</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1085,7 +1075,7 @@
   <dimension ref="D7:N24"/>
   <sheetViews>
     <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1647,10 +1637,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:H26"/>
+  <dimension ref="D7:H83"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1686,8 +1676,8 @@
       <c r="F8" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>213</v>
+      <c r="G8" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -1763,8 +1753,8 @@
       <c r="F15" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="G15" t="s">
-        <v>98</v>
+      <c r="G15" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -1830,7 +1820,7 @@
         <v>210</v>
       </c>
       <c r="G21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -1838,35 +1828,35 @@
     </row>
     <row r="22" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F22" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G22" t="s">
-        <v>135</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>211</v>
+        <v>126</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F23" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G23" t="s">
-        <v>139</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>211</v>
+        <v>147</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F24" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G24" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="6:8" x14ac:dyDescent="0.15">
@@ -1874,7 +1864,7 @@
         <v>210</v>
       </c>
       <c r="G25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
@@ -1882,14 +1872,356 @@
     </row>
     <row r="26" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F26" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="G26" t="s">
+        <v>212</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F27" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F28" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F29" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F30" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G30" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F31" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F32" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G32" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F33" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F34" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G34" t="s">
+        <v>102</v>
+      </c>
+      <c r="H34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F35" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H35" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F36" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G36" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F37" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G37" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F38" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G38" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F39" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G39" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F40" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G40" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F41" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G41" t="s">
+        <v>147</v>
+      </c>
+      <c r="H41" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F42" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G42" t="s">
+        <v>149</v>
+      </c>
+      <c r="H42" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F43" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G43" t="s">
         <v>150</v>
       </c>
-      <c r="H26" t="s">
-        <v>14</v>
-      </c>
+      <c r="H43" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F44" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G44" t="s">
+        <v>130</v>
+      </c>
+      <c r="H44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F45" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G45" t="s">
+        <v>135</v>
+      </c>
+      <c r="H45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F46" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G46" t="s">
+        <v>139</v>
+      </c>
+      <c r="H46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F47" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G47" t="s">
+        <v>143</v>
+      </c>
+      <c r="H47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F63" s="8"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F72" s="8"/>
+    </row>
+    <row r="73" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F77" s="8"/>
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F78" s="8"/>
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F80" s="8"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F83" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1901,8 +2233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1955,7 +2287,7 @@
         <v>66</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P7" t="s">
         <v>67</v>
@@ -2184,7 +2516,7 @@
     </row>
     <row r="15" spans="4:16" ht="14" x14ac:dyDescent="0.15">
       <c r="F15" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>99</v>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="220" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6360" yWindow="1580" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="283">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -693,6 +693,269 @@
   <si>
     <t>organization_project</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.program</t>
+  </si>
+  <si>
+    <t>大规模敏捷</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>PROGRAM</t>
+  </si>
+  <si>
+    <t>choerodon.code.program.feature</t>
+  </si>
+  <si>
+    <t>特性列表</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>choerodon.route.program.feature</t>
+  </si>
+  <si>
+    <t>baseline-vertical_split</t>
+  </si>
+  <si>
+    <t>choerodon.code.program.programKanban</t>
+  </si>
+  <si>
+    <t>项目群看板</t>
+  </si>
+  <si>
+    <t>Program Kanban</t>
+  </si>
+  <si>
+    <t>choerodon.route.program.programKanban</t>
+  </si>
+  <si>
+    <t>table_chart</t>
+  </si>
+  <si>
+    <t>choerodon.code.program.artCalendar</t>
+  </si>
+  <si>
+    <t>ART日历</t>
+  </si>
+  <si>
+    <t>ART Calendar</t>
+  </si>
+  <si>
+    <t>choerodon.route.program.artCalendar</t>
+  </si>
+  <si>
+    <t>insert_invitation</t>
+  </si>
+  <si>
+    <t>choerodon.code.program.roadMap</t>
+  </si>
+  <si>
+    <t>线路图</t>
+  </si>
+  <si>
+    <t>Road Map</t>
+  </si>
+  <si>
+    <t>choerodon.route.program.roadMap</t>
+  </si>
+  <si>
+    <t>view_week</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>choerodon.code.program.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>board</t>
+    </r>
+  </si>
+  <si>
+    <t>项目群公告板</t>
+  </si>
+  <si>
+    <t>Program Board</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>choerodon.route.program.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>board</t>
+    </r>
+  </si>
+  <si>
+    <t>low_priority</t>
+  </si>
+  <si>
+    <t>choerodon.code.program.pi</t>
+  </si>
+  <si>
+    <t>PI目标</t>
+  </si>
+  <si>
+    <t>PI Objective</t>
+  </si>
+  <si>
+    <t>choerodon.route.program.pi</t>
+  </si>
+  <si>
+    <t>center_focus_strong</t>
+  </si>
+  <si>
+    <t>choerodon.code.agile-program.setting</t>
+  </si>
+  <si>
+    <t>Program Setting</t>
+  </si>
+  <si>
+    <t>choerodon.code.program.art</t>
+  </si>
+  <si>
+    <t>ART设置</t>
+  </si>
+  <si>
+    <t>ART Setting</t>
+  </si>
+  <si>
+    <t>choerodon.route.program.art</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>choerodon.code.program.programSetting</t>
+  </si>
+  <si>
+    <t>choerodon.route.program.programSetting</t>
+  </si>
+  <si>
+    <t>$DEL</t>
+  </si>
+  <si>
+    <t>/agile/feature</t>
+  </si>
+  <si>
+    <t>特性列表路由</t>
+  </si>
+  <si>
+    <t>/agile/kanban</t>
+  </si>
+  <si>
+    <t>项目群看板路由</t>
+  </si>
+  <si>
+    <t>/agile/artCalendar</t>
+  </si>
+  <si>
+    <t>ART日历路由</t>
+  </si>
+  <si>
+    <t>/agile/roadMap</t>
+  </si>
+  <si>
+    <t>线路图路由</t>
+  </si>
+  <si>
+    <t>/agile/board</t>
+  </si>
+  <si>
+    <t>公告板路由</t>
+  </si>
+  <si>
+    <t>/agile/pi</t>
+  </si>
+  <si>
+    <t>PI目标路由</t>
+  </si>
+  <si>
+    <t>/agile/art</t>
+  </si>
+  <si>
+    <t>ART设置路由</t>
+  </si>
+  <si>
+    <t>/agile/programSetting</t>
+  </si>
+  <si>
+    <t>$DEL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.pi.queryBacklogAll</t>
+  </si>
+  <si>
+    <t>agile-service.board.queryByOptionsInProgram</t>
+  </si>
+  <si>
+    <t>agile-service.art.queryArtCalendar</t>
+  </si>
+  <si>
+    <t>agile-service.pi.queryRoadMapOfProgram</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>agile-service.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>board-feature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>queryBoardInfo</t>
+    </r>
+  </si>
+  <si>
+    <t>agile-service.pi-objective.queryPiObjectiveList</t>
+  </si>
+  <si>
+    <t>agile-service.art.queryArtList</t>
   </si>
 </sst>
 </file>
@@ -1072,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:N24"/>
+  <dimension ref="D7:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25:O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1096,7 +1359,7 @@
     <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1130,8 +1393,11 @@
       <c r="N7" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O7" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -1189,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -1218,7 +1484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -1247,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>26</v>
       </c>
@@ -1276,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>29</v>
       </c>
@@ -1305,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>32</v>
       </c>
@@ -1334,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F15" t="s">
         <v>35</v>
       </c>
@@ -1363,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
         <v>38</v>
       </c>
@@ -1392,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F17" t="s">
         <v>41</v>
       </c>
@@ -1421,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F18" t="s">
         <v>44</v>
       </c>
@@ -1450,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
         <v>47</v>
       </c>
@@ -1479,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F20" t="s">
         <v>50</v>
       </c>
@@ -1508,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="6:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F21" t="s">
         <v>54</v>
       </c>
@@ -1537,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
         <v>57</v>
       </c>
@@ -1566,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="6:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F23" t="s">
         <v>60</v>
       </c>
@@ -1595,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F24" t="s">
         <v>61</v>
       </c>
@@ -1622,6 +1888,262 @@
       </c>
       <c r="N24">
         <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G25" t="s">
+        <v>260</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
+        <v>261</v>
+      </c>
+      <c r="K25" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F26" t="s">
+        <v>228</v>
+      </c>
+      <c r="G26" t="s">
+        <v>262</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" t="s">
+        <v>263</v>
+      </c>
+      <c r="K26" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" t="s">
+        <v>264</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
+        <v>265</v>
+      </c>
+      <c r="K27" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F28" t="s">
+        <v>238</v>
+      </c>
+      <c r="G28" t="s">
+        <v>266</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" t="s">
+        <v>267</v>
+      </c>
+      <c r="K28" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F29" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F30" t="s">
+        <v>248</v>
+      </c>
+      <c r="G30" t="s">
+        <v>270</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" t="s">
+        <v>271</v>
+      </c>
+      <c r="K30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F31" t="s">
+        <v>255</v>
+      </c>
+      <c r="G31" t="s">
+        <v>272</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" t="s">
+        <v>273</v>
+      </c>
+      <c r="K31" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F32" t="s">
+        <v>258</v>
+      </c>
+      <c r="G32" t="s">
+        <v>274</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1639,7 +2161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
@@ -2231,10 +2753,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:P29"/>
+  <dimension ref="D7:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F29"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2252,7 +2774,7 @@
     <col min="13" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>62</v>
       </c>
@@ -2292,8 +2814,11 @@
       <c r="P7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>68</v>
       </c>
@@ -2322,7 +2847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>73</v>
       </c>
@@ -2354,7 +2879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>78</v>
       </c>
@@ -2386,7 +2911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>82</v>
       </c>
@@ -2418,7 +2943,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>86</v>
       </c>
@@ -2450,7 +2975,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>90</v>
       </c>
@@ -2482,7 +3007,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>94</v>
       </c>
@@ -2514,7 +3039,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="4:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:17" ht="14" x14ac:dyDescent="0.15">
       <c r="F15" s="2" t="s">
         <v>213</v>
       </c>
@@ -2543,7 +3068,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
         <v>102</v>
       </c>
@@ -2575,7 +3100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F17" t="s">
         <v>106</v>
       </c>
@@ -2607,7 +3132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F18" t="s">
         <v>110</v>
       </c>
@@ -2639,7 +3164,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
         <v>114</v>
       </c>
@@ -2671,7 +3196,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F20" t="s">
         <v>118</v>
       </c>
@@ -2703,7 +3228,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F21" t="s">
         <v>122</v>
       </c>
@@ -2732,7 +3257,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
         <v>126</v>
       </c>
@@ -2764,7 +3289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F23" t="s">
         <v>130</v>
       </c>
@@ -2793,7 +3318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F24" t="s">
         <v>135</v>
       </c>
@@ -2825,7 +3350,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F25" t="s">
         <v>139</v>
       </c>
@@ -2857,7 +3382,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F26" t="s">
         <v>143</v>
       </c>
@@ -2889,7 +3414,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F27" t="s">
         <v>147</v>
       </c>
@@ -2918,7 +3443,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F28" t="s">
         <v>149</v>
       </c>
@@ -2950,7 +3475,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F29" t="s">
         <v>150</v>
       </c>
@@ -2980,6 +3505,380 @@
       </c>
       <c r="O29">
         <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F30" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" t="s">
+        <v>217</v>
+      </c>
+      <c r="H30" t="s">
+        <v>218</v>
+      </c>
+      <c r="J30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" t="s">
+        <v>72</v>
+      </c>
+      <c r="N30" t="s">
+        <v>70</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F31" t="s">
+        <v>220</v>
+      </c>
+      <c r="G31" t="s">
+        <v>221</v>
+      </c>
+      <c r="H31" t="s">
+        <v>222</v>
+      </c>
+      <c r="I31" t="s">
+        <v>223</v>
+      </c>
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s">
+        <v>216</v>
+      </c>
+      <c r="L31" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" t="s">
+        <v>76</v>
+      </c>
+      <c r="N31" t="s">
+        <v>224</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F32" t="s">
+        <v>225</v>
+      </c>
+      <c r="G32" t="s">
+        <v>226</v>
+      </c>
+      <c r="H32" t="s">
+        <v>227</v>
+      </c>
+      <c r="I32" t="s">
+        <v>228</v>
+      </c>
+      <c r="J32" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" t="s">
+        <v>216</v>
+      </c>
+      <c r="L32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32" t="s">
+        <v>76</v>
+      </c>
+      <c r="N32" t="s">
+        <v>229</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+      <c r="P32" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F33" t="s">
+        <v>230</v>
+      </c>
+      <c r="G33" t="s">
+        <v>231</v>
+      </c>
+      <c r="H33" t="s">
+        <v>232</v>
+      </c>
+      <c r="I33" t="s">
+        <v>233</v>
+      </c>
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s">
+        <v>216</v>
+      </c>
+      <c r="L33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" t="s">
+        <v>76</v>
+      </c>
+      <c r="N33" t="s">
+        <v>234</v>
+      </c>
+      <c r="O33">
+        <v>3</v>
+      </c>
+      <c r="P33" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F34" t="s">
+        <v>235</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H34" t="s">
+        <v>237</v>
+      </c>
+      <c r="I34" t="s">
+        <v>238</v>
+      </c>
+      <c r="J34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" t="s">
+        <v>216</v>
+      </c>
+      <c r="L34" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34" t="s">
+        <v>76</v>
+      </c>
+      <c r="N34" t="s">
+        <v>239</v>
+      </c>
+      <c r="O34">
+        <v>4</v>
+      </c>
+      <c r="P34" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F35" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" t="s">
+        <v>216</v>
+      </c>
+      <c r="L35" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35" t="s">
+        <v>76</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="O35">
+        <v>5</v>
+      </c>
+      <c r="P35" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F36" t="s">
+        <v>245</v>
+      </c>
+      <c r="G36" t="s">
+        <v>246</v>
+      </c>
+      <c r="H36" t="s">
+        <v>247</v>
+      </c>
+      <c r="I36" t="s">
+        <v>248</v>
+      </c>
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s">
+        <v>216</v>
+      </c>
+      <c r="L36" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" t="s">
+        <v>76</v>
+      </c>
+      <c r="N36" t="s">
+        <v>249</v>
+      </c>
+      <c r="O36">
+        <v>6</v>
+      </c>
+      <c r="P36" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="6:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="F37" t="s">
+        <v>250</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H37" t="s">
+        <v>251</v>
+      </c>
+      <c r="J37" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" t="s">
+        <v>216</v>
+      </c>
+      <c r="L37" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" t="s">
+        <v>72</v>
+      </c>
+      <c r="N37" t="s">
+        <v>101</v>
+      </c>
+      <c r="O37">
+        <v>7</v>
+      </c>
+      <c r="P37" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F38" t="s">
+        <v>252</v>
+      </c>
+      <c r="G38" t="s">
+        <v>253</v>
+      </c>
+      <c r="H38" t="s">
+        <v>254</v>
+      </c>
+      <c r="I38" t="s">
+        <v>255</v>
+      </c>
+      <c r="J38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" t="s">
+        <v>250</v>
+      </c>
+      <c r="L38" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" t="s">
+        <v>76</v>
+      </c>
+      <c r="N38" t="s">
+        <v>256</v>
+      </c>
+      <c r="O38">
+        <v>8</v>
+      </c>
+      <c r="P38" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F39" t="s">
+        <v>257</v>
+      </c>
+      <c r="G39" t="s">
+        <v>107</v>
+      </c>
+      <c r="H39" t="s">
+        <v>251</v>
+      </c>
+      <c r="I39" t="s">
+        <v>258</v>
+      </c>
+      <c r="J39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" t="s">
+        <v>250</v>
+      </c>
+      <c r="L39" t="s">
+        <v>14</v>
+      </c>
+      <c r="M39" t="s">
+        <v>76</v>
+      </c>
+      <c r="N39" t="s">
+        <v>109</v>
+      </c>
+      <c r="O39">
+        <v>9</v>
+      </c>
+      <c r="P39" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2995,10 +3894,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:G26"/>
+  <dimension ref="D7:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3012,7 +3911,7 @@
     <col min="9" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>151</v>
       </c>
@@ -3025,8 +3924,11 @@
       <c r="G7" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="8" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
         <v>73</v>
       </c>
@@ -3034,7 +3936,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>78</v>
       </c>
@@ -3042,7 +3944,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>78</v>
       </c>
@@ -3050,7 +3952,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>82</v>
       </c>
@@ -3058,7 +3960,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>86</v>
       </c>
@@ -3066,7 +3968,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>90</v>
       </c>
@@ -3074,7 +3976,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>94</v>
       </c>
@@ -3082,7 +3984,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F15" t="s">
         <v>102</v>
       </c>
@@ -3090,7 +3992,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
         <v>106</v>
       </c>
@@ -3098,7 +4000,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F17" t="s">
         <v>110</v>
       </c>
@@ -3106,7 +4008,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F18" t="s">
         <v>114</v>
       </c>
@@ -3114,7 +4016,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
         <v>118</v>
       </c>
@@ -3122,7 +4024,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F20" t="s">
         <v>126</v>
       </c>
@@ -3130,7 +4032,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F21" t="s">
         <v>135</v>
       </c>
@@ -3138,7 +4040,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
         <v>135</v>
       </c>
@@ -3146,7 +4048,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F23" t="s">
         <v>139</v>
       </c>
@@ -3154,7 +4056,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F24" t="s">
         <v>143</v>
       </c>
@@ -3162,7 +4064,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F25" t="s">
         <v>149</v>
       </c>
@@ -3170,12 +4072,100 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F26" t="s">
         <v>150</v>
       </c>
       <c r="G26" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F27" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" t="s">
+        <v>276</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F28" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" t="s">
+        <v>277</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F29" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" t="s">
+        <v>278</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F30" t="s">
+        <v>235</v>
+      </c>
+      <c r="G30" t="s">
+        <v>279</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F31" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F32" t="s">
+        <v>245</v>
+      </c>
+      <c r="G32" t="s">
+        <v>281</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F33" t="s">
+        <v>252</v>
+      </c>
+      <c r="G33" t="s">
+        <v>282</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F34" t="s">
+        <v>257</v>
+      </c>
+      <c r="G34" t="s">
+        <v>162</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="1580" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="2240" yWindow="460" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -1337,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25:O32"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2159,10 +2159,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:H83"/>
+  <dimension ref="D7:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2634,117 +2634,6 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F51" s="8"/>
-    </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F53" s="8"/>
-    </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F54" s="8"/>
-    </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F55" s="8"/>
-    </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F56" s="8"/>
-    </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F57" s="8"/>
-    </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F58" s="8"/>
-    </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F59" s="8"/>
-    </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F60" s="8"/>
-    </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F61" s="8"/>
-    </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F62" s="8"/>
-    </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F63" s="8"/>
-      <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F64" s="8"/>
-    </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F65" s="8"/>
-    </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F66" s="8"/>
-    </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F67" s="8"/>
-    </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F68" s="8"/>
-    </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F69" s="8"/>
-    </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F70" s="8"/>
-    </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F71" s="8"/>
-    </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F72" s="8"/>
-    </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F73" s="8"/>
-    </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F74" s="8"/>
-    </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F75" s="8"/>
-    </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F76" s="8"/>
-    </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F77" s="8"/>
-      <c r="H77" s="2"/>
-    </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F78" s="8"/>
-      <c r="H78" s="2"/>
-    </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F79" s="8"/>
-    </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F80" s="8"/>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F81" s="8"/>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F82" s="8"/>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F83" s="8"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2755,8 +2644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Q39"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="D40" sqref="A40:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3896,8 +3785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4183,8 +4072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:R14"/>
   <sheetViews>
-    <sheetView topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/agile-service/src/main/resources/script/front/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\agile-service\src\main\resources\script\front\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="460" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="2244" yWindow="456" windowWidth="32316" windowHeight="18984" tabRatio="743" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="285">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -771,7 +771,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>choerodon.code.program.</t>
     </r>
@@ -779,7 +779,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>board</t>
     </r>
@@ -795,7 +795,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>choerodon.route.program.</t>
     </r>
@@ -803,7 +803,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>board</t>
     </r>
@@ -922,7 +922,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>agile-service.</t>
     </r>
@@ -930,7 +930,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>board-feature</t>
     </r>
@@ -938,7 +938,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -946,7 +946,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>queryBoardInfo</t>
     </r>
@@ -956,13 +956,21 @@
   </si>
   <si>
     <t>agile-service.art.queryArtList</t>
+  </si>
+  <si>
+    <t>choerodon.code.agile.issue</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>iam-service.organization-project.getGroupInfoByEnableProject</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1337,29 +1345,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD65"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="57.3984375" customWidth="1"/>
-    <col min="7" max="7" width="23.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="57.44140625" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="14.19921875" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.59765625" customWidth="1"/>
-    <col min="14" max="14" width="19.3984375" customWidth="1"/>
+    <col min="12" max="12" width="19.21875" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="16" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1397,7 +1405,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:15" ht="12.75" customHeight="1">
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1426,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:15">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -1455,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:15">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -1484,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:15">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -1513,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:15">
       <c r="F12" t="s">
         <v>26</v>
       </c>
@@ -1542,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:15">
       <c r="F13" t="s">
         <v>29</v>
       </c>
@@ -1571,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:15">
       <c r="F14" t="s">
         <v>32</v>
       </c>
@@ -1600,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:15">
       <c r="F15" t="s">
         <v>35</v>
       </c>
@@ -1629,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:15">
       <c r="F16" t="s">
         <v>38</v>
       </c>
@@ -1658,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:15">
       <c r="F17" t="s">
         <v>41</v>
       </c>
@@ -1687,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:15">
       <c r="F18" t="s">
         <v>44</v>
       </c>
@@ -1716,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:15">
       <c r="F19" t="s">
         <v>47</v>
       </c>
@@ -1745,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:15">
       <c r="F20" t="s">
         <v>50</v>
       </c>
@@ -1774,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:15">
       <c r="F21" t="s">
         <v>54</v>
       </c>
@@ -1803,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:15">
       <c r="F22" t="s">
         <v>57</v>
       </c>
@@ -1832,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="6:15">
       <c r="F23" t="s">
         <v>60</v>
       </c>
@@ -1861,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="6:15">
       <c r="F24" t="s">
         <v>61</v>
       </c>
@@ -1890,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="6:15">
       <c r="F25" t="s">
         <v>223</v>
       </c>
@@ -1922,7 +1930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="6:15">
       <c r="F26" t="s">
         <v>228</v>
       </c>
@@ -1954,7 +1962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="6:15">
       <c r="F27" t="s">
         <v>233</v>
       </c>
@@ -1986,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="6:15">
       <c r="F28" t="s">
         <v>238</v>
       </c>
@@ -2018,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="6:15">
       <c r="F29" s="2" t="s">
         <v>243</v>
       </c>
@@ -2050,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="6:15">
       <c r="F30" t="s">
         <v>248</v>
       </c>
@@ -2082,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="6:15">
       <c r="F31" t="s">
         <v>255</v>
       </c>
@@ -2114,7 +2122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="6:15">
       <c r="F32" t="s">
         <v>258</v>
       </c>
@@ -2165,19 +2173,19 @@
       <selection activeCell="A48" sqref="A48:XFD83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="23.796875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="30.19921875" customWidth="1"/>
-    <col min="7" max="7" width="51.3984375" customWidth="1"/>
-    <col min="8" max="8" width="58.3984375" customWidth="1"/>
-    <col min="9" max="9" width="31.19921875" customWidth="1"/>
-    <col min="10" max="1026" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="30.21875" customWidth="1"/>
+    <col min="7" max="7" width="51.44140625" customWidth="1"/>
+    <col min="8" max="8" width="58.44140625" customWidth="1"/>
+    <col min="9" max="9" width="31.21875" customWidth="1"/>
+    <col min="10" max="1026" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:8" ht="12.75" customHeight="1">
       <c r="D7" s="8" t="s">
         <v>207</v>
       </c>
@@ -2194,7 +2202,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:8" ht="12.75" customHeight="1">
       <c r="F8" s="8" t="s">
         <v>210</v>
       </c>
@@ -2205,7 +2213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:8" ht="12.75" customHeight="1">
       <c r="F9" s="8" t="s">
         <v>210</v>
       </c>
@@ -2216,7 +2224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:8" ht="12.6">
       <c r="F10" s="8" t="s">
         <v>210</v>
       </c>
@@ -2227,7 +2235,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:8" ht="12.6">
       <c r="F11" s="8" t="s">
         <v>210</v>
       </c>
@@ -2238,7 +2246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:8" ht="12.6">
       <c r="F12" s="8" t="s">
         <v>210</v>
       </c>
@@ -2249,7 +2257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:8" ht="12.6">
       <c r="F13" s="8" t="s">
         <v>210</v>
       </c>
@@ -2260,7 +2268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:8" ht="12.6">
       <c r="F14" s="8" t="s">
         <v>210</v>
       </c>
@@ -2271,7 +2279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:8" ht="12.6">
       <c r="F15" s="8" t="s">
         <v>210</v>
       </c>
@@ -2282,7 +2290,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:8" ht="12.6">
       <c r="F16" s="8" t="s">
         <v>210</v>
       </c>
@@ -2293,7 +2301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:8" ht="12.6">
       <c r="F17" s="8" t="s">
         <v>210</v>
       </c>
@@ -2304,7 +2312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:8" ht="12.6">
       <c r="F18" s="8" t="s">
         <v>210</v>
       </c>
@@ -2315,7 +2323,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:8" ht="12.6">
       <c r="F19" s="8" t="s">
         <v>210</v>
       </c>
@@ -2326,7 +2334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:8" ht="12.6">
       <c r="F20" s="8" t="s">
         <v>210</v>
       </c>
@@ -2337,7 +2345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:8" ht="12.6">
       <c r="F21" s="8" t="s">
         <v>210</v>
       </c>
@@ -2348,7 +2356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:8" ht="12.6">
       <c r="F22" s="8" t="s">
         <v>210</v>
       </c>
@@ -2359,7 +2367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="6:8" ht="12.6">
       <c r="F23" s="8" t="s">
         <v>210</v>
       </c>
@@ -2370,7 +2378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="6:8" ht="12.6">
       <c r="F24" s="8" t="s">
         <v>210</v>
       </c>
@@ -2381,7 +2389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="6:8" ht="12.6">
       <c r="F25" s="8" t="s">
         <v>210</v>
       </c>
@@ -2392,7 +2400,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="6:8" ht="13.8">
       <c r="F26" s="8" t="s">
         <v>212</v>
       </c>
@@ -2403,7 +2411,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="6:8" ht="12.6">
       <c r="F27" s="8" t="s">
         <v>212</v>
       </c>
@@ -2414,7 +2422,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="6:8" ht="12.6">
       <c r="F28" s="8" t="s">
         <v>212</v>
       </c>
@@ -2425,7 +2433,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="6:8" ht="12.6">
       <c r="F29" s="8" t="s">
         <v>212</v>
       </c>
@@ -2436,7 +2444,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="6:8" ht="12.6">
       <c r="F30" s="8" t="s">
         <v>212</v>
       </c>
@@ -2447,7 +2455,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="6:8" ht="12.6">
       <c r="F31" s="8" t="s">
         <v>212</v>
       </c>
@@ -2458,7 +2466,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="32" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="6:8" ht="12.6">
       <c r="F32" s="8" t="s">
         <v>212</v>
       </c>
@@ -2469,7 +2477,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="6:8" ht="12.6">
       <c r="F33" s="8" t="s">
         <v>212</v>
       </c>
@@ -2480,7 +2488,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="6:8" ht="12.6">
       <c r="F34" s="8" t="s">
         <v>212</v>
       </c>
@@ -2491,7 +2499,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:8" ht="12.6">
       <c r="F35" s="8" t="s">
         <v>212</v>
       </c>
@@ -2502,7 +2510,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:8" ht="12.6">
       <c r="F36" s="8" t="s">
         <v>212</v>
       </c>
@@ -2513,7 +2521,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:8" ht="12.6">
       <c r="F37" s="8" t="s">
         <v>212</v>
       </c>
@@ -2524,7 +2532,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:8" ht="12.6">
       <c r="F38" s="8" t="s">
         <v>212</v>
       </c>
@@ -2535,7 +2543,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="39" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:8" ht="12.6">
       <c r="F39" s="8" t="s">
         <v>212</v>
       </c>
@@ -2546,7 +2554,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="40" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="6:8" ht="12.6">
       <c r="F40" s="8" t="s">
         <v>212</v>
       </c>
@@ -2557,7 +2565,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="6:8" ht="12.6">
       <c r="F41" s="8" t="s">
         <v>212</v>
       </c>
@@ -2568,7 +2576,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="6:8" ht="12.6">
       <c r="F42" s="8" t="s">
         <v>212</v>
       </c>
@@ -2579,7 +2587,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="43" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="6:8" ht="12.6">
       <c r="F43" s="8" t="s">
         <v>212</v>
       </c>
@@ -2590,7 +2598,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="44" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="6:8" ht="12.6">
       <c r="F44" s="8" t="s">
         <v>212</v>
       </c>
@@ -2601,7 +2609,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="6:8" ht="12.6">
       <c r="F45" s="8" t="s">
         <v>212</v>
       </c>
@@ -2612,7 +2620,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="6:8" ht="12.6">
       <c r="F46" s="8" t="s">
         <v>212</v>
       </c>
@@ -2623,7 +2631,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="6:8" ht="12.6">
       <c r="F47" s="8" t="s">
         <v>212</v>
       </c>
@@ -2648,22 +2656,22 @@
       <selection activeCell="D40" sqref="A40:XFD66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="64.3984375" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="64.44140625" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="35.796875" customWidth="1"/>
-    <col min="9" max="9" width="49.796875" customWidth="1"/>
-    <col min="10" max="10" width="18.59765625" customWidth="1"/>
+    <col min="8" max="8" width="35.77734375" customWidth="1"/>
+    <col min="9" max="9" width="49.77734375" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" customWidth="1"/>
     <col min="11" max="11" width="41" customWidth="1"/>
-    <col min="12" max="12" width="19.19921875" customWidth="1"/>
-    <col min="13" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="12" max="12" width="19.21875" customWidth="1"/>
+    <col min="13" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:17" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>62</v>
       </c>
@@ -2707,7 +2715,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:17" ht="12.75" customHeight="1">
       <c r="F8" s="1" t="s">
         <v>68</v>
       </c>
@@ -2736,7 +2744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:17">
       <c r="F9" t="s">
         <v>73</v>
       </c>
@@ -2768,7 +2776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:17">
       <c r="F10" t="s">
         <v>78</v>
       </c>
@@ -2800,7 +2808,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:17">
       <c r="F11" t="s">
         <v>82</v>
       </c>
@@ -2832,7 +2840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:17">
       <c r="F12" t="s">
         <v>86</v>
       </c>
@@ -2864,7 +2872,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:17">
       <c r="F13" t="s">
         <v>90</v>
       </c>
@@ -2896,7 +2904,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:17">
       <c r="F14" t="s">
         <v>94</v>
       </c>
@@ -2928,7 +2936,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="4:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:17" ht="14.4">
       <c r="F15" s="2" t="s">
         <v>213</v>
       </c>
@@ -2957,7 +2965,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:17">
       <c r="F16" t="s">
         <v>102</v>
       </c>
@@ -2989,7 +2997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="6:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:17">
       <c r="F17" t="s">
         <v>106</v>
       </c>
@@ -3021,7 +3029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="6:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:17">
       <c r="F18" t="s">
         <v>110</v>
       </c>
@@ -3053,7 +3061,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="6:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:17">
       <c r="F19" t="s">
         <v>114</v>
       </c>
@@ -3085,7 +3093,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="6:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:17">
       <c r="F20" t="s">
         <v>118</v>
       </c>
@@ -3117,7 +3125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="6:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:17">
       <c r="F21" t="s">
         <v>122</v>
       </c>
@@ -3146,7 +3154,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="6:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:17">
       <c r="F22" t="s">
         <v>126</v>
       </c>
@@ -3178,7 +3186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="6:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="6:17">
       <c r="F23" t="s">
         <v>130</v>
       </c>
@@ -3207,7 +3215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="6:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="6:17">
       <c r="F24" t="s">
         <v>135</v>
       </c>
@@ -3239,7 +3247,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="6:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="6:17">
       <c r="F25" t="s">
         <v>139</v>
       </c>
@@ -3271,7 +3279,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="6:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="6:17">
       <c r="F26" t="s">
         <v>143</v>
       </c>
@@ -3303,7 +3311,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="6:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="6:17">
       <c r="F27" t="s">
         <v>147</v>
       </c>
@@ -3332,7 +3340,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="6:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="6:17">
       <c r="F28" t="s">
         <v>149</v>
       </c>
@@ -3364,7 +3372,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="6:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="6:17">
       <c r="F29" t="s">
         <v>150</v>
       </c>
@@ -3396,7 +3404,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="6:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="6:17">
       <c r="F30" t="s">
         <v>216</v>
       </c>
@@ -3431,7 +3439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="6:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="6:17">
       <c r="F31" t="s">
         <v>220</v>
       </c>
@@ -3469,7 +3477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="6:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="6:17">
       <c r="F32" t="s">
         <v>225</v>
       </c>
@@ -3507,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="6:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="6:17">
       <c r="F33" t="s">
         <v>230</v>
       </c>
@@ -3545,7 +3553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="6:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="6:17">
       <c r="F34" t="s">
         <v>235</v>
       </c>
@@ -3583,7 +3591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="6:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:17">
       <c r="F35" s="2" t="s">
         <v>240</v>
       </c>
@@ -3621,7 +3629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="6:17" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:17">
       <c r="F36" t="s">
         <v>245</v>
       </c>
@@ -3659,7 +3667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="6:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:17" ht="14.4">
       <c r="F37" t="s">
         <v>250</v>
       </c>
@@ -3694,7 +3702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="6:17" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:17">
       <c r="F38" t="s">
         <v>252</v>
       </c>
@@ -3732,7 +3740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="6:17" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:17">
       <c r="F39" t="s">
         <v>257</v>
       </c>
@@ -3783,24 +3791,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:H34"/>
+  <dimension ref="D7:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD58"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="23.796875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="59.796875" customWidth="1"/>
-    <col min="7" max="7" width="58.3984375" customWidth="1"/>
-    <col min="8" max="8" width="31.19921875" customWidth="1"/>
-    <col min="9" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="59.77734375" customWidth="1"/>
+    <col min="7" max="7" width="58.44140625" customWidth="1"/>
+    <col min="8" max="8" width="31.21875" customWidth="1"/>
+    <col min="9" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:8" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>151</v>
       </c>
@@ -3817,7 +3825,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:8" ht="12.75" customHeight="1">
       <c r="F8" t="s">
         <v>73</v>
       </c>
@@ -3825,235 +3833,243 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:8" ht="12.75" customHeight="1">
       <c r="F9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8">
       <c r="F10" t="s">
         <v>78</v>
       </c>
       <c r="G10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8">
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F11" t="s">
+    <row r="12" spans="4:8">
+      <c r="F12" t="s">
         <v>82</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" t="s">
+    <row r="13" spans="4:8">
+      <c r="F13" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G13" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F13" t="s">
+    <row r="14" spans="4:8">
+      <c r="F14" t="s">
         <v>90</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F14" t="s">
+    <row r="15" spans="4:8">
+      <c r="F15" t="s">
         <v>94</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F15" t="s">
+    <row r="16" spans="4:8">
+      <c r="F16" t="s">
         <v>102</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F16" t="s">
+    <row r="17" spans="6:8">
+      <c r="F17" t="s">
         <v>106</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F17" t="s">
+    <row r="18" spans="6:8">
+      <c r="F18" t="s">
         <v>110</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F18" t="s">
+    <row r="19" spans="6:8">
+      <c r="F19" t="s">
         <v>114</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F19" t="s">
+    <row r="20" spans="6:8">
+      <c r="F20" t="s">
         <v>118</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F20" t="s">
+    <row r="21" spans="6:8">
+      <c r="F21" t="s">
         <v>126</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F21" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:8">
       <c r="F22" t="s">
         <v>135</v>
       </c>
       <c r="G22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8">
+      <c r="F23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F23" t="s">
+    <row r="24" spans="6:8">
+      <c r="F24" t="s">
         <v>139</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F24" t="s">
+    <row r="25" spans="6:8">
+      <c r="F25" t="s">
         <v>143</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G25" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F25" t="s">
+    <row r="26" spans="6:8">
+      <c r="F26" t="s">
         <v>149</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F26" t="s">
+    <row r="27" spans="6:8">
+      <c r="F27" t="s">
         <v>150</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F27" t="s">
+    <row r="28" spans="6:8">
+      <c r="F28" t="s">
         <v>220</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G28" t="s">
         <v>276</v>
       </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F28" t="s">
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="6:8">
+      <c r="F29" t="s">
         <v>225</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>277</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F29" t="s">
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="6:8">
+      <c r="F30" t="s">
         <v>230</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G30" t="s">
         <v>278</v>
       </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F30" t="s">
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="6:8">
+      <c r="F31" t="s">
         <v>235</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G31" t="s">
         <v>279</v>
       </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F31" s="2" t="s">
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="6:8">
+      <c r="F32" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F32" t="s">
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8">
+      <c r="F33" t="s">
         <v>245</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G33" t="s">
         <v>281</v>
       </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F33" t="s">
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8">
+      <c r="F34" t="s">
         <v>252</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G34" t="s">
         <v>282</v>
       </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F34" t="s">
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8">
+      <c r="F35" t="s">
         <v>257</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G35" t="s">
         <v>162</v>
       </c>
-      <c r="H34">
+      <c r="H35">
         <v>1</v>
       </c>
     </row>
@@ -4072,28 +4088,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.19921875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.19921875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.3984375" style="6" customWidth="1"/>
-    <col min="7" max="8" width="23.796875" style="6" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="6" customWidth="1"/>
+    <col min="7" max="8" width="23.77734375" style="6" customWidth="1"/>
     <col min="9" max="10" width="24" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.3984375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="11.59765625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="28.59765625" style="6" customWidth="1"/>
-    <col min="14" max="17" width="11.59765625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="46.3984375" style="6" customWidth="1"/>
-    <col min="19" max="1025" width="11.59765625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="28.5546875" style="6" customWidth="1"/>
+    <col min="14" max="17" width="11.5546875" style="6" customWidth="1"/>
+    <col min="18" max="18" width="46.44140625" style="6" customWidth="1"/>
+    <col min="19" max="1025" width="11.5546875" style="6" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:18">
       <c r="D7" s="6" t="s">
         <v>174</v>
       </c>
@@ -4140,7 +4156,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:18">
       <c r="E8" s="6" t="s">
         <v>182</v>
       </c>
@@ -4181,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:18">
       <c r="E9" s="6" t="s">
         <v>187</v>
       </c>
@@ -4222,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:18">
       <c r="E10" s="6" t="s">
         <v>190</v>
       </c>
@@ -4263,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:18">
       <c r="E11" s="6" t="s">
         <v>192</v>
       </c>
@@ -4304,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:18">
       <c r="E12" s="6" t="s">
         <v>195</v>
       </c>
@@ -4345,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:18">
       <c r="E13" s="6" t="s">
         <v>198</v>
       </c>
@@ -4389,7 +4405,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:18">
       <c r="E14" s="6" t="s">
         <v>202</v>
       </c>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\agile-service\src\main\resources\script\front\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/agile-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2244" yWindow="456" windowWidth="32316" windowHeight="18984" tabRatio="743" activeTab="3"/>
+    <workbookView xWindow="200" yWindow="460" windowWidth="32320" windowHeight="18980" tabRatio="743"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="286">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -771,7 +771,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>choerodon.code.program.</t>
     </r>
@@ -779,7 +779,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>board</t>
     </r>
@@ -795,7 +795,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>choerodon.route.program.</t>
     </r>
@@ -803,7 +803,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>board</t>
     </r>
@@ -922,7 +922,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>agile-service.</t>
     </r>
@@ -930,7 +930,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>board-feature</t>
     </r>
@@ -938,7 +938,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>.</t>
     </r>
@@ -946,7 +946,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>queryBoardInfo</t>
     </r>
@@ -963,14 +963,18 @@
   </si>
   <si>
     <t>iam-service.organization-project.getGroupInfoByEnableProject</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$DEL</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1345,29 +1349,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="57.44140625" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="57.3984375" customWidth="1"/>
+    <col min="7" max="7" width="23.59765625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" customWidth="1"/>
+    <col min="10" max="10" width="14.19921875" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.21875" customWidth="1"/>
-    <col min="13" max="13" width="18.5546875" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" customWidth="1"/>
+    <col min="13" max="13" width="18.59765625" customWidth="1"/>
+    <col min="14" max="14" width="19.3984375" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.5546875" customWidth="1"/>
+    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1402,10 +1406,10 @@
         <v>10</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="8" spans="4:15" ht="12.75" customHeight="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1434,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:15">
+    <row r="9" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -1463,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:15">
+    <row r="10" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -1492,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:15">
+    <row r="11" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -1521,7 +1525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:15">
+    <row r="12" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>26</v>
       </c>
@@ -1550,7 +1554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:15">
+    <row r="13" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>29</v>
       </c>
@@ -1579,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:15">
+    <row r="14" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>32</v>
       </c>
@@ -1608,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:15">
+    <row r="15" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F15" t="s">
         <v>35</v>
       </c>
@@ -1637,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:15">
+    <row r="16" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
         <v>38</v>
       </c>
@@ -1666,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:15">
+    <row r="17" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F17" t="s">
         <v>41</v>
       </c>
@@ -1695,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:15">
+    <row r="18" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F18" t="s">
         <v>44</v>
       </c>
@@ -1724,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:15">
+    <row r="19" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
         <v>47</v>
       </c>
@@ -1753,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:15">
+    <row r="20" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F20" t="s">
         <v>50</v>
       </c>
@@ -1782,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="6:15">
+    <row r="21" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F21" t="s">
         <v>54</v>
       </c>
@@ -1810,8 +1814,11 @@
       <c r="N21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="6:15">
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
         <v>57</v>
       </c>
@@ -1839,8 +1846,11 @@
       <c r="N22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="6:15">
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F23" t="s">
         <v>60</v>
       </c>
@@ -1868,8 +1878,11 @@
       <c r="N23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="6:15">
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F24" t="s">
         <v>61</v>
       </c>
@@ -1897,8 +1910,11 @@
       <c r="N24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="6:15">
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F25" t="s">
         <v>223</v>
       </c>
@@ -1930,7 +1946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="6:15">
+    <row r="26" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F26" t="s">
         <v>228</v>
       </c>
@@ -1962,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="6:15">
+    <row r="27" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F27" t="s">
         <v>233</v>
       </c>
@@ -1994,7 +2010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="6:15">
+    <row r="28" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F28" t="s">
         <v>238</v>
       </c>
@@ -2026,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="6:15">
+    <row r="29" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F29" s="2" t="s">
         <v>243</v>
       </c>
@@ -2058,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="6:15">
+    <row r="30" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F30" t="s">
         <v>248</v>
       </c>
@@ -2090,7 +2106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="6:15">
+    <row r="31" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F31" t="s">
         <v>255</v>
       </c>
@@ -2122,7 +2138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="6:15">
+    <row r="32" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F32" t="s">
         <v>258</v>
       </c>
@@ -2167,25 +2183,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:H47"/>
+  <dimension ref="D7:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="30.21875" customWidth="1"/>
-    <col min="7" max="7" width="51.44140625" customWidth="1"/>
-    <col min="8" max="8" width="58.44140625" customWidth="1"/>
-    <col min="9" max="9" width="31.21875" customWidth="1"/>
-    <col min="10" max="1026" width="11.5546875" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="30.19921875" customWidth="1"/>
+    <col min="7" max="7" width="51.3984375" customWidth="1"/>
+    <col min="8" max="8" width="58.3984375" customWidth="1"/>
+    <col min="9" max="9" width="31.19921875" customWidth="1"/>
+    <col min="10" max="1026" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="12.75" customHeight="1">
+    <row r="7" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="8" t="s">
         <v>207</v>
       </c>
@@ -2201,8 +2217,11 @@
       <c r="H7" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="8" spans="4:8" ht="12.75" customHeight="1">
+      <c r="I7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="8" t="s">
         <v>210</v>
       </c>
@@ -2213,7 +2232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="4:8" ht="12.75" customHeight="1">
+    <row r="9" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F9" s="8" t="s">
         <v>210</v>
       </c>
@@ -2224,7 +2243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="4:8" ht="12.6">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F10" s="8" t="s">
         <v>210</v>
       </c>
@@ -2235,7 +2254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="4:8" ht="12.6">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F11" s="8" t="s">
         <v>210</v>
       </c>
@@ -2246,7 +2265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="4:8" ht="12.6">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F12" s="8" t="s">
         <v>210</v>
       </c>
@@ -2257,7 +2276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="4:8" ht="12.6">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F13" s="8" t="s">
         <v>210</v>
       </c>
@@ -2268,7 +2287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="4:8" ht="12.6">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F14" s="8" t="s">
         <v>210</v>
       </c>
@@ -2279,7 +2298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="4:8" ht="12.6">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F15" s="8" t="s">
         <v>210</v>
       </c>
@@ -2290,7 +2309,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="4:8" ht="12.6">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F16" s="8" t="s">
         <v>210</v>
       </c>
@@ -2301,7 +2320,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="6:8" ht="12.6">
+    <row r="17" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F17" s="8" t="s">
         <v>210</v>
       </c>
@@ -2312,7 +2331,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="6:8" ht="12.6">
+    <row r="18" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F18" s="8" t="s">
         <v>210</v>
       </c>
@@ -2323,7 +2342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="6:8" ht="12.6">
+    <row r="19" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F19" s="8" t="s">
         <v>210</v>
       </c>
@@ -2334,7 +2353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="6:8" ht="12.6">
+    <row r="20" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F20" s="8" t="s">
         <v>210</v>
       </c>
@@ -2345,7 +2364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="6:8" ht="12.6">
+    <row r="21" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F21" s="8" t="s">
         <v>210</v>
       </c>
@@ -2356,7 +2375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="6:8" ht="12.6">
+    <row r="22" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F22" s="8" t="s">
         <v>210</v>
       </c>
@@ -2367,7 +2386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="6:8" ht="12.6">
+    <row r="23" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F23" s="8" t="s">
         <v>210</v>
       </c>
@@ -2377,8 +2396,11 @@
       <c r="H23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="6:8" ht="12.6">
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F24" s="8" t="s">
         <v>210</v>
       </c>
@@ -2388,8 +2410,11 @@
       <c r="H24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="6:8" ht="12.6">
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F25" s="8" t="s">
         <v>210</v>
       </c>
@@ -2399,8 +2424,11 @@
       <c r="H25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="6:8" ht="13.8">
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F26" s="8" t="s">
         <v>212</v>
       </c>
@@ -2411,7 +2439,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="6:8" ht="12.6">
+    <row r="27" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F27" s="8" t="s">
         <v>212</v>
       </c>
@@ -2422,7 +2450,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="6:8" ht="12.6">
+    <row r="28" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F28" s="8" t="s">
         <v>212</v>
       </c>
@@ -2433,7 +2461,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="6:8" ht="12.6">
+    <row r="29" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F29" s="8" t="s">
         <v>212</v>
       </c>
@@ -2444,7 +2472,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="6:8" ht="12.6">
+    <row r="30" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F30" s="8" t="s">
         <v>212</v>
       </c>
@@ -2455,7 +2483,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="6:8" ht="12.6">
+    <row r="31" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F31" s="8" t="s">
         <v>212</v>
       </c>
@@ -2466,7 +2494,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="32" spans="6:8" ht="12.6">
+    <row r="32" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F32" s="8" t="s">
         <v>212</v>
       </c>
@@ -2477,7 +2505,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="6:8" ht="12.6">
+    <row r="33" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F33" s="8" t="s">
         <v>212</v>
       </c>
@@ -2488,7 +2516,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="6:8" ht="12.6">
+    <row r="34" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F34" s="8" t="s">
         <v>212</v>
       </c>
@@ -2499,7 +2527,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="6:8" ht="12.6">
+    <row r="35" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F35" s="8" t="s">
         <v>212</v>
       </c>
@@ -2510,7 +2538,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="6:8" ht="12.6">
+    <row r="36" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F36" s="8" t="s">
         <v>212</v>
       </c>
@@ -2521,7 +2549,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="6:8" ht="12.6">
+    <row r="37" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F37" s="8" t="s">
         <v>212</v>
       </c>
@@ -2532,7 +2560,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="6:8" ht="12.6">
+    <row r="38" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F38" s="8" t="s">
         <v>212</v>
       </c>
@@ -2543,7 +2571,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="39" spans="6:8" ht="12.6">
+    <row r="39" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F39" s="8" t="s">
         <v>212</v>
       </c>
@@ -2554,7 +2582,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="40" spans="6:8" ht="12.6">
+    <row r="40" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F40" s="8" t="s">
         <v>212</v>
       </c>
@@ -2565,7 +2593,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="6:8" ht="12.6">
+    <row r="41" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F41" s="8" t="s">
         <v>212</v>
       </c>
@@ -2575,8 +2603,11 @@
       <c r="H41" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="42" spans="6:8" ht="12.6">
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F42" s="8" t="s">
         <v>212</v>
       </c>
@@ -2586,8 +2617,11 @@
       <c r="H42" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="43" spans="6:8" ht="12.6">
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F43" s="8" t="s">
         <v>212</v>
       </c>
@@ -2597,8 +2631,11 @@
       <c r="H43" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="44" spans="6:8" ht="12.6">
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F44" s="8" t="s">
         <v>212</v>
       </c>
@@ -2609,7 +2646,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="6:8" ht="12.6">
+    <row r="45" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F45" s="8" t="s">
         <v>212</v>
       </c>
@@ -2620,7 +2657,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="6:8" ht="12.6">
+    <row r="46" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F46" s="8" t="s">
         <v>212</v>
       </c>
@@ -2630,8 +2667,11 @@
       <c r="H46" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="47" spans="6:8" ht="12.6">
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F47" s="8" t="s">
         <v>212</v>
       </c>
@@ -2640,6 +2680,9 @@
       </c>
       <c r="H47" t="s">
         <v>52</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2652,26 +2695,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Q39"/>
   <sheetViews>
-    <sheetView topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="D40" sqref="A40:XFD66"/>
+    <sheetView topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="E25" sqref="A25:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="64.44140625" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="64.3984375" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="35.77734375" customWidth="1"/>
-    <col min="9" max="9" width="49.77734375" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="35.796875" customWidth="1"/>
+    <col min="9" max="9" width="49.796875" customWidth="1"/>
+    <col min="10" max="10" width="18.59765625" customWidth="1"/>
     <col min="11" max="11" width="41" customWidth="1"/>
-    <col min="12" max="12" width="19.21875" customWidth="1"/>
-    <col min="13" max="1025" width="11.5546875" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" customWidth="1"/>
+    <col min="13" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:17" ht="12.75" customHeight="1">
+    <row r="7" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>62</v>
       </c>
@@ -2715,7 +2758,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="4:17" ht="12.75" customHeight="1">
+    <row r="8" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>68</v>
       </c>
@@ -2744,7 +2787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:17">
+    <row r="9" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>73</v>
       </c>
@@ -2776,7 +2819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="4:17">
+    <row r="10" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>78</v>
       </c>
@@ -2808,7 +2851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="4:17">
+    <row r="11" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>82</v>
       </c>
@@ -2840,7 +2883,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="4:17">
+    <row r="12" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>86</v>
       </c>
@@ -2872,7 +2915,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="4:17">
+    <row r="13" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>90</v>
       </c>
@@ -2904,7 +2947,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="4:17">
+    <row r="14" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>94</v>
       </c>
@@ -2936,7 +2979,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="4:17" ht="14.4">
+    <row r="15" spans="4:17" ht="14" x14ac:dyDescent="0.15">
       <c r="F15" s="2" t="s">
         <v>213</v>
       </c>
@@ -2965,7 +3008,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="4:17">
+    <row r="16" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
         <v>102</v>
       </c>
@@ -2997,7 +3040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="6:17">
+    <row r="17" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F17" t="s">
         <v>106</v>
       </c>
@@ -3029,7 +3072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="6:17">
+    <row r="18" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F18" t="s">
         <v>110</v>
       </c>
@@ -3061,7 +3104,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="6:17">
+    <row r="19" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
         <v>114</v>
       </c>
@@ -3093,7 +3136,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="6:17">
+    <row r="20" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F20" t="s">
         <v>118</v>
       </c>
@@ -3125,7 +3168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="6:17">
+    <row r="21" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F21" t="s">
         <v>122</v>
       </c>
@@ -3154,7 +3197,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="6:17">
+    <row r="22" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
         <v>126</v>
       </c>
@@ -3186,7 +3229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="6:17">
+    <row r="23" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F23" t="s">
         <v>130</v>
       </c>
@@ -3215,7 +3258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="6:17">
+    <row r="24" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F24" t="s">
         <v>135</v>
       </c>
@@ -3247,7 +3290,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="6:17">
+    <row r="25" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F25" t="s">
         <v>139</v>
       </c>
@@ -3278,8 +3321,11 @@
       <c r="O25">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="6:17">
+      <c r="Q25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F26" t="s">
         <v>143</v>
       </c>
@@ -3310,8 +3356,11 @@
       <c r="O26">
         <v>110</v>
       </c>
-    </row>
-    <row r="27" spans="6:17">
+      <c r="Q26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F27" t="s">
         <v>147</v>
       </c>
@@ -3339,8 +3388,11 @@
       <c r="O27">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="6:17">
+      <c r="Q27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F28" t="s">
         <v>149</v>
       </c>
@@ -3371,8 +3423,11 @@
       <c r="O28">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="6:17">
+      <c r="Q28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F29" t="s">
         <v>150</v>
       </c>
@@ -3403,8 +3458,11 @@
       <c r="O29">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="6:17">
+      <c r="Q29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F30" t="s">
         <v>216</v>
       </c>
@@ -3439,7 +3497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="6:17">
+    <row r="31" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F31" t="s">
         <v>220</v>
       </c>
@@ -3477,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="6:17">
+    <row r="32" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F32" t="s">
         <v>225</v>
       </c>
@@ -3515,7 +3573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="6:17">
+    <row r="33" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F33" t="s">
         <v>230</v>
       </c>
@@ -3553,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="6:17">
+    <row r="34" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F34" t="s">
         <v>235</v>
       </c>
@@ -3591,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="6:17">
+    <row r="35" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F35" s="2" t="s">
         <v>240</v>
       </c>
@@ -3629,7 +3687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="6:17">
+    <row r="36" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F36" t="s">
         <v>245</v>
       </c>
@@ -3667,7 +3725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="6:17" ht="14.4">
+    <row r="37" spans="6:17" ht="14" x14ac:dyDescent="0.15">
       <c r="F37" t="s">
         <v>250</v>
       </c>
@@ -3702,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="6:17">
+    <row r="38" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F38" t="s">
         <v>252</v>
       </c>
@@ -3740,7 +3798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="6:17">
+    <row r="39" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F39" t="s">
         <v>257</v>
       </c>
@@ -3793,22 +3851,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="59.77734375" customWidth="1"/>
-    <col min="7" max="7" width="58.44140625" customWidth="1"/>
-    <col min="8" max="8" width="31.21875" customWidth="1"/>
-    <col min="9" max="1025" width="11.5546875" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="59.796875" customWidth="1"/>
+    <col min="7" max="7" width="76.796875" customWidth="1"/>
+    <col min="8" max="8" width="31.19921875" customWidth="1"/>
+    <col min="9" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="12.75" customHeight="1">
+    <row r="7" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>151</v>
       </c>
@@ -3825,7 +3883,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="4:8" ht="12.75" customHeight="1">
+    <row r="8" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
         <v>73</v>
       </c>
@@ -3833,7 +3891,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="4:8" ht="12.75" customHeight="1">
+    <row r="9" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>73</v>
       </c>
@@ -3841,7 +3899,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="4:8">
+    <row r="10" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>78</v>
       </c>
@@ -3849,7 +3907,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="4:8">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>78</v>
       </c>
@@ -3857,7 +3915,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="4:8">
+    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>82</v>
       </c>
@@ -3865,7 +3923,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="4:8">
+    <row r="13" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F13" s="2" t="s">
         <v>283</v>
       </c>
@@ -3873,7 +3931,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="4:8">
+    <row r="14" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>90</v>
       </c>
@@ -3881,7 +3939,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="4:8">
+    <row r="15" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F15" t="s">
         <v>94</v>
       </c>
@@ -3889,7 +3947,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="4:8">
+    <row r="16" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
         <v>102</v>
       </c>
@@ -3897,7 +3955,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="6:8">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F17" t="s">
         <v>106</v>
       </c>
@@ -3905,7 +3963,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="6:8">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F18" t="s">
         <v>110</v>
       </c>
@@ -3913,7 +3971,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="6:8">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
         <v>114</v>
       </c>
@@ -3921,7 +3979,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="6:8">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F20" t="s">
         <v>118</v>
       </c>
@@ -3929,7 +3987,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="6:8">
+    <row r="21" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F21" t="s">
         <v>126</v>
       </c>
@@ -3937,7 +3995,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="6:8">
+    <row r="22" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
         <v>135</v>
       </c>
@@ -3945,7 +4003,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="6:8">
+    <row r="23" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F23" t="s">
         <v>135</v>
       </c>
@@ -3953,39 +4011,51 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="6:8">
+    <row r="24" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F24" t="s">
         <v>139</v>
       </c>
       <c r="G24" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="25" spans="6:8">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F25" t="s">
         <v>143</v>
       </c>
       <c r="G25" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="26" spans="6:8">
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F26" t="s">
         <v>149</v>
       </c>
       <c r="G26" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="27" spans="6:8">
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F27" t="s">
         <v>150</v>
       </c>
       <c r="G27" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="28" spans="6:8">
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F28" t="s">
         <v>220</v>
       </c>
@@ -3996,7 +4066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="6:8">
+    <row r="29" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F29" t="s">
         <v>225</v>
       </c>
@@ -4007,7 +4077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="6:8">
+    <row r="30" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F30" t="s">
         <v>230</v>
       </c>
@@ -4018,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="6:8">
+    <row r="31" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F31" t="s">
         <v>235</v>
       </c>
@@ -4029,7 +4099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="6:8">
+    <row r="32" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F32" s="2" t="s">
         <v>240</v>
       </c>
@@ -4040,7 +4110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="6:8">
+    <row r="33" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F33" t="s">
         <v>245</v>
       </c>
@@ -4051,7 +4121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="6:8">
+    <row r="34" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F34" t="s">
         <v>252</v>
       </c>
@@ -4062,7 +4132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="6:8">
+    <row r="35" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F35" t="s">
         <v>257</v>
       </c>
@@ -4092,24 +4162,24 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="23.77734375" style="6" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="23.3984375" style="6" customWidth="1"/>
+    <col min="7" max="8" width="23.796875" style="6" customWidth="1"/>
     <col min="9" max="10" width="24" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="28.5546875" style="6" customWidth="1"/>
-    <col min="14" max="17" width="11.5546875" style="6" customWidth="1"/>
-    <col min="18" max="18" width="46.44140625" style="6" customWidth="1"/>
-    <col min="19" max="1025" width="11.5546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.3984375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="11.59765625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="28.59765625" style="6" customWidth="1"/>
+    <col min="14" max="17" width="11.59765625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="46.3984375" style="6" customWidth="1"/>
+    <col min="19" max="1025" width="11.59765625" style="6" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:18">
+    <row r="7" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D7" s="6" t="s">
         <v>174</v>
       </c>
@@ -4156,7 +4226,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="4:18">
+    <row r="8" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E8" s="6" t="s">
         <v>182</v>
       </c>
@@ -4197,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:18">
+    <row r="9" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E9" s="6" t="s">
         <v>187</v>
       </c>
@@ -4238,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:18">
+    <row r="10" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E10" s="6" t="s">
         <v>190</v>
       </c>
@@ -4279,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:18">
+    <row r="11" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E11" s="6" t="s">
         <v>192</v>
       </c>
@@ -4320,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:18">
+    <row r="12" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E12" s="6" t="s">
         <v>195</v>
       </c>
@@ -4361,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:18">
+    <row r="13" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E13" s="6" t="s">
         <v>198</v>
       </c>
@@ -4405,7 +4475,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="4:18">
+    <row r="14" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E14" s="6" t="s">
         <v>202</v>
       </c>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="200" yWindow="460" windowWidth="32320" windowHeight="18980" tabRatio="743"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="743"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="351">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -532,21 +532,6 @@
   </si>
   <si>
     <t>agile-service.time-zone-work-calendar.queryTimeZoneWorkCalendar</t>
-  </si>
-  <si>
-    <t>agile-service.time-zone-work-calendar.queryTimeZoneWorkCalendarRefByTimeZoneId</t>
-  </si>
-  <si>
-    <t>foundation-service.object-scheme.pageQuery</t>
-  </si>
-  <si>
-    <t>foundation-service.page.pageQuery</t>
-  </si>
-  <si>
-    <t>foundation-service.project-object-scheme.pageQuery</t>
-  </si>
-  <si>
-    <t>foundation-service.project-page.pageQuery</t>
   </si>
   <si>
     <t>@SORT</t>
@@ -969,12 +954,269 @@
     <t>$DEL</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>choerodon.code.issue</t>
+  </si>
+  <si>
+    <t>问题设置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>choerodon.code.issue.issue-type-menu</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题类型设置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Issue Type Setting</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.issue</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>devops_chart</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.issue.issue-type</t>
+  </si>
+  <si>
+    <t>问题类型</t>
+  </si>
+  <si>
+    <t>Issue Type</t>
+  </si>
+  <si>
+    <t>choerodon.route.issue.issue-type</t>
+  </si>
+  <si>
+    <t>style</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.issue.issue-type-schemes</t>
+  </si>
+  <si>
+    <t>问题类型方案</t>
+  </si>
+  <si>
+    <t>Issue Type Schemes</t>
+  </si>
+  <si>
+    <t>choerodon.route.issue.issue-type-schemes</t>
+  </si>
+  <si>
+    <t>assignment_late</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.issue.state-machine-menu</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态机设置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>State Machine Setting</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge_request</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.issue.state-machine</t>
+  </si>
+  <si>
+    <t>状态机</t>
+  </si>
+  <si>
+    <t>StateMachine</t>
+  </si>
+  <si>
+    <t>choerodon.route.issue.state-machine</t>
+  </si>
+  <si>
+    <t>transform</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.issue.state-machine-schemes</t>
+  </si>
+  <si>
+    <t>状态机方案</t>
+  </si>
+  <si>
+    <t>StateMachine Schemes</t>
+  </si>
+  <si>
+    <t>choerodon.route.issue.state-machine-schemes</t>
+  </si>
+  <si>
+    <t>flip_to_back</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.issue.attribute-menu</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题属性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Issue Attribute</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseline-drag_indicator</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.issue.state</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>choerodon.route.issue.state</t>
+  </si>
+  <si>
+    <t>hdr_strong</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.issue.priorities</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>Priorities</t>
+  </si>
+  <si>
+    <t>choerodon.route.issue.priorities</t>
+  </si>
+  <si>
+    <t>format_list_numbered</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题类型路由</t>
+    <rPh sb="4" eb="5">
+      <t>lu'you</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题类型方案路由</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态机路由</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态机方案路由</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态路由</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级路由</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/agile/issue-type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/agile/issue-type-schemes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/agile/state-machines</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/agile/state-machine-schemes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/agile/states</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/agile/priorities</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.time-zone-work-calendar.queryTimeZoneWorkCalendarRefByTimeZoneId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.object-scheme.pageQuery</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.page.pageQuery</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.project-object-scheme.pageQuery</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.project-page.pageQuery</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.issue-type.queryIssueTypeList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.issue-type-scheme.queryIssueTypeSchemeList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.state-machine-scheme.pagingQuery</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.state-machine.pagingQuery</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.status.queryStatusList</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.priority.selectAll</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1014,6 +1256,17 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1035,7 +1288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1045,6 +1298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1347,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:O32"/>
+  <dimension ref="D7:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1406,7 +1660,7 @@
         <v>10</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1768,7 +2022,7 @@
         <v>13</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J20" t="s">
         <v>53</v>
@@ -1814,9 +2068,6 @@
       <c r="N21">
         <v>0</v>
       </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
     </row>
     <row r="22" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
@@ -1846,9 +2097,6 @@
       <c r="N22">
         <v>0</v>
       </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F23" t="s">
@@ -1878,16 +2126,13 @@
       <c r="N23">
         <v>0</v>
       </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
     </row>
     <row r="24" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F24" t="s">
         <v>61</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1910,16 +2155,13 @@
       <c r="N24">
         <v>0</v>
       </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
     </row>
     <row r="25" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F25" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G25" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -1928,7 +2170,7 @@
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K25" t="s">
         <v>16</v>
@@ -1948,10 +2190,10 @@
     </row>
     <row r="26" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F26" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G26" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -1960,7 +2202,7 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K26" t="s">
         <v>16</v>
@@ -1980,10 +2222,10 @@
     </row>
     <row r="27" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F27" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G27" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -1992,7 +2234,7 @@
         <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K27" t="s">
         <v>16</v>
@@ -2012,10 +2254,10 @@
     </row>
     <row r="28" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F28" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G28" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -2024,7 +2266,7 @@
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="K28" t="s">
         <v>16</v>
@@ -2044,10 +2286,10 @@
     </row>
     <row r="29" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F29" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -2056,7 +2298,7 @@
         <v>14</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="K29" t="s">
         <v>16</v>
@@ -2076,10 +2318,10 @@
     </row>
     <row r="30" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F30" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G30" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -2088,7 +2330,7 @@
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="K30" t="s">
         <v>16</v>
@@ -2108,10 +2350,10 @@
     </row>
     <row r="31" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F31" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G31" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -2120,7 +2362,7 @@
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K31" t="s">
         <v>16</v>
@@ -2140,10 +2382,10 @@
     </row>
     <row r="32" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F32" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G32" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
@@ -2168,6 +2410,180 @@
       </c>
       <c r="O32">
         <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F33" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" t="s">
+        <v>328</v>
+      </c>
+      <c r="K33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F34" t="s">
+        <v>298</v>
+      </c>
+      <c r="G34" t="s">
+        <v>335</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" t="s">
+        <v>329</v>
+      </c>
+      <c r="K34" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F35" t="s">
+        <v>307</v>
+      </c>
+      <c r="G35" t="s">
+        <v>336</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" t="s">
+        <v>330</v>
+      </c>
+      <c r="K35" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G36" t="s">
+        <v>337</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" t="s">
+        <v>331</v>
+      </c>
+      <c r="K36" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F37" t="s">
+        <v>321</v>
+      </c>
+      <c r="G37" t="s">
+        <v>338</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" t="s">
+        <v>332</v>
+      </c>
+      <c r="K37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F38" t="s">
+        <v>326</v>
+      </c>
+      <c r="G38" t="s">
+        <v>339</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" t="s">
+        <v>333</v>
+      </c>
+      <c r="K38" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2183,10 +2599,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:I47"/>
+  <dimension ref="D7:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:G25"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44:F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2203,27 +2619,27 @@
   <sheetData>
     <row r="7" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>152</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="I7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>68</v>
@@ -2234,7 +2650,7 @@
     </row>
     <row r="9" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F9" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G9" t="s">
         <v>73</v>
@@ -2245,7 +2661,7 @@
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F10" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G10" t="s">
         <v>78</v>
@@ -2256,7 +2672,7 @@
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F11" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G11" t="s">
         <v>82</v>
@@ -2267,7 +2683,7 @@
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F12" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G12" t="s">
         <v>86</v>
@@ -2278,7 +2694,7 @@
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F13" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G13" t="s">
         <v>90</v>
@@ -2289,7 +2705,7 @@
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F14" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G14" t="s">
         <v>94</v>
@@ -2300,10 +2716,10 @@
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F15" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -2311,7 +2727,7 @@
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F16" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G16" t="s">
         <v>102</v>
@@ -2320,9 +2736,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F17" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G17" t="s">
         <v>106</v>
@@ -2331,9 +2747,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F18" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G18" t="s">
         <v>110</v>
@@ -2342,9 +2758,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F19" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G19" t="s">
         <v>114</v>
@@ -2353,9 +2769,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F20" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G20" t="s">
         <v>118</v>
@@ -2364,9 +2780,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F21" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G21" t="s">
         <v>122</v>
@@ -2375,9 +2791,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="6:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F22" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G22" t="s">
         <v>126</v>
@@ -2386,9 +2802,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F23" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G23" t="s">
         <v>147</v>
@@ -2396,13 +2812,10 @@
       <c r="H23" t="s">
         <v>14</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F24" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G24" t="s">
         <v>149</v>
@@ -2410,13 +2823,10 @@
       <c r="H24" t="s">
         <v>14</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="6:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F25" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G25" t="s">
         <v>150</v>
@@ -2424,220 +2834,208 @@
       <c r="H25" t="s">
         <v>14</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="6:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F26" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>68</v>
       </c>
       <c r="H26" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="6:9" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F27" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G27" t="s">
         <v>73</v>
       </c>
       <c r="H27" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="28" spans="6:9" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F28" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G28" t="s">
         <v>78</v>
       </c>
       <c r="H28" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="29" spans="6:9" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F29" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G29" t="s">
         <v>82</v>
       </c>
       <c r="H29" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="30" spans="6:9" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F30" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G30" t="s">
         <v>86</v>
       </c>
       <c r="H30" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="31" spans="6:9" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F31" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G31" t="s">
         <v>90</v>
       </c>
       <c r="H31" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="32" spans="6:9" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F32" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G32" t="s">
         <v>94</v>
       </c>
       <c r="H32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F33" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H33" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="34" spans="6:9" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F34" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G34" t="s">
         <v>102</v>
       </c>
       <c r="H34" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="35" spans="6:9" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F35" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G35" t="s">
         <v>106</v>
       </c>
       <c r="H35" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="36" spans="6:9" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F36" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G36" t="s">
         <v>110</v>
       </c>
       <c r="H36" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="37" spans="6:9" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F37" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G37" t="s">
         <v>114</v>
       </c>
       <c r="H37" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="38" spans="6:9" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F38" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G38" t="s">
         <v>118</v>
       </c>
       <c r="H38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="39" spans="6:9" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F39" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G39" t="s">
         <v>122</v>
       </c>
       <c r="H39" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="40" spans="6:9" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F40" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G40" t="s">
         <v>126</v>
       </c>
       <c r="H40" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="41" spans="6:9" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F41" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G41" t="s">
         <v>147</v>
       </c>
       <c r="H41" t="s">
-        <v>215</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="6:9" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F42" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G42" t="s">
         <v>149</v>
       </c>
       <c r="H42" t="s">
-        <v>215</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="6:9" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F43" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G43" t="s">
         <v>150</v>
       </c>
       <c r="H43" t="s">
-        <v>215</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="6:9" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F44" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G44" t="s">
         <v>130</v>
@@ -2646,9 +3044,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="6:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F45" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G45" t="s">
         <v>135</v>
@@ -2657,9 +3055,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="6:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F46" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G46" t="s">
         <v>139</v>
@@ -2667,13 +3065,10 @@
       <c r="H46" t="s">
         <v>52</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="6:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F47" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G47" t="s">
         <v>143</v>
@@ -2681,8 +3076,115 @@
       <c r="H47" t="s">
         <v>52</v>
       </c>
-      <c r="I47">
-        <v>1</v>
+    </row>
+    <row r="48" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F48" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F49" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G49" t="s">
+        <v>284</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F50" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G50" t="s">
+        <v>290</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F51" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G51" t="s">
+        <v>295</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F52" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G52" t="s">
+        <v>300</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F53" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G53" t="s">
+        <v>304</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F54" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G54" t="s">
+        <v>309</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F55" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G55" t="s">
+        <v>314</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F56" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G56" t="s">
+        <v>318</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F57" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G57" t="s">
+        <v>323</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2693,10 +3195,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:Q39"/>
+  <dimension ref="D7:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="E25" sqref="A25:XFD29"/>
+    <sheetView topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39:J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2737,25 +3239,25 @@
         <v>4</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N7" t="s">
         <v>66</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="P7" t="s">
         <v>67</v>
       </c>
       <c r="Q7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2981,7 +3483,7 @@
     </row>
     <row r="15" spans="4:17" ht="14" x14ac:dyDescent="0.15">
       <c r="F15" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>99</v>
@@ -3321,9 +3823,6 @@
       <c r="O25">
         <v>100</v>
       </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
     </row>
     <row r="26" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F26" t="s">
@@ -3356,9 +3855,6 @@
       <c r="O26">
         <v>110</v>
       </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
     </row>
     <row r="27" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F27" t="s">
@@ -3388,9 +3884,6 @@
       <c r="O27">
         <v>90</v>
       </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
     </row>
     <row r="28" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F28" t="s">
@@ -3423,9 +3916,6 @@
       <c r="O28">
         <v>50</v>
       </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
     </row>
     <row r="29" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F29" t="s">
@@ -3458,19 +3948,16 @@
       <c r="O29">
         <v>60</v>
       </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
     </row>
     <row r="30" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F30" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G30" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H30" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J30" t="s">
         <v>13</v>
@@ -3491,7 +3978,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -3499,22 +3986,22 @@
     </row>
     <row r="31" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F31" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G31" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H31" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I31" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J31" t="s">
         <v>13</v>
       </c>
       <c r="K31" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L31" t="s">
         <v>14</v>
@@ -3523,13 +4010,13 @@
         <v>76</v>
       </c>
       <c r="N31" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="O31">
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -3537,22 +4024,22 @@
     </row>
     <row r="32" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F32" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G32" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H32" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I32" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="J32" t="s">
         <v>13</v>
       </c>
       <c r="K32" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L32" t="s">
         <v>14</v>
@@ -3561,13 +4048,13 @@
         <v>76</v>
       </c>
       <c r="N32" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="O32">
         <v>2</v>
       </c>
       <c r="P32" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -3575,22 +4062,22 @@
     </row>
     <row r="33" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F33" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G33" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H33" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I33" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J33" t="s">
         <v>13</v>
       </c>
       <c r="K33" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L33" t="s">
         <v>14</v>
@@ -3599,13 +4086,13 @@
         <v>76</v>
       </c>
       <c r="N33" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="O33">
         <v>3</v>
       </c>
       <c r="P33" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -3613,22 +4100,22 @@
     </row>
     <row r="34" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F34" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H34" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="I34" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="J34" t="s">
         <v>13</v>
       </c>
       <c r="K34" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L34" t="s">
         <v>14</v>
@@ -3637,13 +4124,13 @@
         <v>76</v>
       </c>
       <c r="N34" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="O34">
         <v>4</v>
       </c>
       <c r="P34" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -3651,22 +4138,22 @@
     </row>
     <row r="35" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F35" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="J35" t="s">
         <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L35" t="s">
         <v>14</v>
@@ -3675,13 +4162,13 @@
         <v>76</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="O35">
         <v>5</v>
       </c>
       <c r="P35" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -3689,22 +4176,22 @@
     </row>
     <row r="36" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F36" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G36" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H36" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="I36" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J36" t="s">
         <v>13</v>
       </c>
       <c r="K36" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L36" t="s">
         <v>14</v>
@@ -3713,13 +4200,13 @@
         <v>76</v>
       </c>
       <c r="N36" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O36">
         <v>6</v>
       </c>
       <c r="P36" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -3727,19 +4214,19 @@
     </row>
     <row r="37" spans="6:17" ht="14" x14ac:dyDescent="0.15">
       <c r="F37" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>99</v>
       </c>
       <c r="H37" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J37" t="s">
         <v>13</v>
       </c>
       <c r="K37" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L37" t="s">
         <v>14</v>
@@ -3754,7 +4241,7 @@
         <v>7</v>
       </c>
       <c r="P37" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q37">
         <v>1</v>
@@ -3762,22 +4249,22 @@
     </row>
     <row r="38" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F38" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G38" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H38" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I38" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J38" t="s">
         <v>13</v>
       </c>
       <c r="K38" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L38" t="s">
         <v>14</v>
@@ -3786,13 +4273,13 @@
         <v>76</v>
       </c>
       <c r="N38" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="O38">
         <v>8</v>
       </c>
       <c r="P38" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q38">
         <v>1</v>
@@ -3800,22 +4287,22 @@
     </row>
     <row r="39" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F39" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G39" t="s">
         <v>107</v>
       </c>
       <c r="H39" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="I39" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="J39" t="s">
         <v>13</v>
       </c>
       <c r="K39" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L39" t="s">
         <v>14</v>
@@ -3830,10 +4317,318 @@
         <v>9</v>
       </c>
       <c r="P39" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q39">
         <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F40" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" t="s">
+        <v>133</v>
+      </c>
+      <c r="L40" t="s">
+        <v>52</v>
+      </c>
+      <c r="M40" t="s">
+        <v>72</v>
+      </c>
+      <c r="N40" t="s">
+        <v>283</v>
+      </c>
+      <c r="O40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F41" t="s">
+        <v>284</v>
+      </c>
+      <c r="G41" t="s">
+        <v>285</v>
+      </c>
+      <c r="H41" t="s">
+        <v>286</v>
+      </c>
+      <c r="J41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" t="s">
+        <v>287</v>
+      </c>
+      <c r="L41" t="s">
+        <v>288</v>
+      </c>
+      <c r="M41" t="s">
+        <v>72</v>
+      </c>
+      <c r="N41" t="s">
+        <v>289</v>
+      </c>
+      <c r="O41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F42" t="s">
+        <v>290</v>
+      </c>
+      <c r="G42" t="s">
+        <v>291</v>
+      </c>
+      <c r="H42" t="s">
+        <v>292</v>
+      </c>
+      <c r="I42" t="s">
+        <v>293</v>
+      </c>
+      <c r="J42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" t="s">
+        <v>284</v>
+      </c>
+      <c r="L42" t="s">
+        <v>52</v>
+      </c>
+      <c r="M42" t="s">
+        <v>76</v>
+      </c>
+      <c r="N42" t="s">
+        <v>294</v>
+      </c>
+      <c r="O42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F43" t="s">
+        <v>295</v>
+      </c>
+      <c r="G43" t="s">
+        <v>296</v>
+      </c>
+      <c r="H43" t="s">
+        <v>297</v>
+      </c>
+      <c r="I43" t="s">
+        <v>298</v>
+      </c>
+      <c r="J43" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" t="s">
+        <v>284</v>
+      </c>
+      <c r="L43" t="s">
+        <v>52</v>
+      </c>
+      <c r="M43" t="s">
+        <v>76</v>
+      </c>
+      <c r="N43" t="s">
+        <v>299</v>
+      </c>
+      <c r="O43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F44" t="s">
+        <v>300</v>
+      </c>
+      <c r="G44" t="s">
+        <v>301</v>
+      </c>
+      <c r="H44" t="s">
+        <v>302</v>
+      </c>
+      <c r="J44" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" t="s">
+        <v>287</v>
+      </c>
+      <c r="L44" t="s">
+        <v>288</v>
+      </c>
+      <c r="M44" t="s">
+        <v>72</v>
+      </c>
+      <c r="N44" t="s">
+        <v>303</v>
+      </c>
+      <c r="O44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F45" t="s">
+        <v>304</v>
+      </c>
+      <c r="G45" t="s">
+        <v>305</v>
+      </c>
+      <c r="H45" t="s">
+        <v>306</v>
+      </c>
+      <c r="I45" t="s">
+        <v>307</v>
+      </c>
+      <c r="J45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" t="s">
+        <v>300</v>
+      </c>
+      <c r="L45" t="s">
+        <v>52</v>
+      </c>
+      <c r="M45" t="s">
+        <v>76</v>
+      </c>
+      <c r="N45" t="s">
+        <v>308</v>
+      </c>
+      <c r="O45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F46" t="s">
+        <v>309</v>
+      </c>
+      <c r="G46" t="s">
+        <v>310</v>
+      </c>
+      <c r="H46" t="s">
+        <v>311</v>
+      </c>
+      <c r="I46" t="s">
+        <v>312</v>
+      </c>
+      <c r="J46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" t="s">
+        <v>300</v>
+      </c>
+      <c r="L46" t="s">
+        <v>52</v>
+      </c>
+      <c r="M46" t="s">
+        <v>76</v>
+      </c>
+      <c r="N46" t="s">
+        <v>313</v>
+      </c>
+      <c r="O46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F47" t="s">
+        <v>314</v>
+      </c>
+      <c r="G47" t="s">
+        <v>315</v>
+      </c>
+      <c r="H47" t="s">
+        <v>316</v>
+      </c>
+      <c r="J47" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" t="s">
+        <v>287</v>
+      </c>
+      <c r="L47" t="s">
+        <v>288</v>
+      </c>
+      <c r="M47" t="s">
+        <v>72</v>
+      </c>
+      <c r="N47" t="s">
+        <v>317</v>
+      </c>
+      <c r="O47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F48" t="s">
+        <v>318</v>
+      </c>
+      <c r="G48" t="s">
+        <v>319</v>
+      </c>
+      <c r="H48" t="s">
+        <v>320</v>
+      </c>
+      <c r="I48" t="s">
+        <v>321</v>
+      </c>
+      <c r="J48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" t="s">
+        <v>314</v>
+      </c>
+      <c r="L48" t="s">
+        <v>52</v>
+      </c>
+      <c r="M48" t="s">
+        <v>76</v>
+      </c>
+      <c r="N48" t="s">
+        <v>322</v>
+      </c>
+      <c r="O48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F49" t="s">
+        <v>323</v>
+      </c>
+      <c r="G49" t="s">
+        <v>324</v>
+      </c>
+      <c r="H49" t="s">
+        <v>325</v>
+      </c>
+      <c r="I49" t="s">
+        <v>326</v>
+      </c>
+      <c r="J49" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" t="s">
+        <v>314</v>
+      </c>
+      <c r="L49" t="s">
+        <v>52</v>
+      </c>
+      <c r="M49" t="s">
+        <v>76</v>
+      </c>
+      <c r="N49" t="s">
+        <v>327</v>
+      </c>
+      <c r="O49">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3849,10 +4644,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:H35"/>
+  <dimension ref="D7:H41"/>
   <sheetViews>
     <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:H27"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3880,7 +4675,7 @@
         <v>153</v>
       </c>
       <c r="H7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3896,7 +4691,7 @@
         <v>73</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.15">
@@ -3925,7 +4720,7 @@
     </row>
     <row r="13" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F13" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G13" t="s">
         <v>158</v>
@@ -4008,7 +4803,7 @@
         <v>135</v>
       </c>
       <c r="G23" t="s">
-        <v>167</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="6:8" x14ac:dyDescent="0.15">
@@ -4016,10 +4811,7 @@
         <v>139</v>
       </c>
       <c r="G24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="6:8" x14ac:dyDescent="0.15">
@@ -4027,10 +4819,7 @@
         <v>143</v>
       </c>
       <c r="G25" t="s">
-        <v>169</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="6:8" x14ac:dyDescent="0.15">
@@ -4038,10 +4827,7 @@
         <v>149</v>
       </c>
       <c r="G26" t="s">
-        <v>170</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="6:8" x14ac:dyDescent="0.15">
@@ -4049,18 +4835,15 @@
         <v>150</v>
       </c>
       <c r="G27" t="s">
-        <v>171</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F28" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G28" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -4068,10 +4851,10 @@
     </row>
     <row r="29" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F29" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G29" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -4079,10 +4862,10 @@
     </row>
     <row r="30" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F30" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G30" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -4090,10 +4873,10 @@
     </row>
     <row r="31" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F31" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G31" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -4101,10 +4884,10 @@
     </row>
     <row r="32" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F32" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -4112,10 +4895,10 @@
     </row>
     <row r="33" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F33" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G33" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -4123,10 +4906,10 @@
     </row>
     <row r="34" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F34" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G34" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -4134,13 +4917,61 @@
     </row>
     <row r="35" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F35" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G35" t="s">
         <v>162</v>
       </c>
       <c r="H35">
         <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F36" t="s">
+        <v>290</v>
+      </c>
+      <c r="G36" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F37" t="s">
+        <v>295</v>
+      </c>
+      <c r="G37" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F38" t="s">
+        <v>304</v>
+      </c>
+      <c r="G38" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F39" t="s">
+        <v>309</v>
+      </c>
+      <c r="G39" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F40" t="s">
+        <v>318</v>
+      </c>
+      <c r="G40" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F41" t="s">
+        <v>323</v>
+      </c>
+      <c r="G41" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -4158,8 +4989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:R14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4181,7 +5012,7 @@
   <sheetData>
     <row r="7" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D7" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>1</v>
@@ -4190,7 +5021,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>63</v>
@@ -4199,13 +5030,13 @@
         <v>64</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>6</v>
@@ -4214,48 +5045,48 @@
         <v>66</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E8" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="O8" s="6">
         <v>1</v>
@@ -4269,34 +5100,34 @@
     </row>
     <row r="9" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E9" s="6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="O9" s="6">
         <v>2</v>
@@ -4310,31 +5141,31 @@
     </row>
     <row r="10" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E10" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L10" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>72</v>
@@ -4351,34 +5182,34 @@
     </row>
     <row r="11" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E11" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="O11" s="6">
         <v>4</v>
@@ -4392,34 +5223,34 @@
     </row>
     <row r="12" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E12" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="O12" s="6">
         <v>5</v>
@@ -4433,34 +5264,34 @@
     </row>
     <row r="13" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E13" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="O13" s="6">
         <v>6</v>
@@ -4472,15 +5303,15 @@
         <v>1</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E14" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>79</v>
@@ -4489,16 +5320,16 @@
         <v>79</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>79</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>79</v>
@@ -4516,7 +5347,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/agile-service/src/main/resources/script/front/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\agile-service-0712\agile-service\src\main\resources\script\front\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FA2D36-8123-402F-897F-AAE04B4EC27C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="743"/>
+    <workbookView xWindow="6015" yWindow="0" windowWidth="15375" windowHeight="9330" tabRatio="743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="295">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -501,9 +502,6 @@
     <t>agile-service.board.queryByProjectId</t>
   </si>
   <si>
-    <t>agile-service.board.queryByOptions</t>
-  </si>
-  <si>
     <t>agile-service.issue.listEpic</t>
   </si>
   <si>
@@ -532,6 +530,21 @@
   </si>
   <si>
     <t>agile-service.time-zone-work-calendar.queryTimeZoneWorkCalendar</t>
+  </si>
+  <si>
+    <t>agile-service.time-zone-work-calendar.queryTimeZoneWorkCalendarRefByTimeZoneId</t>
+  </si>
+  <si>
+    <t>foundation-service.object-scheme.pageQuery</t>
+  </si>
+  <si>
+    <t>foundation-service.page.pageQuery</t>
+  </si>
+  <si>
+    <t>foundation-service.project-object-scheme.pageQuery</t>
+  </si>
+  <si>
+    <t>foundation-service.project-page.pageQuery</t>
   </si>
   <si>
     <t>@SORT</t>
@@ -756,7 +769,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>choerodon.code.program.</t>
     </r>
@@ -764,7 +777,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>board</t>
     </r>
@@ -780,7 +793,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>choerodon.route.program.</t>
     </r>
@@ -788,7 +801,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>board</t>
     </r>
@@ -907,7 +920,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>agile-service.</t>
     </r>
@@ -915,7 +928,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>board-feature</t>
     </r>
@@ -923,7 +936,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -931,7 +944,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>queryBoardInfo</t>
     </r>
@@ -955,268 +968,51 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>choerodon.code.issue</t>
-  </si>
-  <si>
-    <t>问题设置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>choerodon.code.issue.issue-type-menu</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题类型设置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Issue Type Setting</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.issue</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>devops_chart</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.issue.issue-type</t>
-  </si>
-  <si>
-    <t>问题类型</t>
-  </si>
-  <si>
-    <t>Issue Type</t>
-  </si>
-  <si>
-    <t>choerodon.route.issue.issue-type</t>
-  </si>
-  <si>
-    <t>style</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.issue.issue-type-schemes</t>
-  </si>
-  <si>
-    <t>问题类型方案</t>
-  </si>
-  <si>
-    <t>Issue Type Schemes</t>
-  </si>
-  <si>
-    <t>choerodon.route.issue.issue-type-schemes</t>
-  </si>
-  <si>
-    <t>assignment_late</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.issue.state-machine-menu</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态机设置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>State Machine Setting</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>merge_request</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.issue.state-machine</t>
-  </si>
-  <si>
-    <t>状态机</t>
-  </si>
-  <si>
-    <t>StateMachine</t>
-  </si>
-  <si>
-    <t>choerodon.route.issue.state-machine</t>
-  </si>
-  <si>
-    <t>transform</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.issue.state-machine-schemes</t>
-  </si>
-  <si>
-    <t>状态机方案</t>
-  </si>
-  <si>
-    <t>StateMachine Schemes</t>
-  </si>
-  <si>
-    <t>choerodon.route.issue.state-machine-schemes</t>
-  </si>
-  <si>
-    <t>flip_to_back</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.issue.attribute-menu</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题属性</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Issue Attribute</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseline-drag_indicator</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.issue.state</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>choerodon.route.issue.state</t>
-  </si>
-  <si>
-    <t>hdr_strong</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.issue.priorities</t>
-  </si>
-  <si>
-    <t>优先级</t>
-  </si>
-  <si>
-    <t>Priorities</t>
-  </si>
-  <si>
-    <t>choerodon.route.issue.priorities</t>
-  </si>
-  <si>
-    <t>format_list_numbered</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题类型路由</t>
-    <rPh sb="4" eb="5">
-      <t>lu'you</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题类型方案路由</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态机路由</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态机方案路由</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态路由</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级路由</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/agile/issue-type</t>
+    <t>choerodon.route.agile.feedback</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>/agile/issue-type-schemes</t>
+    <t>/agile/feedback</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>/agile/state-machines</t>
+    <t>反馈中心路由</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>/agile/state-machine-schemes</t>
+    <t>choerodon.code.agile.feedback</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>/agile/states</t>
+    <t>agile-service.board.queryByOptions</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>/agile/priorities</t>
+    <t>AGILE</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>agile-service.time-zone-work-calendar.queryTimeZoneWorkCalendarRefByTimeZoneId</t>
+    <t>反馈中心</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>agile-service.object-scheme.pageQuery</t>
+    <t>Feedback Center</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>agile-service.page.pageQuery</t>
+    <t>center_focus_strong</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>agile-service.project-object-scheme.pageQuery</t>
+    <t>choerodon.code.feedback</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>agile-service.project-page.pageQuery</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>agile-service.issue-type.queryIssueTypeList</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>agile-service.issue-type-scheme.queryIssueTypeSchemeList</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>agile-service.state-machine-scheme.pagingQuery</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>agile-service.state-machine.pagingQuery</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>agile-service.status.queryStatusList</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>agile-service.priority.selectAll</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1256,17 +1052,6 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1288,7 +1073,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1298,7 +1083,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1600,32 +1384,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:O38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="D7:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="57.3984375" customWidth="1"/>
-    <col min="7" max="7" width="23.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="57.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="14.19921875" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.59765625" customWidth="1"/>
-    <col min="14" max="14" width="19.3984375" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="16" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1660,10 +1444,10 @@
         <v>10</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="8" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" ht="12.75" customHeight="1">
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1692,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:15">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -1721,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:15">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -1750,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:15">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -1779,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:15">
       <c r="F12" t="s">
         <v>26</v>
       </c>
@@ -1808,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:15">
       <c r="F13" t="s">
         <v>29</v>
       </c>
@@ -1837,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:15">
       <c r="F14" t="s">
         <v>32</v>
       </c>
@@ -1866,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:15">
       <c r="F15" t="s">
         <v>35</v>
       </c>
@@ -1895,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:15">
       <c r="F16" t="s">
         <v>38</v>
       </c>
@@ -1924,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:15">
       <c r="F17" t="s">
         <v>41</v>
       </c>
@@ -1953,12 +1737,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" t="s">
-        <v>45</v>
+    <row r="18" spans="6:15">
+      <c r="F18" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -1966,8 +1750,8 @@
       <c r="I18" t="s">
         <v>14</v>
       </c>
-      <c r="J18" t="s">
-        <v>46</v>
+      <c r="J18" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="K18" t="s">
         <v>16</v>
@@ -1982,12 +1766,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:15">
       <c r="F19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -1996,7 +1780,7 @@
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K19" t="s">
         <v>16</v>
@@ -2011,21 +1795,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:15">
       <c r="F20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>206</v>
+      <c r="I20" t="s">
+        <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s">
         <v>16</v>
@@ -2040,21 +1824,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:15">
       <c r="F21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
       </c>
-      <c r="I21" t="s">
-        <v>52</v>
+      <c r="I21" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K21" t="s">
         <v>16</v>
@@ -2069,12 +1853,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:15">
       <c r="F22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -2083,7 +1867,7 @@
         <v>52</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K22" t="s">
         <v>16</v>
@@ -2097,22 +1881,25 @@
       <c r="N22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="6:15">
       <c r="F23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="J23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K23" t="s">
         <v>16</v>
@@ -2126,13 +1913,16 @@
       <c r="N23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="6:15">
       <c r="F24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>201</v>
+        <v>60</v>
+      </c>
+      <c r="G24" t="s">
+        <v>55</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -2141,7 +1931,7 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K24" t="s">
         <v>16</v>
@@ -2155,13 +1945,16 @@
       <c r="N24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="6:15">
       <c r="F25" t="s">
-        <v>218</v>
-      </c>
-      <c r="G25" t="s">
-        <v>255</v>
+        <v>61</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -2170,7 +1963,7 @@
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>256</v>
+        <v>59</v>
       </c>
       <c r="K25" t="s">
         <v>16</v>
@@ -2188,12 +1981,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="6:15">
       <c r="F26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G26" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -2202,7 +1995,7 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K26" t="s">
         <v>16</v>
@@ -2220,12 +2013,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="6:15">
       <c r="F27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G27" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -2234,7 +2027,7 @@
         <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K27" t="s">
         <v>16</v>
@@ -2252,12 +2045,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="6:15">
       <c r="F28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G28" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -2266,7 +2059,7 @@
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s">
         <v>16</v>
@@ -2284,12 +2077,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F29" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>263</v>
+    <row r="29" spans="6:15">
+      <c r="F29" t="s">
+        <v>237</v>
+      </c>
+      <c r="G29" t="s">
+        <v>265</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -2297,8 +2090,8 @@
       <c r="I29" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>264</v>
+      <c r="J29" t="s">
+        <v>266</v>
       </c>
       <c r="K29" t="s">
         <v>16</v>
@@ -2316,12 +2109,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F30" t="s">
-        <v>243</v>
-      </c>
-      <c r="G30" t="s">
-        <v>265</v>
+    <row r="30" spans="6:15">
+      <c r="F30" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -2329,8 +2122,8 @@
       <c r="I30" t="s">
         <v>14</v>
       </c>
-      <c r="J30" t="s">
-        <v>266</v>
+      <c r="J30" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="K30" t="s">
         <v>16</v>
@@ -2348,12 +2141,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="6:15">
       <c r="F31" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G31" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -2362,7 +2155,7 @@
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K31" t="s">
         <v>16</v>
@@ -2380,12 +2173,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="6:15">
       <c r="F32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G32" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
@@ -2394,7 +2187,7 @@
         <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>37</v>
+        <v>272</v>
       </c>
       <c r="K32" t="s">
         <v>16</v>
@@ -2412,21 +2205,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F33" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>334</v>
+    <row r="33" spans="6:15">
+      <c r="F33" t="s">
+        <v>257</v>
+      </c>
+      <c r="G33" t="s">
+        <v>273</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
       </c>
       <c r="I33" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>328</v>
+        <v>37</v>
       </c>
       <c r="K33" t="s">
         <v>16</v>
@@ -2440,150 +2233,8 @@
       <c r="N33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F34" t="s">
-        <v>298</v>
-      </c>
-      <c r="G34" t="s">
-        <v>335</v>
-      </c>
-      <c r="H34" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" t="s">
-        <v>52</v>
-      </c>
-      <c r="J34" t="s">
-        <v>329</v>
-      </c>
-      <c r="K34" t="s">
-        <v>16</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F35" t="s">
-        <v>307</v>
-      </c>
-      <c r="G35" t="s">
-        <v>336</v>
-      </c>
-      <c r="H35" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" t="s">
-        <v>52</v>
-      </c>
-      <c r="J35" t="s">
-        <v>330</v>
-      </c>
-      <c r="K35" t="s">
-        <v>16</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F36" t="s">
-        <v>312</v>
-      </c>
-      <c r="G36" t="s">
-        <v>337</v>
-      </c>
-      <c r="H36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" t="s">
-        <v>331</v>
-      </c>
-      <c r="K36" t="s">
-        <v>16</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F37" t="s">
-        <v>321</v>
-      </c>
-      <c r="G37" t="s">
-        <v>338</v>
-      </c>
-      <c r="H37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" t="s">
-        <v>52</v>
-      </c>
-      <c r="J37" t="s">
-        <v>332</v>
-      </c>
-      <c r="K37" t="s">
-        <v>16</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F38" t="s">
-        <v>326</v>
-      </c>
-      <c r="G38" t="s">
-        <v>339</v>
-      </c>
-      <c r="H38" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" t="s">
-        <v>52</v>
-      </c>
-      <c r="J38" t="s">
-        <v>333</v>
-      </c>
-      <c r="K38" t="s">
-        <v>16</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
+      <c r="O33">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2598,48 +2249,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:I57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="D7:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44:F57"/>
+    <sheetView tabSelected="1" topLeftCell="F35" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="23.796875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="30.19921875" customWidth="1"/>
-    <col min="7" max="7" width="51.3984375" customWidth="1"/>
-    <col min="8" max="8" width="58.3984375" customWidth="1"/>
-    <col min="9" max="9" width="31.19921875" customWidth="1"/>
-    <col min="10" max="1026" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="51.42578125" customWidth="1"/>
+    <col min="8" max="8" width="58.42578125" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" customWidth="1"/>
+    <col min="10" max="1026" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:9" ht="12.75" customHeight="1">
       <c r="D7" s="8" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>152</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" ht="12.75" customHeight="1">
       <c r="F8" s="8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>68</v>
@@ -2648,9 +2299,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:9" ht="12.75" customHeight="1">
       <c r="F9" s="8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G9" t="s">
         <v>73</v>
@@ -2659,9 +2310,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:9">
       <c r="F10" s="8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G10" t="s">
         <v>78</v>
@@ -2670,9 +2321,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:9">
       <c r="F11" s="8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G11" t="s">
         <v>82</v>
@@ -2681,9 +2332,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:9">
       <c r="F12" s="8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G12" t="s">
         <v>86</v>
@@ -2692,9 +2343,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:9">
       <c r="F13" s="8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G13" t="s">
         <v>90</v>
@@ -2703,9 +2354,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:9">
       <c r="F14" s="8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G14" t="s">
         <v>94</v>
@@ -2714,20 +2365,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:9">
       <c r="F15" s="8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:9">
       <c r="F16" s="8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G16" t="s">
         <v>102</v>
@@ -2736,9 +2387,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:9">
       <c r="F17" s="8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G17" t="s">
         <v>106</v>
@@ -2747,9 +2398,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:9">
       <c r="F18" s="8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G18" t="s">
         <v>110</v>
@@ -2758,9 +2409,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:9">
       <c r="F19" s="8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G19" t="s">
         <v>114</v>
@@ -2769,9 +2420,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:9">
       <c r="F20" s="8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
         <v>118</v>
@@ -2780,411 +2431,347 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:9">
       <c r="F21" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="G21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9">
+      <c r="F22" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" t="s">
         <v>122</v>
       </c>
-      <c r="H21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F22" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9">
+      <c r="F23" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" t="s">
         <v>126</v>
       </c>
-      <c r="H22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F23" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9">
+      <c r="F24" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G24" t="s">
         <v>147</v>
       </c>
-      <c r="H23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F24" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9">
+      <c r="F25" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" t="s">
         <v>149</v>
       </c>
-      <c r="H24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F25" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9">
+      <c r="F26" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" t="s">
         <v>150</v>
       </c>
-      <c r="H25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F26" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9">
+      <c r="F27" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H26" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F27" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="6:9">
+      <c r="F28" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" t="s">
         <v>73</v>
       </c>
-      <c r="H27" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F28" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="6:9">
+      <c r="F29" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G29" t="s">
         <v>78</v>
       </c>
-      <c r="H28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F29" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="6:9">
+      <c r="F30" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G30" t="s">
         <v>82</v>
       </c>
-      <c r="H29" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F30" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="6:9">
+      <c r="F31" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" t="s">
         <v>86</v>
       </c>
-      <c r="H30" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F31" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="6:9">
+      <c r="F32" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G32" t="s">
         <v>90</v>
       </c>
-      <c r="H31" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F32" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9">
+      <c r="F33" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G33" t="s">
         <v>94</v>
       </c>
-      <c r="H32" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F33" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="H33" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9">
       <c r="F34" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G34" t="s">
+        <v>211</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9">
+      <c r="F35" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G35" t="s">
         <v>102</v>
       </c>
-      <c r="H34" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F35" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9">
+      <c r="F36" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G36" t="s">
         <v>106</v>
       </c>
-      <c r="H35" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F36" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9">
+      <c r="F37" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G37" t="s">
         <v>110</v>
       </c>
-      <c r="H36" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F37" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9">
+      <c r="F38" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G38" t="s">
         <v>114</v>
       </c>
-      <c r="H37" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F38" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9">
+      <c r="F39" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G39" t="s">
         <v>118</v>
       </c>
-      <c r="H38" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="39" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F39" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9">
+      <c r="F40" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G40" t="s">
         <v>122</v>
       </c>
-      <c r="H39" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="40" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F40" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9">
+      <c r="F41" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G41" t="s">
         <v>126</v>
       </c>
-      <c r="H40" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="41" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F41" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9">
+      <c r="F42" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="6:9">
+      <c r="F43" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G43" t="s">
         <v>147</v>
       </c>
-      <c r="H41" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="42" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F42" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="H43" t="s">
+        <v>214</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="6:9">
+      <c r="F44" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G44" t="s">
         <v>149</v>
       </c>
-      <c r="H42" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="43" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F43" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="H44" t="s">
+        <v>214</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="6:9">
+      <c r="F45" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G45" t="s">
         <v>150</v>
       </c>
-      <c r="H43" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="44" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F44" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="H45" t="s">
+        <v>214</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="6:9">
+      <c r="F46" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G46" t="s">
         <v>130</v>
-      </c>
-      <c r="H44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F45" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G45" t="s">
-        <v>135</v>
-      </c>
-      <c r="H45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F46" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G46" t="s">
-        <v>139</v>
       </c>
       <c r="H46" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="6:9">
       <c r="F47" s="8" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G47" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H47" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="6:9">
       <c r="F48" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="H48" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G48" t="s">
+        <v>139</v>
+      </c>
+      <c r="H48" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="6:9">
       <c r="F49" s="8" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G49" t="s">
-        <v>284</v>
-      </c>
-      <c r="H49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F50" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G50" t="s">
-        <v>290</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F51" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G51" t="s">
-        <v>295</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F52" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F53" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G53" t="s">
-        <v>304</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F54" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G54" t="s">
-        <v>309</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F55" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G55" t="s">
-        <v>314</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F56" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G56" t="s">
-        <v>318</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F57" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G57" t="s">
-        <v>323</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>52</v>
+      <c r="I49">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3194,29 +2781,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:Q49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="D7:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39:J49"/>
+    <sheetView topLeftCell="F9" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="64.3984375" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="64.42578125" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="35.796875" customWidth="1"/>
-    <col min="9" max="9" width="49.796875" customWidth="1"/>
-    <col min="10" max="10" width="18.59765625" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" customWidth="1"/>
+    <col min="9" max="9" width="49.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
     <col min="11" max="11" width="41" customWidth="1"/>
-    <col min="12" max="12" width="19.19921875" customWidth="1"/>
-    <col min="13" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:17" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>62</v>
       </c>
@@ -3239,28 +2826,28 @@
         <v>4</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="N7" t="s">
         <v>66</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P7" t="s">
         <v>67</v>
       </c>
       <c r="Q7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="4:17" ht="12.75" customHeight="1">
       <c r="F8" s="1" t="s">
         <v>68</v>
       </c>
@@ -3289,7 +2876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:17">
       <c r="F9" t="s">
         <v>73</v>
       </c>
@@ -3321,7 +2908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:17">
       <c r="F10" t="s">
         <v>78</v>
       </c>
@@ -3353,7 +2940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:17">
       <c r="F11" t="s">
         <v>82</v>
       </c>
@@ -3385,7 +2972,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:17">
       <c r="F12" t="s">
         <v>86</v>
       </c>
@@ -3417,7 +3004,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:17">
       <c r="F13" t="s">
         <v>90</v>
       </c>
@@ -3449,7 +3036,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:17">
       <c r="F14" t="s">
         <v>94</v>
       </c>
@@ -3481,15 +3068,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="4:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:17">
       <c r="F15" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" t="s">
-        <v>100</v>
+        <v>288</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
@@ -3501,59 +3091,56 @@
         <v>14</v>
       </c>
       <c r="M15" t="s">
+        <v>76</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="O15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="4:17" ht="12.75">
+      <c r="F16" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" t="s">
         <v>72</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N16" t="s">
         <v>101</v>
       </c>
-      <c r="O15">
+      <c r="O16">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="F16" t="s">
+    <row r="17" spans="6:17">
+      <c r="F17" t="s">
         <v>102</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>103</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" t="s">
         <v>104</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I17" t="s">
         <v>32</v>
-      </c>
-      <c r="J16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" t="s">
-        <v>98</v>
-      </c>
-      <c r="L16" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" t="s">
-        <v>76</v>
-      </c>
-      <c r="N16" t="s">
-        <v>105</v>
-      </c>
-      <c r="O16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" t="s">
-        <v>108</v>
-      </c>
-      <c r="I17" t="s">
-        <v>35</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
@@ -3568,24 +3155,24 @@
         <v>76</v>
       </c>
       <c r="N17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="6:17" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="6:17">
       <c r="F18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J18" t="s">
         <v>13</v>
@@ -3600,24 +3187,24 @@
         <v>76</v>
       </c>
       <c r="N18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="6:17" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="6:17">
       <c r="F19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s">
         <v>13</v>
@@ -3632,24 +3219,24 @@
         <v>76</v>
       </c>
       <c r="N19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O19">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="6:17" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="6:17">
       <c r="F20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s">
         <v>13</v>
@@ -3664,146 +3251,146 @@
         <v>76</v>
       </c>
       <c r="N20" t="s">
+        <v>117</v>
+      </c>
+      <c r="O20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="6:17">
+      <c r="F21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" t="s">
+        <v>76</v>
+      </c>
+      <c r="N21" t="s">
         <v>121</v>
       </c>
-      <c r="O20">
+      <c r="O21">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F21" t="s">
+    <row r="22" spans="6:17">
+      <c r="F22" t="s">
         <v>122</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" t="s">
         <v>123</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H22" t="s">
         <v>124</v>
       </c>
-      <c r="J21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="J22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s">
         <v>71</v>
       </c>
-      <c r="L21" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="L22" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" t="s">
         <v>72</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N22" t="s">
         <v>125</v>
       </c>
-      <c r="O21">
+      <c r="O22">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F22" t="s">
+    <row r="23" spans="6:17">
+      <c r="F23" t="s">
         <v>126</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>127</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H23" t="s">
         <v>128</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I23" t="s">
         <v>47</v>
       </c>
-      <c r="J22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s">
         <v>122</v>
       </c>
-      <c r="L22" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="L23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" t="s">
         <v>76</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N23" t="s">
         <v>129</v>
-      </c>
-      <c r="O22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F23" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" t="s">
-        <v>131</v>
-      </c>
-      <c r="H23" t="s">
-        <v>132</v>
-      </c>
-      <c r="J23" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" t="s">
-        <v>133</v>
-      </c>
-      <c r="L23" t="s">
-        <v>52</v>
-      </c>
-      <c r="M23" t="s">
-        <v>72</v>
-      </c>
-      <c r="N23" t="s">
-        <v>134</v>
       </c>
       <c r="O23">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="6:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="6:17">
       <c r="F24" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G24" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H24" t="s">
-        <v>137</v>
-      </c>
-      <c r="I24" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="J24" t="s">
         <v>13</v>
       </c>
       <c r="K24" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L24" t="s">
         <v>52</v>
       </c>
       <c r="M24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O24">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="6:17" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="6:17">
       <c r="F25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H25" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J25" t="s">
         <v>13</v>
@@ -3818,24 +3405,24 @@
         <v>76</v>
       </c>
       <c r="N25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="6:17" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="6:17">
       <c r="F26" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G26" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H26" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J26" t="s">
         <v>13</v>
@@ -3850,85 +3437,94 @@
         <v>76</v>
       </c>
       <c r="N26" t="s">
+        <v>142</v>
+      </c>
+      <c r="O26">
+        <v>100</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="6:17">
+      <c r="F27" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s">
+        <v>130</v>
+      </c>
+      <c r="L27" t="s">
+        <v>52</v>
+      </c>
+      <c r="M27" t="s">
+        <v>76</v>
+      </c>
+      <c r="N27" t="s">
         <v>146</v>
       </c>
-      <c r="O26">
+      <c r="O27">
         <v>110</v>
       </c>
-    </row>
-    <row r="27" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F27" t="s">
+      <c r="Q27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="6:17">
+      <c r="F28" t="s">
         <v>147</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G28" t="s">
         <v>107</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H28" t="s">
         <v>148</v>
       </c>
-      <c r="J27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="J28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" t="s">
         <v>71</v>
       </c>
-      <c r="L27" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="L28" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" t="s">
         <v>72</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N28" t="s">
         <v>134</v>
       </c>
-      <c r="O27">
+      <c r="O28">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F28" t="s">
+      <c r="Q28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="6:17">
+      <c r="F29" t="s">
         <v>149</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>140</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H29" t="s">
         <v>141</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I29" t="s">
         <v>60</v>
-      </c>
-      <c r="J28" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28" t="s">
-        <v>147</v>
-      </c>
-      <c r="L28" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" t="s">
-        <v>76</v>
-      </c>
-      <c r="N28" t="s">
-        <v>142</v>
-      </c>
-      <c r="O28">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F29" t="s">
-        <v>150</v>
-      </c>
-      <c r="G29" t="s">
-        <v>144</v>
-      </c>
-      <c r="H29" t="s">
-        <v>145</v>
-      </c>
-      <c r="I29" t="s">
-        <v>61</v>
       </c>
       <c r="J29" t="s">
         <v>13</v>
@@ -3943,48 +3539,51 @@
         <v>76</v>
       </c>
       <c r="N29" t="s">
+        <v>142</v>
+      </c>
+      <c r="O29">
+        <v>50</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="6:17">
+      <c r="F30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" t="s">
+        <v>145</v>
+      </c>
+      <c r="I30" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" t="s">
+        <v>147</v>
+      </c>
+      <c r="L30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" t="s">
+        <v>76</v>
+      </c>
+      <c r="N30" t="s">
         <v>146</v>
       </c>
-      <c r="O29">
+      <c r="O30">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F30" t="s">
-        <v>211</v>
-      </c>
-      <c r="G30" t="s">
-        <v>212</v>
-      </c>
-      <c r="H30" t="s">
-        <v>213</v>
-      </c>
-      <c r="J30" t="s">
-        <v>13</v>
-      </c>
-      <c r="K30" t="s">
-        <v>71</v>
-      </c>
-      <c r="L30" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" t="s">
-        <v>72</v>
-      </c>
-      <c r="N30" t="s">
-        <v>70</v>
-      </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-      <c r="P30" t="s">
-        <v>214</v>
-      </c>
       <c r="Q30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="6:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="6:17">
       <c r="F31" t="s">
         <v>215</v>
       </c>
@@ -3994,52 +3593,49 @@
       <c r="H31" t="s">
         <v>217</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" t="s">
+        <v>72</v>
+      </c>
+      <c r="N31" t="s">
+        <v>70</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31" t="s">
         <v>218</v>
       </c>
-      <c r="J31" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" t="s">
-        <v>211</v>
-      </c>
-      <c r="L31" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" t="s">
-        <v>76</v>
-      </c>
-      <c r="N31" t="s">
+      <c r="Q31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="6:17">
+      <c r="F32" t="s">
         <v>219</v>
       </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>220</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>221</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>222</v>
       </c>
-      <c r="I32" t="s">
-        <v>223</v>
-      </c>
       <c r="J32" t="s">
         <v>13</v>
       </c>
       <c r="K32" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L32" t="s">
         <v>14</v>
@@ -4048,36 +3644,36 @@
         <v>76</v>
       </c>
       <c r="N32" t="s">
+        <v>223</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="6:17">
+      <c r="F33" t="s">
         <v>224</v>
       </c>
-      <c r="O32">
-        <v>2</v>
-      </c>
-      <c r="P32" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>225</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>226</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>227</v>
       </c>
-      <c r="I33" t="s">
-        <v>228</v>
-      </c>
       <c r="J33" t="s">
         <v>13</v>
       </c>
       <c r="K33" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L33" t="s">
         <v>14</v>
@@ -4086,36 +3682,36 @@
         <v>76</v>
       </c>
       <c r="N33" t="s">
+        <v>228</v>
+      </c>
+      <c r="O33">
+        <v>2</v>
+      </c>
+      <c r="P33" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="6:17">
+      <c r="F34" t="s">
         <v>229</v>
       </c>
-      <c r="O33">
-        <v>3</v>
-      </c>
-      <c r="P33" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>230</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" t="s">
         <v>231</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>232</v>
       </c>
-      <c r="I34" t="s">
-        <v>233</v>
-      </c>
       <c r="J34" t="s">
         <v>13</v>
       </c>
       <c r="K34" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L34" t="s">
         <v>14</v>
@@ -4124,36 +3720,36 @@
         <v>76</v>
       </c>
       <c r="N34" t="s">
+        <v>233</v>
+      </c>
+      <c r="O34">
+        <v>3</v>
+      </c>
+      <c r="P34" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="6:17">
+      <c r="F35" t="s">
         <v>234</v>
       </c>
-      <c r="O34">
-        <v>4</v>
-      </c>
-      <c r="P34" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" t="s">
         <v>236</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="I35" t="s">
         <v>237</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="J35" t="s">
         <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L35" t="s">
         <v>14</v>
@@ -4161,37 +3757,37 @@
       <c r="M35" t="s">
         <v>76</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="N35" t="s">
+        <v>238</v>
+      </c>
+      <c r="O35">
+        <v>4</v>
+      </c>
+      <c r="P35" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="6:17">
+      <c r="F36" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="O35">
-        <v>5</v>
-      </c>
-      <c r="P35" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F36" t="s">
+      <c r="G36" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="I36" t="s">
-        <v>243</v>
-      </c>
       <c r="J36" t="s">
         <v>13</v>
       </c>
       <c r="K36" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L36" t="s">
         <v>14</v>
@@ -4199,110 +3795,110 @@
       <c r="M36" t="s">
         <v>76</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N36" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="O36">
+        <v>5</v>
+      </c>
+      <c r="P36" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="6:17">
+      <c r="F37" t="s">
         <v>244</v>
       </c>
-      <c r="O36">
-        <v>6</v>
-      </c>
-      <c r="P36" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="6:17" ht="14" x14ac:dyDescent="0.15">
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>245</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="H37" t="s">
         <v>246</v>
       </c>
+      <c r="I37" t="s">
+        <v>247</v>
+      </c>
       <c r="J37" t="s">
         <v>13</v>
       </c>
       <c r="K37" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L37" t="s">
         <v>14</v>
       </c>
       <c r="M37" t="s">
+        <v>76</v>
+      </c>
+      <c r="N37" t="s">
+        <v>248</v>
+      </c>
+      <c r="O37">
+        <v>6</v>
+      </c>
+      <c r="P37" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="6:17" ht="12.75">
+      <c r="F38" t="s">
+        <v>249</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" t="s">
+        <v>250</v>
+      </c>
+      <c r="J38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" t="s">
+        <v>215</v>
+      </c>
+      <c r="L38" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" t="s">
         <v>72</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N38" t="s">
         <v>101</v>
       </c>
-      <c r="O37">
+      <c r="O38">
         <v>7</v>
       </c>
-      <c r="P37" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F38" t="s">
-        <v>247</v>
-      </c>
-      <c r="G38" t="s">
-        <v>248</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="P38" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="6:17">
+      <c r="F39" t="s">
+        <v>251</v>
+      </c>
+      <c r="G39" t="s">
+        <v>252</v>
+      </c>
+      <c r="H39" t="s">
+        <v>253</v>
+      </c>
+      <c r="I39" t="s">
+        <v>254</v>
+      </c>
+      <c r="J39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" t="s">
         <v>249</v>
-      </c>
-      <c r="I38" t="s">
-        <v>250</v>
-      </c>
-      <c r="J38" t="s">
-        <v>13</v>
-      </c>
-      <c r="K38" t="s">
-        <v>245</v>
-      </c>
-      <c r="L38" t="s">
-        <v>14</v>
-      </c>
-      <c r="M38" t="s">
-        <v>76</v>
-      </c>
-      <c r="N38" t="s">
-        <v>251</v>
-      </c>
-      <c r="O38">
-        <v>8</v>
-      </c>
-      <c r="P38" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F39" t="s">
-        <v>252</v>
-      </c>
-      <c r="G39" t="s">
-        <v>107</v>
-      </c>
-      <c r="H39" t="s">
-        <v>246</v>
-      </c>
-      <c r="I39" t="s">
-        <v>253</v>
-      </c>
-      <c r="J39" t="s">
-        <v>13</v>
-      </c>
-      <c r="K39" t="s">
-        <v>245</v>
       </c>
       <c r="L39" t="s">
         <v>14</v>
@@ -4311,324 +3907,54 @@
         <v>76</v>
       </c>
       <c r="N39" t="s">
+        <v>255</v>
+      </c>
+      <c r="O39">
+        <v>8</v>
+      </c>
+      <c r="P39" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="6:17">
+      <c r="F40" t="s">
+        <v>256</v>
+      </c>
+      <c r="G40" t="s">
+        <v>107</v>
+      </c>
+      <c r="H40" t="s">
+        <v>250</v>
+      </c>
+      <c r="I40" t="s">
+        <v>257</v>
+      </c>
+      <c r="J40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" t="s">
+        <v>249</v>
+      </c>
+      <c r="L40" t="s">
+        <v>14</v>
+      </c>
+      <c r="M40" t="s">
+        <v>76</v>
+      </c>
+      <c r="N40" t="s">
         <v>109</v>
       </c>
-      <c r="O39">
+      <c r="O40">
         <v>9</v>
       </c>
-      <c r="P39" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F40" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J40" t="s">
-        <v>13</v>
-      </c>
-      <c r="K40" t="s">
-        <v>133</v>
-      </c>
-      <c r="L40" t="s">
-        <v>52</v>
-      </c>
-      <c r="M40" t="s">
-        <v>72</v>
-      </c>
-      <c r="N40" t="s">
-        <v>283</v>
-      </c>
-      <c r="O40">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F41" t="s">
-        <v>284</v>
-      </c>
-      <c r="G41" t="s">
-        <v>285</v>
-      </c>
-      <c r="H41" t="s">
-        <v>286</v>
-      </c>
-      <c r="J41" t="s">
-        <v>13</v>
-      </c>
-      <c r="K41" t="s">
-        <v>287</v>
-      </c>
-      <c r="L41" t="s">
-        <v>288</v>
-      </c>
-      <c r="M41" t="s">
-        <v>72</v>
-      </c>
-      <c r="N41" t="s">
-        <v>289</v>
-      </c>
-      <c r="O41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F42" t="s">
-        <v>290</v>
-      </c>
-      <c r="G42" t="s">
-        <v>291</v>
-      </c>
-      <c r="H42" t="s">
-        <v>292</v>
-      </c>
-      <c r="I42" t="s">
-        <v>293</v>
-      </c>
-      <c r="J42" t="s">
-        <v>13</v>
-      </c>
-      <c r="K42" t="s">
-        <v>284</v>
-      </c>
-      <c r="L42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M42" t="s">
-        <v>76</v>
-      </c>
-      <c r="N42" t="s">
-        <v>294</v>
-      </c>
-      <c r="O42">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F43" t="s">
-        <v>295</v>
-      </c>
-      <c r="G43" t="s">
-        <v>296</v>
-      </c>
-      <c r="H43" t="s">
-        <v>297</v>
-      </c>
-      <c r="I43" t="s">
-        <v>298</v>
-      </c>
-      <c r="J43" t="s">
-        <v>13</v>
-      </c>
-      <c r="K43" t="s">
-        <v>284</v>
-      </c>
-      <c r="L43" t="s">
-        <v>52</v>
-      </c>
-      <c r="M43" t="s">
-        <v>76</v>
-      </c>
-      <c r="N43" t="s">
-        <v>299</v>
-      </c>
-      <c r="O43">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F44" t="s">
-        <v>300</v>
-      </c>
-      <c r="G44" t="s">
-        <v>301</v>
-      </c>
-      <c r="H44" t="s">
-        <v>302</v>
-      </c>
-      <c r="J44" t="s">
-        <v>13</v>
-      </c>
-      <c r="K44" t="s">
-        <v>287</v>
-      </c>
-      <c r="L44" t="s">
-        <v>288</v>
-      </c>
-      <c r="M44" t="s">
-        <v>72</v>
-      </c>
-      <c r="N44" t="s">
-        <v>303</v>
-      </c>
-      <c r="O44">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F45" t="s">
-        <v>304</v>
-      </c>
-      <c r="G45" t="s">
-        <v>305</v>
-      </c>
-      <c r="H45" t="s">
-        <v>306</v>
-      </c>
-      <c r="I45" t="s">
-        <v>307</v>
-      </c>
-      <c r="J45" t="s">
-        <v>13</v>
-      </c>
-      <c r="K45" t="s">
-        <v>300</v>
-      </c>
-      <c r="L45" t="s">
-        <v>52</v>
-      </c>
-      <c r="M45" t="s">
-        <v>76</v>
-      </c>
-      <c r="N45" t="s">
-        <v>308</v>
-      </c>
-      <c r="O45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F46" t="s">
-        <v>309</v>
-      </c>
-      <c r="G46" t="s">
-        <v>310</v>
-      </c>
-      <c r="H46" t="s">
-        <v>311</v>
-      </c>
-      <c r="I46" t="s">
-        <v>312</v>
-      </c>
-      <c r="J46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K46" t="s">
-        <v>300</v>
-      </c>
-      <c r="L46" t="s">
-        <v>52</v>
-      </c>
-      <c r="M46" t="s">
-        <v>76</v>
-      </c>
-      <c r="N46" t="s">
-        <v>313</v>
-      </c>
-      <c r="O46">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F47" t="s">
-        <v>314</v>
-      </c>
-      <c r="G47" t="s">
-        <v>315</v>
-      </c>
-      <c r="H47" t="s">
-        <v>316</v>
-      </c>
-      <c r="J47" t="s">
-        <v>13</v>
-      </c>
-      <c r="K47" t="s">
-        <v>287</v>
-      </c>
-      <c r="L47" t="s">
-        <v>288</v>
-      </c>
-      <c r="M47" t="s">
-        <v>72</v>
-      </c>
-      <c r="N47" t="s">
-        <v>317</v>
-      </c>
-      <c r="O47">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F48" t="s">
-        <v>318</v>
-      </c>
-      <c r="G48" t="s">
-        <v>319</v>
-      </c>
-      <c r="H48" t="s">
-        <v>320</v>
-      </c>
-      <c r="I48" t="s">
-        <v>321</v>
-      </c>
-      <c r="J48" t="s">
-        <v>13</v>
-      </c>
-      <c r="K48" t="s">
-        <v>314</v>
-      </c>
-      <c r="L48" t="s">
-        <v>52</v>
-      </c>
-      <c r="M48" t="s">
-        <v>76</v>
-      </c>
-      <c r="N48" t="s">
-        <v>322</v>
-      </c>
-      <c r="O48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F49" t="s">
-        <v>323</v>
-      </c>
-      <c r="G49" t="s">
-        <v>324</v>
-      </c>
-      <c r="H49" t="s">
-        <v>325</v>
-      </c>
-      <c r="I49" t="s">
-        <v>326</v>
-      </c>
-      <c r="J49" t="s">
-        <v>13</v>
-      </c>
-      <c r="K49" t="s">
-        <v>314</v>
-      </c>
-      <c r="L49" t="s">
-        <v>52</v>
-      </c>
-      <c r="M49" t="s">
-        <v>76</v>
-      </c>
-      <c r="N49" t="s">
-        <v>327</v>
-      </c>
-      <c r="O49">
-        <v>20</v>
+      <c r="P40" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4643,25 +3969,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:H41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="D7:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="23.796875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="59.796875" customWidth="1"/>
-    <col min="7" max="7" width="76.796875" customWidth="1"/>
-    <col min="8" max="8" width="31.19921875" customWidth="1"/>
-    <col min="9" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="59.85546875" customWidth="1"/>
+    <col min="7" max="7" width="76.85546875" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" customWidth="1"/>
+    <col min="9" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:8" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>151</v>
       </c>
@@ -4675,10 +4001,10 @@
         <v>153</v>
       </c>
       <c r="H7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" ht="12.75" customHeight="1">
       <c r="F8" t="s">
         <v>73</v>
       </c>
@@ -4686,15 +4012,15 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:8" ht="12.75" customHeight="1">
       <c r="F9" t="s">
         <v>73</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.15">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8">
       <c r="F10" t="s">
         <v>78</v>
       </c>
@@ -4702,276 +4028,240 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:8">
       <c r="F11" t="s">
         <v>78</v>
       </c>
-      <c r="G11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="G11" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8">
       <c r="F12" t="s">
         <v>82</v>
       </c>
       <c r="G12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8">
+      <c r="F13" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F13" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:8">
       <c r="F14" t="s">
         <v>90</v>
       </c>
       <c r="G14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8">
       <c r="F15" t="s">
         <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8">
       <c r="F16" t="s">
         <v>102</v>
       </c>
       <c r="G16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8">
       <c r="F17" t="s">
         <v>106</v>
       </c>
       <c r="G17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8">
       <c r="F18" t="s">
         <v>110</v>
       </c>
       <c r="G18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8">
       <c r="F19" t="s">
         <v>114</v>
       </c>
       <c r="G19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8">
       <c r="F20" t="s">
         <v>118</v>
       </c>
       <c r="G20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8">
       <c r="F21" t="s">
         <v>126</v>
       </c>
       <c r="G21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8">
       <c r="F22" t="s">
         <v>135</v>
       </c>
       <c r="G22" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8">
       <c r="F23" t="s">
         <v>135</v>
       </c>
       <c r="G23" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8">
       <c r="F24" t="s">
         <v>139</v>
       </c>
       <c r="G24" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8">
       <c r="F25" t="s">
         <v>143</v>
       </c>
       <c r="G25" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="26" spans="6:8" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8">
       <c r="F26" t="s">
         <v>149</v>
       </c>
       <c r="G26" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="27" spans="6:8" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8">
       <c r="F27" t="s">
         <v>150</v>
       </c>
       <c r="G27" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="28" spans="6:8" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8">
       <c r="F28" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G28" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="6:8">
       <c r="F29" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G29" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="6:8">
       <c r="F30" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G30" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="6:8">
       <c r="F31" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G31" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="6:8">
       <c r="F32" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="6:8">
       <c r="F33" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G33" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="6:8">
       <c r="F34" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G34" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:8">
       <c r="F35" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H35">
         <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F36" t="s">
-        <v>290</v>
-      </c>
-      <c r="G36" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F37" t="s">
-        <v>295</v>
-      </c>
-      <c r="G37" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F38" t="s">
-        <v>304</v>
-      </c>
-      <c r="G38" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="39" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F39" t="s">
-        <v>309</v>
-      </c>
-      <c r="G39" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="40" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F40" t="s">
-        <v>318</v>
-      </c>
-      <c r="G40" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="41" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F41" t="s">
-        <v>323</v>
-      </c>
-      <c r="G41" t="s">
-        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -4986,33 +4276,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:R14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.19921875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.19921875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.3984375" style="6" customWidth="1"/>
-    <col min="7" max="8" width="23.796875" style="6" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="6" customWidth="1"/>
+    <col min="7" max="8" width="23.85546875" style="6" customWidth="1"/>
     <col min="9" max="10" width="24" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.3984375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="11.59765625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="28.59765625" style="6" customWidth="1"/>
-    <col min="14" max="17" width="11.59765625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="46.3984375" style="6" customWidth="1"/>
-    <col min="19" max="1025" width="11.59765625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" style="6" customWidth="1"/>
+    <col min="14" max="17" width="11.5703125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="46.42578125" style="6" customWidth="1"/>
+    <col min="19" max="1025" width="11.5703125" style="6" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:18">
       <c r="D7" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>1</v>
@@ -5021,7 +4311,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>63</v>
@@ -5030,13 +4320,13 @@
         <v>64</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>6</v>
@@ -5045,48 +4335,48 @@
         <v>66</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="4:18">
       <c r="E8" s="6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O8" s="6">
         <v>1</v>
@@ -5098,36 +4388,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:18">
       <c r="E9" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="O9" s="6">
         <v>2</v>
@@ -5139,33 +4429,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:18">
       <c r="E10" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="M10" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>72</v>
@@ -5180,36 +4470,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:18">
       <c r="E11" s="6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="O11" s="6">
         <v>4</v>
@@ -5221,36 +4511,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:18">
       <c r="E12" s="6" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="O12" s="6">
         <v>5</v>
@@ -5262,36 +4552,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:18">
       <c r="E13" s="6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="O13" s="6">
         <v>6</v>
@@ -5303,15 +4593,15 @@
         <v>1</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="4:18">
       <c r="E14" s="6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>79</v>
@@ -5320,16 +4610,16 @@
         <v>79</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>79</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>79</v>
@@ -5347,7 +4637,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\agile-service-0712\agile-service\src\main\resources\script\front\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/agile-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FA2D36-8123-402F-897F-AAE04B4EC27C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="0" windowWidth="15375" windowHeight="9330" tabRatio="743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-500" yWindow="1760" windowWidth="32380" windowHeight="14940" tabRatio="743" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="362">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -502,6 +501,9 @@
     <t>agile-service.board.queryByProjectId</t>
   </si>
   <si>
+    <t>agile-service.board.queryByOptions</t>
+  </si>
+  <si>
     <t>agile-service.issue.listEpic</t>
   </si>
   <si>
@@ -530,21 +532,6 @@
   </si>
   <si>
     <t>agile-service.time-zone-work-calendar.queryTimeZoneWorkCalendar</t>
-  </si>
-  <si>
-    <t>agile-service.time-zone-work-calendar.queryTimeZoneWorkCalendarRefByTimeZoneId</t>
-  </si>
-  <si>
-    <t>foundation-service.object-scheme.pageQuery</t>
-  </si>
-  <si>
-    <t>foundation-service.page.pageQuery</t>
-  </si>
-  <si>
-    <t>foundation-service.project-object-scheme.pageQuery</t>
-  </si>
-  <si>
-    <t>foundation-service.project-page.pageQuery</t>
   </si>
   <si>
     <t>@SORT</t>
@@ -769,7 +756,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>choerodon.code.program.</t>
     </r>
@@ -777,7 +764,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>board</t>
     </r>
@@ -793,7 +780,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>choerodon.route.program.</t>
     </r>
@@ -801,7 +788,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>board</t>
     </r>
@@ -920,7 +907,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>agile-service.</t>
     </r>
@@ -928,7 +915,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>board-feature</t>
     </r>
@@ -936,7 +923,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>.</t>
     </r>
@@ -944,7 +931,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t>queryBoardInfo</t>
     </r>
@@ -968,10 +955,279 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>choerodon.code.issue</t>
+  </si>
+  <si>
+    <t>问题设置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>choerodon.code.issue.issue-type-menu</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题类型设置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Issue Type Setting</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.issue</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>devops_chart</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.issue.issue-type</t>
+  </si>
+  <si>
+    <t>问题类型</t>
+  </si>
+  <si>
+    <t>Issue Type</t>
+  </si>
+  <si>
+    <t>choerodon.route.issue.issue-type</t>
+  </si>
+  <si>
+    <t>style</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.issue.issue-type-schemes</t>
+  </si>
+  <si>
+    <t>问题类型方案</t>
+  </si>
+  <si>
+    <t>Issue Type Schemes</t>
+  </si>
+  <si>
+    <t>choerodon.route.issue.issue-type-schemes</t>
+  </si>
+  <si>
+    <t>assignment_late</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.issue.state-machine-menu</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态机设置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>State Machine Setting</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge_request</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.issue.state-machine</t>
+  </si>
+  <si>
+    <t>状态机</t>
+  </si>
+  <si>
+    <t>StateMachine</t>
+  </si>
+  <si>
+    <t>choerodon.route.issue.state-machine</t>
+  </si>
+  <si>
+    <t>transform</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.issue.state-machine-schemes</t>
+  </si>
+  <si>
+    <t>状态机方案</t>
+  </si>
+  <si>
+    <t>StateMachine Schemes</t>
+  </si>
+  <si>
+    <t>choerodon.route.issue.state-machine-schemes</t>
+  </si>
+  <si>
+    <t>flip_to_back</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.issue.attribute-menu</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题属性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Issue Attribute</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseline-drag_indicator</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.issue.state</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>choerodon.route.issue.state</t>
+  </si>
+  <si>
+    <t>hdr_strong</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.issue.priorities</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>Priorities</t>
+  </si>
+  <si>
+    <t>choerodon.route.issue.priorities</t>
+  </si>
+  <si>
+    <t>format_list_numbered</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题类型路由</t>
+    <rPh sb="4" eb="5">
+      <t>lu'you</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题类型方案路由</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态机路由</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态机方案路由</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态路由</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级路由</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/agile/issue-type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/agile/issue-type-schemes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/agile/state-machines</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/agile/state-machine-schemes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/agile/states</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/agile/priorities</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.time-zone-work-calendar.queryTimeZoneWorkCalendarRefByTimeZoneId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.object-scheme.pageQuery</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.page.pageQuery</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.project-object-scheme.pageQuery</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.project-page.pageQuery</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.issue-type.queryIssueTypeList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.issue-type-scheme.queryIssueTypeSchemeList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.state-machine-scheme.pagingQuery</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.state-machine.pagingQuery</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.status.queryStatusList</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.priority.selectAll</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈中心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feedback Center</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>choerodon.route.agile.feedback</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>center_focus_strong</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>/agile/feedback</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -980,39 +1236,31 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>choerodon.code.feedback</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>choerodon.code.agile.feedback</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>agile-service.board.queryByOptions</t>
+    <t>choerodon.code.agile.feedback</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>AGILE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>反馈中心</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Feedback Center</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>center_focus_strong</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.feedback</t>
+    <t>agile-service.feedback.queryFeedbackByPage</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1052,6 +1300,17 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1073,7 +1332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1083,6 +1342,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1384,32 +1645,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D7:O33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="J7" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39:N39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="57.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="57.3984375" customWidth="1"/>
+    <col min="7" max="7" width="23.59765625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.19921875" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" customWidth="1"/>
+    <col min="13" max="13" width="18.59765625" customWidth="1"/>
+    <col min="14" max="14" width="19.3984375" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.5703125" customWidth="1"/>
+    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1444,10 +1705,10 @@
         <v>10</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="8" spans="4:15" ht="12.75" customHeight="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1476,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:15">
+    <row r="9" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -1505,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:15">
+    <row r="10" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -1534,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:15">
+    <row r="11" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -1563,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:15">
+    <row r="12" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>26</v>
       </c>
@@ -1592,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:15">
+    <row r="13" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>29</v>
       </c>
@@ -1621,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:15">
+    <row r="14" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>32</v>
       </c>
@@ -1650,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:15">
+    <row r="15" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F15" t="s">
         <v>35</v>
       </c>
@@ -1679,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:15">
+    <row r="16" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
         <v>38</v>
       </c>
@@ -1708,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:15">
+    <row r="17" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F17" t="s">
         <v>41</v>
       </c>
@@ -1737,12 +1998,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:15">
-      <c r="F18" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>286</v>
+    <row r="18" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -1750,8 +2011,8 @@
       <c r="I18" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>287</v>
+      <c r="J18" t="s">
+        <v>46</v>
       </c>
       <c r="K18" t="s">
         <v>16</v>
@@ -1766,12 +2027,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:15">
+    <row r="19" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -1780,7 +2041,7 @@
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s">
         <v>16</v>
@@ -1795,21 +2056,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:15">
+    <row r="20" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F20" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
       </c>
-      <c r="I20" t="s">
-        <v>14</v>
+      <c r="I20" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s">
         <v>16</v>
@@ -1824,21 +2085,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="6:15">
+    <row r="21" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F21" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>210</v>
+      <c r="I21" t="s">
+        <v>52</v>
       </c>
       <c r="J21" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K21" t="s">
         <v>16</v>
@@ -1853,12 +2114,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:15">
+    <row r="22" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -1867,7 +2128,7 @@
         <v>52</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K22" t="s">
         <v>16</v>
@@ -1881,25 +2142,22 @@
       <c r="N22">
         <v>0</v>
       </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="6:15">
+    </row>
+    <row r="23" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K23" t="s">
         <v>16</v>
@@ -1913,16 +2171,13 @@
       <c r="N23">
         <v>0</v>
       </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="6:15">
+    </row>
+    <row r="24" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F24" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1931,7 +2186,7 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K24" t="s">
         <v>16</v>
@@ -1945,16 +2200,13 @@
       <c r="N24">
         <v>0</v>
       </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="6:15">
+    </row>
+    <row r="25" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F25" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>205</v>
+        <v>218</v>
+      </c>
+      <c r="G25" t="s">
+        <v>255</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -1963,7 +2215,7 @@
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>59</v>
+        <v>256</v>
       </c>
       <c r="K25" t="s">
         <v>16</v>
@@ -1981,12 +2233,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="6:15">
+    <row r="26" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -1995,7 +2247,7 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K26" t="s">
         <v>16</v>
@@ -2013,12 +2265,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="6:15">
+    <row r="27" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G27" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -2027,7 +2279,7 @@
         <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K27" t="s">
         <v>16</v>
@@ -2045,12 +2297,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="6:15">
+    <row r="28" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -2059,7 +2311,7 @@
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K28" t="s">
         <v>16</v>
@@ -2077,12 +2329,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="6:15">
-      <c r="F29" t="s">
-        <v>237</v>
-      </c>
-      <c r="G29" t="s">
-        <v>265</v>
+    <row r="29" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F29" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -2090,8 +2342,8 @@
       <c r="I29" t="s">
         <v>14</v>
       </c>
-      <c r="J29" t="s">
-        <v>266</v>
+      <c r="J29" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="K29" t="s">
         <v>16</v>
@@ -2109,12 +2361,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="6:15">
-      <c r="F30" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>267</v>
+    <row r="30" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F30" t="s">
+        <v>243</v>
+      </c>
+      <c r="G30" t="s">
+        <v>265</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -2122,8 +2374,8 @@
       <c r="I30" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>268</v>
+      <c r="J30" t="s">
+        <v>266</v>
       </c>
       <c r="K30" t="s">
         <v>16</v>
@@ -2141,12 +2393,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="6:15">
+    <row r="31" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F31" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -2155,7 +2407,7 @@
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K31" t="s">
         <v>16</v>
@@ -2173,12 +2425,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="6:15">
+    <row r="32" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G32" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
@@ -2187,7 +2439,7 @@
         <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>272</v>
+        <v>37</v>
       </c>
       <c r="K32" t="s">
         <v>16</v>
@@ -2205,21 +2457,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="6:15">
-      <c r="F33" t="s">
-        <v>257</v>
-      </c>
-      <c r="G33" t="s">
-        <v>273</v>
+    <row r="33" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F33" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
       </c>
       <c r="I33" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="J33" t="s">
-        <v>37</v>
+        <v>328</v>
       </c>
       <c r="K33" t="s">
         <v>16</v>
@@ -2233,8 +2485,179 @@
       <c r="N33">
         <v>0</v>
       </c>
-      <c r="O33">
-        <v>1</v>
+    </row>
+    <row r="34" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F34" t="s">
+        <v>298</v>
+      </c>
+      <c r="G34" t="s">
+        <v>335</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" t="s">
+        <v>329</v>
+      </c>
+      <c r="K34" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F35" t="s">
+        <v>307</v>
+      </c>
+      <c r="G35" t="s">
+        <v>336</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" t="s">
+        <v>330</v>
+      </c>
+      <c r="K35" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G36" t="s">
+        <v>337</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" t="s">
+        <v>331</v>
+      </c>
+      <c r="K36" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F37" t="s">
+        <v>321</v>
+      </c>
+      <c r="G37" t="s">
+        <v>338</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" t="s">
+        <v>332</v>
+      </c>
+      <c r="K37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F38" t="s">
+        <v>326</v>
+      </c>
+      <c r="G38" t="s">
+        <v>339</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" t="s">
+        <v>333</v>
+      </c>
+      <c r="K38" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F39" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K39" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2249,48 +2672,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D7:I49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F35" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58:I58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="7" width="51.42578125" customWidth="1"/>
-    <col min="8" max="8" width="58.42578125" customWidth="1"/>
-    <col min="9" max="9" width="31.140625" customWidth="1"/>
-    <col min="10" max="1026" width="11.5703125" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="30.19921875" customWidth="1"/>
+    <col min="7" max="7" width="51.3984375" customWidth="1"/>
+    <col min="8" max="8" width="58.3984375" customWidth="1"/>
+    <col min="9" max="9" width="31.19921875" customWidth="1"/>
+    <col min="10" max="1026" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" ht="12.75" customHeight="1">
+    <row r="7" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>152</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" ht="12.75" customHeight="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>68</v>
@@ -2299,9 +2722,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="4:9" ht="12.75" customHeight="1">
+    <row r="9" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F9" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G9" t="s">
         <v>73</v>
@@ -2310,9 +2733,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="4:9">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F10" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G10" t="s">
         <v>78</v>
@@ -2321,9 +2744,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="4:9">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F11" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G11" t="s">
         <v>82</v>
@@ -2332,9 +2755,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="4:9">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F12" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G12" t="s">
         <v>86</v>
@@ -2343,9 +2766,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="4:9">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F13" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G13" t="s">
         <v>90</v>
@@ -2354,9 +2777,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="4:9">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F14" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G14" t="s">
         <v>94</v>
@@ -2365,20 +2788,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="4:9">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F15" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="4:9">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F16" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G16" t="s">
         <v>102</v>
@@ -2387,9 +2810,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="6:9">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F17" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G17" t="s">
         <v>106</v>
@@ -2398,9 +2821,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="6:9">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F18" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G18" t="s">
         <v>110</v>
@@ -2409,9 +2832,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="6:9">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F19" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G19" t="s">
         <v>114</v>
@@ -2420,9 +2843,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="6:9">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F20" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G20" t="s">
         <v>118</v>
@@ -2431,347 +2854,422 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="6:9">
+    <row r="21" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F21" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>288</v>
+        <v>205</v>
+      </c>
+      <c r="G21" t="s">
+        <v>122</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="6:9">
+    <row r="22" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F22" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F23" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F24" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F25" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F26" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F27" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F28" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F29" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G29" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F30" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F31" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F32" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F33" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F34" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G34" t="s">
+        <v>102</v>
+      </c>
+      <c r="H34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F35" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F36" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G36" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F37" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G37" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F38" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G38" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F39" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G39" t="s">
         <v>122</v>
       </c>
-      <c r="H22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="6:9">
-      <c r="F23" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H39" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F40" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G40" t="s">
         <v>126</v>
       </c>
-      <c r="H23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="6:9">
-      <c r="F24" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F41" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G41" t="s">
         <v>147</v>
       </c>
-      <c r="H24" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="6:9">
-      <c r="F25" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H41" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F42" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G42" t="s">
         <v>149</v>
       </c>
-      <c r="H25" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="6:9">
-      <c r="F26" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="H42" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F43" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G43" t="s">
         <v>150</v>
       </c>
-      <c r="H26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="6:9">
-      <c r="F27" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="28" spans="6:9">
-      <c r="F28" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="29" spans="6:9">
-      <c r="F29" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G29" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="30" spans="6:9">
-      <c r="F30" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G30" t="s">
-        <v>82</v>
-      </c>
-      <c r="H30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="31" spans="6:9">
-      <c r="F31" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G31" t="s">
-        <v>86</v>
-      </c>
-      <c r="H31" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="32" spans="6:9">
-      <c r="F32" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G32" t="s">
-        <v>90</v>
-      </c>
-      <c r="H32" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="33" spans="6:9">
-      <c r="F33" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G33" t="s">
-        <v>94</v>
-      </c>
-      <c r="H33" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="6:9">
-      <c r="F34" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H34" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" spans="6:9">
-      <c r="F35" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G35" t="s">
-        <v>102</v>
-      </c>
-      <c r="H35" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="36" spans="6:9">
-      <c r="F36" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G36" t="s">
-        <v>106</v>
-      </c>
-      <c r="H36" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="37" spans="6:9">
-      <c r="F37" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G37" t="s">
-        <v>110</v>
-      </c>
-      <c r="H37" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="38" spans="6:9">
-      <c r="F38" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G38" t="s">
-        <v>114</v>
-      </c>
-      <c r="H38" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="39" spans="6:9">
-      <c r="F39" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G39" t="s">
-        <v>118</v>
-      </c>
-      <c r="H39" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="40" spans="6:9">
-      <c r="F40" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G40" t="s">
-        <v>122</v>
-      </c>
-      <c r="H40" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="41" spans="6:9">
-      <c r="F41" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G41" t="s">
-        <v>126</v>
-      </c>
-      <c r="H41" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="42" spans="6:9">
-      <c r="F42" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="H42" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="43" spans="6:9">
-      <c r="F43" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G43" t="s">
-        <v>147</v>
-      </c>
       <c r="H43" t="s">
-        <v>214</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="6:9">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F44" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G44" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="H44" t="s">
-        <v>214</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="6:9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F45" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G45" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H45" t="s">
-        <v>214</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="6:9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F46" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G46" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="H46" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="6:9">
+    <row r="47" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F47" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G47" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="H47" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="6:9">
+    <row r="48" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F48" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G48" t="s">
-        <v>139</v>
-      </c>
-      <c r="H48" t="s">
+        <v>207</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="6:9">
+    </row>
+    <row r="49" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F49" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G49" t="s">
-        <v>143</v>
-      </c>
-      <c r="H49" t="s">
+        <v>284</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I49">
-        <v>1</v>
+    </row>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F50" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G50" t="s">
+        <v>290</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F51" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G51" t="s">
+        <v>295</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F52" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G52" t="s">
+        <v>300</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F53" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G53" t="s">
+        <v>304</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F54" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G54" t="s">
+        <v>309</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F55" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G55" t="s">
+        <v>314</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F56" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G56" t="s">
+        <v>318</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F57" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G57" t="s">
+        <v>323</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F58" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H58" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -2781,29 +3279,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="D7:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:Q50"/>
   <sheetViews>
-    <sheetView topLeftCell="F9" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="D24" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="64.42578125" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="64.3984375" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" customWidth="1"/>
-    <col min="9" max="9" width="49.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="35.796875" customWidth="1"/>
+    <col min="9" max="9" width="49.796875" customWidth="1"/>
+    <col min="10" max="10" width="18.59765625" customWidth="1"/>
     <col min="11" max="11" width="41" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" customWidth="1"/>
-    <col min="13" max="1025" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" customWidth="1"/>
+    <col min="13" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:17" ht="12.75" customHeight="1">
+    <row r="7" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>62</v>
       </c>
@@ -2826,28 +3324,28 @@
         <v>4</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="N7" t="s">
         <v>66</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P7" t="s">
         <v>67</v>
       </c>
       <c r="Q7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="4:17" ht="12.75" customHeight="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>68</v>
       </c>
@@ -2876,7 +3374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:17">
+    <row r="9" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>73</v>
       </c>
@@ -2908,7 +3406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="4:17">
+    <row r="10" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>78</v>
       </c>
@@ -2940,7 +3438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="4:17">
+    <row r="11" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>82</v>
       </c>
@@ -2972,7 +3470,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="4:17">
+    <row r="12" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>86</v>
       </c>
@@ -3004,7 +3502,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="4:17">
+    <row r="13" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>90</v>
       </c>
@@ -3036,7 +3534,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="4:17">
+    <row r="14" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>94</v>
       </c>
@@ -3068,18 +3566,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="4:17">
+    <row r="15" spans="4:17" ht="14" x14ac:dyDescent="0.15">
       <c r="F15" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>285</v>
+        <v>208</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" t="s">
+        <v>100</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
@@ -3091,56 +3586,59 @@
         <v>14</v>
       </c>
       <c r="M15" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" t="s">
+        <v>101</v>
+      </c>
+      <c r="O15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" t="s">
         <v>76</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="O15">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="4:17" ht="12.75">
-      <c r="F16" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" t="s">
-        <v>100</v>
-      </c>
-      <c r="J16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" t="s">
-        <v>68</v>
-      </c>
-      <c r="L16" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" t="s">
-        <v>72</v>
-      </c>
       <c r="N16" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="O16">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="6:17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F17" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H17" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
@@ -3155,24 +3653,24 @@
         <v>76</v>
       </c>
       <c r="N17" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="6:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F18" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H18" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s">
         <v>13</v>
@@ -3187,24 +3685,24 @@
         <v>76</v>
       </c>
       <c r="N18" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="6:17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G19" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H19" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J19" t="s">
         <v>13</v>
@@ -3219,24 +3717,24 @@
         <v>76</v>
       </c>
       <c r="N19" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="6:17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F20" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G20" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J20" t="s">
         <v>13</v>
@@ -3251,146 +3749,146 @@
         <v>76</v>
       </c>
       <c r="N20" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O20">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="6:17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F21" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H21" t="s">
-        <v>120</v>
-      </c>
-      <c r="I21" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="L21" t="s">
         <v>14</v>
       </c>
       <c r="M21" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" t="s">
+        <v>125</v>
+      </c>
+      <c r="O21">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s">
+        <v>122</v>
+      </c>
+      <c r="L22" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" t="s">
         <v>76</v>
       </c>
-      <c r="N21" t="s">
-        <v>121</v>
-      </c>
-      <c r="O21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="6:17">
-      <c r="F22" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" t="s">
-        <v>123</v>
-      </c>
-      <c r="H22" t="s">
-        <v>124</v>
-      </c>
-      <c r="J22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" t="s">
-        <v>71</v>
-      </c>
-      <c r="L22" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
+        <v>129</v>
+      </c>
+      <c r="O22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s">
+        <v>133</v>
+      </c>
+      <c r="L23" t="s">
+        <v>52</v>
+      </c>
+      <c r="M23" t="s">
         <v>72</v>
       </c>
-      <c r="N22" t="s">
-        <v>125</v>
-      </c>
-      <c r="O22">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="6:17">
-      <c r="F23" t="s">
-        <v>126</v>
-      </c>
-      <c r="G23" t="s">
-        <v>127</v>
-      </c>
-      <c r="H23" t="s">
-        <v>128</v>
-      </c>
-      <c r="I23" t="s">
-        <v>47</v>
-      </c>
-      <c r="J23" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" t="s">
-        <v>122</v>
-      </c>
-      <c r="L23" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" t="s">
-        <v>76</v>
-      </c>
       <c r="N23" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="O23">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="6:17">
+    <row r="24" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I24" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s">
         <v>130</v>
-      </c>
-      <c r="G24" t="s">
-        <v>131</v>
-      </c>
-      <c r="H24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J24" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" t="s">
-        <v>133</v>
       </c>
       <c r="L24" t="s">
         <v>52</v>
       </c>
       <c r="M24" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N24" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="O24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="6:17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F25" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G25" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H25" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J25" t="s">
         <v>13</v>
@@ -3405,24 +3903,24 @@
         <v>76</v>
       </c>
       <c r="N25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O25">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="6:17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F26" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G26" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H26" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J26" t="s">
         <v>13</v>
@@ -3437,94 +3935,85 @@
         <v>76</v>
       </c>
       <c r="N26" t="s">
+        <v>146</v>
+      </c>
+      <c r="O26">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F27" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" t="s">
+        <v>148</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s">
+        <v>71</v>
+      </c>
+      <c r="L27" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" t="s">
+        <v>72</v>
+      </c>
+      <c r="N27" t="s">
+        <v>134</v>
+      </c>
+      <c r="O27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F28" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" t="s">
+        <v>141</v>
+      </c>
+      <c r="I28" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" t="s">
+        <v>147</v>
+      </c>
+      <c r="L28" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" t="s">
+        <v>76</v>
+      </c>
+      <c r="N28" t="s">
         <v>142</v>
       </c>
-      <c r="O26">
-        <v>100</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="6:17">
-      <c r="F27" t="s">
-        <v>143</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="O28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" t="s">
         <v>144</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H29" t="s">
         <v>145</v>
       </c>
-      <c r="I27" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" t="s">
-        <v>130</v>
-      </c>
-      <c r="L27" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" t="s">
-        <v>76</v>
-      </c>
-      <c r="N27" t="s">
-        <v>146</v>
-      </c>
-      <c r="O27">
-        <v>110</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="6:17">
-      <c r="F28" t="s">
-        <v>147</v>
-      </c>
-      <c r="G28" t="s">
-        <v>107</v>
-      </c>
-      <c r="H28" t="s">
-        <v>148</v>
-      </c>
-      <c r="J28" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28" t="s">
-        <v>71</v>
-      </c>
-      <c r="L28" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" t="s">
-        <v>72</v>
-      </c>
-      <c r="N28" t="s">
-        <v>134</v>
-      </c>
-      <c r="O28">
-        <v>90</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="6:17">
-      <c r="F29" t="s">
-        <v>149</v>
-      </c>
-      <c r="G29" t="s">
-        <v>140</v>
-      </c>
-      <c r="H29" t="s">
-        <v>141</v>
-      </c>
       <c r="I29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J29" t="s">
         <v>13</v>
@@ -3539,51 +4028,48 @@
         <v>76</v>
       </c>
       <c r="N29" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="O29">
-        <v>50</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="6:17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F30" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="G30" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="H30" t="s">
-        <v>145</v>
-      </c>
-      <c r="I30" t="s">
-        <v>61</v>
+        <v>213</v>
       </c>
       <c r="J30" t="s">
         <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="L30" t="s">
         <v>14</v>
       </c>
       <c r="M30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N30" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="O30">
-        <v>60</v>
+        <v>1</v>
+      </c>
+      <c r="P30" t="s">
+        <v>214</v>
       </c>
       <c r="Q30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="6:17">
+    <row r="31" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F31" t="s">
         <v>215</v>
       </c>
@@ -3593,49 +4079,52 @@
       <c r="H31" t="s">
         <v>217</v>
       </c>
+      <c r="I31" t="s">
+        <v>218</v>
+      </c>
       <c r="J31" t="s">
         <v>13</v>
       </c>
       <c r="K31" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="L31" t="s">
         <v>14</v>
       </c>
       <c r="M31" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N31" t="s">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c r="O31">
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="6:17">
+    <row r="32" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H32" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I32" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J32" t="s">
         <v>13</v>
       </c>
       <c r="K32" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L32" t="s">
         <v>14</v>
@@ -3644,36 +4133,36 @@
         <v>76</v>
       </c>
       <c r="N32" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P32" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="6:17">
+    <row r="33" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G33" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H33" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J33" t="s">
         <v>13</v>
       </c>
       <c r="K33" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L33" t="s">
         <v>14</v>
@@ -3682,36 +4171,36 @@
         <v>76</v>
       </c>
       <c r="N33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P33" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="6:17">
+    <row r="34" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F34" t="s">
-        <v>229</v>
-      </c>
-      <c r="G34" t="s">
         <v>230</v>
       </c>
+      <c r="G34" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="H34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J34" t="s">
         <v>13</v>
       </c>
       <c r="K34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L34" t="s">
         <v>14</v>
@@ -3720,36 +4209,36 @@
         <v>76</v>
       </c>
       <c r="N34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P34" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="6:17">
-      <c r="F35" t="s">
-        <v>234</v>
+    <row r="35" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F35" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H35" t="s">
         <v>236</v>
       </c>
-      <c r="I35" t="s">
+      <c r="H35" s="2" t="s">
         <v>237</v>
       </c>
+      <c r="I35" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="J35" t="s">
         <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L35" t="s">
         <v>14</v>
@@ -3757,37 +4246,37 @@
       <c r="M35" t="s">
         <v>76</v>
       </c>
-      <c r="N35" t="s">
-        <v>238</v>
+      <c r="N35" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="O35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P35" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="6:17">
-      <c r="F36" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G36" s="2" t="s">
+    <row r="36" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F36" t="s">
         <v>240</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="G36" t="s">
         <v>241</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="H36" t="s">
         <v>242</v>
       </c>
+      <c r="I36" t="s">
+        <v>243</v>
+      </c>
       <c r="J36" t="s">
         <v>13</v>
       </c>
       <c r="K36" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L36" t="s">
         <v>14</v>
@@ -3795,110 +4284,110 @@
       <c r="M36" t="s">
         <v>76</v>
       </c>
-      <c r="N36" s="2" t="s">
-        <v>243</v>
+      <c r="N36" t="s">
+        <v>244</v>
       </c>
       <c r="O36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P36" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="6:17">
+    <row r="37" spans="6:17" ht="14" x14ac:dyDescent="0.15">
       <c r="F37" t="s">
-        <v>244</v>
-      </c>
-      <c r="G37" t="s">
         <v>245</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="H37" t="s">
         <v>246</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" t="s">
+        <v>211</v>
+      </c>
+      <c r="L37" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" t="s">
+        <v>72</v>
+      </c>
+      <c r="N37" t="s">
+        <v>101</v>
+      </c>
+      <c r="O37">
+        <v>7</v>
+      </c>
+      <c r="P37" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F38" t="s">
         <v>247</v>
       </c>
-      <c r="J37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K37" t="s">
-        <v>215</v>
-      </c>
-      <c r="L37" t="s">
-        <v>14</v>
-      </c>
-      <c r="M37" t="s">
+      <c r="G38" t="s">
+        <v>248</v>
+      </c>
+      <c r="H38" t="s">
+        <v>249</v>
+      </c>
+      <c r="I38" t="s">
+        <v>250</v>
+      </c>
+      <c r="J38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" t="s">
+        <v>245</v>
+      </c>
+      <c r="L38" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" t="s">
         <v>76</v>
       </c>
-      <c r="N37" t="s">
-        <v>248</v>
-      </c>
-      <c r="O37">
-        <v>6</v>
-      </c>
-      <c r="P37" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="6:17" ht="12.75">
-      <c r="F38" t="s">
-        <v>249</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H38" t="s">
-        <v>250</v>
-      </c>
-      <c r="J38" t="s">
-        <v>13</v>
-      </c>
-      <c r="K38" t="s">
-        <v>215</v>
-      </c>
-      <c r="L38" t="s">
-        <v>14</v>
-      </c>
-      <c r="M38" t="s">
-        <v>72</v>
-      </c>
       <c r="N38" t="s">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="O38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P38" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="6:17">
+    <row r="39" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F39" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G39" t="s">
-        <v>252</v>
+        <v>107</v>
       </c>
       <c r="H39" t="s">
+        <v>246</v>
+      </c>
+      <c r="I39" t="s">
         <v>253</v>
       </c>
-      <c r="I39" t="s">
-        <v>254</v>
-      </c>
       <c r="J39" t="s">
         <v>13</v>
       </c>
       <c r="K39" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L39" t="s">
         <v>14</v>
@@ -3907,54 +4396,356 @@
         <v>76</v>
       </c>
       <c r="N39" t="s">
-        <v>255</v>
+        <v>109</v>
       </c>
       <c r="O39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P39" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="6:17">
-      <c r="F40" t="s">
-        <v>256</v>
-      </c>
-      <c r="G40" t="s">
-        <v>107</v>
-      </c>
-      <c r="H40" t="s">
-        <v>250</v>
-      </c>
-      <c r="I40" t="s">
-        <v>257</v>
+    <row r="40" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F40" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J40" t="s">
         <v>13</v>
       </c>
       <c r="K40" t="s">
-        <v>249</v>
+        <v>133</v>
       </c>
       <c r="L40" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M40" t="s">
+        <v>72</v>
+      </c>
+      <c r="N40" t="s">
+        <v>283</v>
+      </c>
+      <c r="O40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F41" t="s">
+        <v>284</v>
+      </c>
+      <c r="G41" t="s">
+        <v>285</v>
+      </c>
+      <c r="H41" t="s">
+        <v>286</v>
+      </c>
+      <c r="J41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" t="s">
+        <v>287</v>
+      </c>
+      <c r="L41" t="s">
+        <v>288</v>
+      </c>
+      <c r="M41" t="s">
+        <v>72</v>
+      </c>
+      <c r="N41" t="s">
+        <v>289</v>
+      </c>
+      <c r="O41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F42" t="s">
+        <v>290</v>
+      </c>
+      <c r="G42" t="s">
+        <v>291</v>
+      </c>
+      <c r="H42" t="s">
+        <v>292</v>
+      </c>
+      <c r="I42" t="s">
+        <v>293</v>
+      </c>
+      <c r="J42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" t="s">
+        <v>284</v>
+      </c>
+      <c r="L42" t="s">
+        <v>52</v>
+      </c>
+      <c r="M42" t="s">
         <v>76</v>
       </c>
-      <c r="N40" t="s">
-        <v>109</v>
-      </c>
-      <c r="O40">
-        <v>9</v>
-      </c>
-      <c r="P40" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q40">
-        <v>1</v>
+      <c r="N42" t="s">
+        <v>294</v>
+      </c>
+      <c r="O42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F43" t="s">
+        <v>295</v>
+      </c>
+      <c r="G43" t="s">
+        <v>296</v>
+      </c>
+      <c r="H43" t="s">
+        <v>297</v>
+      </c>
+      <c r="I43" t="s">
+        <v>298</v>
+      </c>
+      <c r="J43" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" t="s">
+        <v>284</v>
+      </c>
+      <c r="L43" t="s">
+        <v>52</v>
+      </c>
+      <c r="M43" t="s">
+        <v>76</v>
+      </c>
+      <c r="N43" t="s">
+        <v>299</v>
+      </c>
+      <c r="O43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F44" t="s">
+        <v>300</v>
+      </c>
+      <c r="G44" t="s">
+        <v>301</v>
+      </c>
+      <c r="H44" t="s">
+        <v>302</v>
+      </c>
+      <c r="J44" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" t="s">
+        <v>287</v>
+      </c>
+      <c r="L44" t="s">
+        <v>288</v>
+      </c>
+      <c r="M44" t="s">
+        <v>72</v>
+      </c>
+      <c r="N44" t="s">
+        <v>303</v>
+      </c>
+      <c r="O44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F45" t="s">
+        <v>304</v>
+      </c>
+      <c r="G45" t="s">
+        <v>305</v>
+      </c>
+      <c r="H45" t="s">
+        <v>306</v>
+      </c>
+      <c r="I45" t="s">
+        <v>307</v>
+      </c>
+      <c r="J45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" t="s">
+        <v>300</v>
+      </c>
+      <c r="L45" t="s">
+        <v>52</v>
+      </c>
+      <c r="M45" t="s">
+        <v>76</v>
+      </c>
+      <c r="N45" t="s">
+        <v>308</v>
+      </c>
+      <c r="O45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F46" t="s">
+        <v>309</v>
+      </c>
+      <c r="G46" t="s">
+        <v>310</v>
+      </c>
+      <c r="H46" t="s">
+        <v>311</v>
+      </c>
+      <c r="I46" t="s">
+        <v>312</v>
+      </c>
+      <c r="J46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" t="s">
+        <v>300</v>
+      </c>
+      <c r="L46" t="s">
+        <v>52</v>
+      </c>
+      <c r="M46" t="s">
+        <v>76</v>
+      </c>
+      <c r="N46" t="s">
+        <v>313</v>
+      </c>
+      <c r="O46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F47" t="s">
+        <v>314</v>
+      </c>
+      <c r="G47" t="s">
+        <v>315</v>
+      </c>
+      <c r="H47" t="s">
+        <v>316</v>
+      </c>
+      <c r="J47" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" t="s">
+        <v>287</v>
+      </c>
+      <c r="L47" t="s">
+        <v>288</v>
+      </c>
+      <c r="M47" t="s">
+        <v>72</v>
+      </c>
+      <c r="N47" t="s">
+        <v>317</v>
+      </c>
+      <c r="O47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F48" t="s">
+        <v>318</v>
+      </c>
+      <c r="G48" t="s">
+        <v>319</v>
+      </c>
+      <c r="H48" t="s">
+        <v>320</v>
+      </c>
+      <c r="I48" t="s">
+        <v>321</v>
+      </c>
+      <c r="J48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" t="s">
+        <v>314</v>
+      </c>
+      <c r="L48" t="s">
+        <v>52</v>
+      </c>
+      <c r="M48" t="s">
+        <v>76</v>
+      </c>
+      <c r="N48" t="s">
+        <v>322</v>
+      </c>
+      <c r="O48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F49" t="s">
+        <v>323</v>
+      </c>
+      <c r="G49" t="s">
+        <v>324</v>
+      </c>
+      <c r="H49" t="s">
+        <v>325</v>
+      </c>
+      <c r="I49" t="s">
+        <v>326</v>
+      </c>
+      <c r="J49" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" t="s">
+        <v>314</v>
+      </c>
+      <c r="L49" t="s">
+        <v>52</v>
+      </c>
+      <c r="M49" t="s">
+        <v>76</v>
+      </c>
+      <c r="N49" t="s">
+        <v>327</v>
+      </c>
+      <c r="O49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F50" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="J50" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" t="s">
+        <v>68</v>
+      </c>
+      <c r="L50" t="s">
+        <v>14</v>
+      </c>
+      <c r="M50" t="s">
+        <v>76</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="O50">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3969,25 +4760,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="D7:H35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="59.85546875" customWidth="1"/>
-    <col min="7" max="7" width="76.85546875" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" customWidth="1"/>
-    <col min="9" max="1025" width="11.5703125" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="59.796875" customWidth="1"/>
+    <col min="7" max="7" width="76.796875" customWidth="1"/>
+    <col min="8" max="8" width="31.19921875" customWidth="1"/>
+    <col min="9" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="12.75" customHeight="1">
+    <row r="7" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>151</v>
       </c>
@@ -4001,10 +4792,10 @@
         <v>153</v>
       </c>
       <c r="H7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8" ht="12.75" customHeight="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
         <v>73</v>
       </c>
@@ -4012,15 +4803,15 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="4:8" ht="12.75" customHeight="1">
+    <row r="9" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>73</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>78</v>
       </c>
@@ -4028,240 +4819,284 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="4:8">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8">
+      <c r="G11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F13" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>90</v>
       </c>
       <c r="G14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F15" t="s">
         <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
         <v>102</v>
       </c>
       <c r="G16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F17" t="s">
         <v>106</v>
       </c>
       <c r="G17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F18" t="s">
         <v>110</v>
       </c>
       <c r="G18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="6:8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
         <v>114</v>
       </c>
       <c r="G19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="6:8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F20" t="s">
         <v>118</v>
       </c>
       <c r="G20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="6:8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F21" t="s">
         <v>126</v>
       </c>
       <c r="G21" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="6:8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
         <v>135</v>
       </c>
       <c r="G22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="6:8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F23" t="s">
         <v>135</v>
       </c>
       <c r="G23" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="6:8">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F24" t="s">
         <v>139</v>
       </c>
       <c r="G24" t="s">
-        <v>167</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="6:8">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F25" t="s">
         <v>143</v>
       </c>
       <c r="G25" t="s">
-        <v>168</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="6:8">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F26" t="s">
         <v>149</v>
       </c>
       <c r="G26" t="s">
-        <v>169</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="6:8">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F27" t="s">
         <v>150</v>
       </c>
       <c r="G27" t="s">
-        <v>170</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="6:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F28" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G28" t="s">
+        <v>271</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F29" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" t="s">
+        <v>272</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F30" t="s">
+        <v>225</v>
+      </c>
+      <c r="G30" t="s">
+        <v>273</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F31" t="s">
+        <v>230</v>
+      </c>
+      <c r="G31" t="s">
+        <v>274</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F32" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="6:8">
-      <c r="F29" t="s">
-        <v>224</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G33" t="s">
         <v>276</v>
       </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="6:8">
-      <c r="F30" t="s">
-        <v>229</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F34" t="s">
+        <v>247</v>
+      </c>
+      <c r="G34" t="s">
         <v>277</v>
       </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="6:8">
-      <c r="F31" t="s">
-        <v>234</v>
-      </c>
-      <c r="G31" t="s">
-        <v>278</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="6:8">
-      <c r="F32" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="6:8">
-      <c r="F33" t="s">
-        <v>244</v>
-      </c>
-      <c r="G33" t="s">
-        <v>280</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="6:8">
-      <c r="F34" t="s">
-        <v>251</v>
-      </c>
-      <c r="G34" t="s">
-        <v>281</v>
-      </c>
       <c r="H34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="6:8">
+    <row r="35" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F35" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H35">
         <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F36" t="s">
+        <v>290</v>
+      </c>
+      <c r="G36" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F37" t="s">
+        <v>295</v>
+      </c>
+      <c r="G37" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F38" t="s">
+        <v>304</v>
+      </c>
+      <c r="G38" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F39" t="s">
+        <v>309</v>
+      </c>
+      <c r="G39" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F40" t="s">
+        <v>318</v>
+      </c>
+      <c r="G40" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F41" t="s">
+        <v>323</v>
+      </c>
+      <c r="G41" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="42" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F42" t="s">
+        <v>360</v>
+      </c>
+      <c r="G42" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -4276,33 +5111,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:R14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="6" customWidth="1"/>
-    <col min="7" max="8" width="23.85546875" style="6" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="23.3984375" style="6" customWidth="1"/>
+    <col min="7" max="8" width="23.796875" style="6" customWidth="1"/>
     <col min="9" max="10" width="24" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="28.5703125" style="6" customWidth="1"/>
-    <col min="14" max="17" width="11.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="46.42578125" style="6" customWidth="1"/>
-    <col min="19" max="1025" width="11.5703125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.3984375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="11.59765625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="28.59765625" style="6" customWidth="1"/>
+    <col min="14" max="17" width="11.59765625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="46.3984375" style="6" customWidth="1"/>
+    <col min="19" max="1025" width="11.59765625" style="6" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:18">
+    <row r="7" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D7" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>1</v>
@@ -4311,7 +5146,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>63</v>
@@ -4320,13 +5155,13 @@
         <v>64</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>6</v>
@@ -4335,89 +5170,89 @@
         <v>66</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P7" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+      <c r="E8" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="H8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+      <c r="E9" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="8" spans="4:18">
-      <c r="E8" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="K8" s="6" t="s">
+      <c r="M9" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="O8" s="6">
-        <v>1</v>
-      </c>
-      <c r="P8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="4:18">
-      <c r="E9" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="O9" s="6">
         <v>2</v>
@@ -4429,33 +5264,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:18">
+    <row r="10" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E10" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>72</v>
@@ -4470,36 +5305,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:18">
+    <row r="11" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E11" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O11" s="6">
         <v>4</v>
@@ -4511,36 +5346,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:18">
+    <row r="12" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E12" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="O12" s="6">
         <v>5</v>
@@ -4552,36 +5387,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:18">
+    <row r="13" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E13" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O13" s="6">
         <v>6</v>
@@ -4593,15 +5428,15 @@
         <v>1</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="4:18">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E14" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>79</v>
@@ -4610,16 +5445,16 @@
         <v>79</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>79</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>79</v>
@@ -4637,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
